--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejaswimanchineella/Desktop/portfolios/simulationcases/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8320CAB1-6364-3F4E-A31D-0B7A84B5768F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7971F15E-C2F7-6741-B242-66110D1FD78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="359">
   <si>
     <t>Category</t>
   </si>
@@ -157,9 +157,6 @@
 New episodes of morning dry mouth, snoring, and frequent waking up tired</t>
   </si>
   <si>
-    <t>Clinical Reasoning Challenges for PA Learners</t>
-  </si>
-  <si>
     <t>voiding premature attribution to tension or stress alone
 Recognizing overlapping contributors: obesity, sleep disruption, medication nonadherence
 Distinguishing between primary headache vs. secondary causes
@@ -348,6 +345,2041 @@
 Addresses medication noncompliance empathetically
 Uses motivational interviewing
 Engages patient in shared decision-making</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>Name: Mr. Mahmoud El-Sayed
+Age: 74
+Gender: Male
+Ethnicity: Egyptian
+Primary Language: Arabic (limited English)
+Interpreter required: Yes
+Setting: Emergency Department, Stroke Bay</t>
+  </si>
+  <si>
+    <t>Complaint (via daughter and interpreter):
+“My father can’t move his left arm and leg, and he’s slurring his speech.”
+Symptoms started 35 minutes before arrival, while watching television at home.</t>
+  </si>
+  <si>
+    <t>BP: 202/108 mmHg
+HR: 82 bpm
+RR: 16 bpm
+Temp: 98.9°F (37.1°C)
+SpO₂: 96% on room air
+Glucose: 112 mg/dL (POC)</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus (15 years)
+Hypertension
+Hyperlipidemia
+Atrial fibrillation (on warfarin, inconsistent follow-up)
+Mild cognitive impairment</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Amlodipine 10 mg QD
+Warfarin (unknown dose, last INR unknown)
+Simvastatin 20 mg QHS</t>
+  </si>
+  <si>
+    <t>Lives with daughter
+Retired accountant
+Non-smoker, no alcohol
+No driving
+Relies on daughter for transportation and translation
+Limited tech literacy; not connected to patient portal</t>
+  </si>
+  <si>
+    <t>Stroke team at bedside; window for thrombolytic therapy still open (now at 45 mins since onset)
+Daughter hesitant about treatment: "Isn’t there a bleeding risk? What if something goes wrong?"
+Interpreter facilitates this crucial consent discussion</t>
+  </si>
+  <si>
+    <t>Time-sensitive decision-making under pressure
+Language and cultural barriers complicating consent
+Assessing thrombolytic eligibility with subtherapeutic anticoagulation
+Clarifying roles: PA as frontline provider initiating care while escalating appropriately
+Ethical navigation of family hesitation during golden window of treatment</t>
+  </si>
+  <si>
+    <t>Initiate stroke protocol immediately upon arrival
+Communicate effectively using interpreter services
+Confirm eligibility for tPA (no hemorrhage, onset &lt;4.5 hours, INR &lt;1.7)
+Involve neurology and facilitate shared decision-making
+Begin BP control to below 185/110 mmHg before thrombolytics
+Educate and support patient/family regarding thrombolytic therapy
+Document all discussions and informed consent properly
+Coordinate handoff to stroke unit</t>
+  </si>
+  <si>
+    <t>Perform rapid focused neuro exam and NIHSS
+Order non-contrast CT and labs urgently
+Ensure interpreter is used correctly and consistently
+Confirm exclusion criteria for thrombolysis
+Control BP appropriately with IV meds
+Discuss risks/benefits of tPA clearly
+Document time of symptom onset and decision points
+Escalate care to neurology and stroke team
+Coordinate safe handoff to inpatient team</t>
+  </si>
+  <si>
+    <t>Neurology: Evaluate for tPA eligibility and post-tPA monitoring
+ED Nursing: Stroke protocol activation, BP monitoring, IV tPA admin
+Pharmacy: Prepare and dose thrombolytics, review med history
+Interpreter Services: Facilitate shared decision-making
+Case Management: Arrange follow-up, assess caregiver support
+Social Work: Assess health literacy, ensure outpatient continuity</t>
+  </si>
+  <si>
+    <t>1. What are the contraindications for IV thrombolytics in this case?
+2. How do we communicate medical risk when language and cultural norms differ?
+3. What strategies support patient-centered care in time-critical emergencies?
+4. What role does the PA play in recognizing and managing acute ischemic stroke?
+5. How might subtherapeutic anticoagulation affect this patient’s stroke risk and treatment path?</t>
+  </si>
+  <si>
+    <t>Medical Judgment: Did you correctly prioritize investigations and treatment within the narrow time window?
+Cultural Competence: How did language barriers impact care and informed consent?
+Team Dynamics: How did you engage with specialists and support staff to ensure safe, timely care?
+Documentation: What elements of risk/benefit discussion must be recorded?
+Systems Insight: How does your facility’s stroke protocol support or hinder rapid care in diverse populations?</t>
+  </si>
+  <si>
+    <t>OSCE: Use standardized patient (daughter + interpreter) for communication focus
+Classroom/Virtual Case: Students receive time-stamped updates and make branching decisions
+Sim Lab: Mannequin with evolving vitals + screen-based CT results and labs
+Interprofessional Sim: Include roles for interpreter, RN, neurology consult</t>
+  </si>
+  <si>
+    <t>Spastic diplegic Cerebral Palsy</t>
+  </si>
+  <si>
+    <t>Name: Mateo Alvarez
+Age: 14 years
+Gender: Male
+Ethnicity: Hispanic (Mexican-American)
+Language: Bilingual – Spanish and English
+Schooling: Public middle school, mainstreamed with special education support
+Living Situation: Lives with both parents and two younger siblings in a multi-generational household. Primary caregiver: mother.</t>
+  </si>
+  <si>
+    <t>Referred to occupational therapy by his school team following increased difficulty with self-care, handwriting fatigue, and social withdrawal. His teacher notes Mateo avoids group projects and seems discouraged by his mobility limitations during physical education and lunchtime activities.</t>
+  </si>
+  <si>
+    <t>HR: 76 bpm
+BP: 112/70 mmHg
+RR: 18/min
+Temp: 98.4°F
+O2 Sat: 98% on room air</t>
+  </si>
+  <si>
+    <t>Diagnosed with spastic diplegic cerebral palsy (GMFCS Level III) at 2.5 years old
+Premature birth at 30 weeks; NICU stay for 6 weeks
+Underwent selective dorsal rhizotomy at age 7
+Mild learning difficulties (processing speed, working memory)</t>
+  </si>
+  <si>
+    <t>Baclofen (oral) – for spasticity management
+Vitamin D supplement
+Occasional use of ibuprofen for muscle pain</t>
+  </si>
+  <si>
+    <t>No known drug allergies
+Environmental: Dust mites</t>
+  </si>
+  <si>
+    <t>Father works as a landscaper; mother is a homemaker
+Strong family support but limited understanding of adaptive strategies
+Financially constrained; uses Medicaid
+Mateo is highly interested in computers and animation; expresses interest in becoming a game designer
+Attends church regularly and enjoys participating in youth events when able</t>
+  </si>
+  <si>
+    <t>MRI at age 2: Periventricular leukomalacia
+Updated GMFM (Gross Motor Function Measure) shows plateau in mobility gains
+School IEP includes OT and PT; latest OT goals include improving fine motor control and fostering independence in toileting and dressing</t>
+  </si>
+  <si>
+    <t>Reports increased fatigue during ADLs
+Avoids using his walker outside the home, preferring wheelchair, citing “too slow and embarrassing”
+Struggles with zippers, buttons, and using cutlery
+Decrease in peer interactions; appears anxious about upcoming transition to high school</t>
+  </si>
+  <si>
+    <t>Balancing energy conservation with skill-building
+Addressing psychosocial and emotional needs in adolescence
+Cultural competence: Family prioritizes independence but lacks access to adaptive resources or training
+Need to assess current equipment for school and home use
+Preparing for high school transition with focus on advocacy, self-determination, and life skills.</t>
+  </si>
+  <si>
+    <t>Conduct an occupational profile with Mateo and family
+Assess fine motor skills, ADLs, and school participation using tools like COPM, SFA, and PEDI-CAT
+Identify barriers to independence (home setup, cultural attitudes, peer dynamics)
+Collaborate with PT and school staff to optimize mobility aids
+Educate family on assistive technology (adaptive utensils, voice-to-text tools)
+Facilitate goal-setting session with Mateo to identify meaningful occupations
+Address mental health concerns; consider referral for school counseling</t>
+  </si>
+  <si>
+    <t>Complete age-appropriate, culturally sensitive occupational profile
+Demonstrate understanding of GMFCS level and implications for intervention
+Use appropriate assessment tools
+Identify energy conservation techniques relevant to daily occupations
+Recommend environmental modifications at home and school
+Facilitate patient-centered goal development
+Initiate interprofessional collaboration (school counselor, PT, teacher)
+Explore self-advocacy and transition planning resources.</t>
+  </si>
+  <si>
+    <t>PT for mobility equipment re-evaluation
+Speech therapist (if needed for AAC exploration or oral-motor issues)
+School counselor/psychologist for social-emotional support
+Teacher for classroom accessibility and handwriting accommodations
+Social worker for access to funding/adaptive devices</t>
+  </si>
+  <si>
+    <t>How do Mateo’s functional classification levels guide OT intervention planning?
+How does cultural background influence the delivery of occupational therapy services in this case?
+What strategies would you implement to foster Mateo’s autonomy and self-determination?
+How can OT support Mateo’s transition to high school, both functionally and emotionally?
+What modifications can be made to school tasks to support his participation without isolating him from peers?</t>
+  </si>
+  <si>
+    <t>What biases or assumptions did you find yourself making about Mateo’s abilities or cultural context?
+How did the interdisciplinary team enhance your clinical decision-making?
+What would success look like in Mateo’s case 6 months from now?
+How can occupational therapists support family caregivers in settings with financial limitations?
+What did you learn about adolescent psychosocial development in the context of chronic disability?</t>
+  </si>
+  <si>
+    <t>This scenario can be tailored for:
+Live OSCE using standardized patient or manikin with adaptive devices
+Virtual simulation with video scenarios or interactive decision-tree simulations
+Classroom roleplay incorporating IEP planning and family meetings</t>
+  </si>
+  <si>
+    <t>Clinical Reasoning Challenges for Learners</t>
+  </si>
+  <si>
+    <t>Motor neurone disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Rajiv Malhotra
+Age: 68
+Gender: Male
+Ethnicity: South Asian
+Language: English, Hindi (native)
+Marital Status: Married
+Occupation (Retired): Mechanical engineer, formerly university professor
+Insurance: Medicare </t>
+  </si>
+  <si>
+    <t>“I’ve been dropping tools and my hand just doesn’t feel as strong — especially on the left side. It’s frustrating. I’ve also had some odd twitching in my arms lately.”</t>
+  </si>
+  <si>
+    <t>Temperature: 	36.8°C
+Heart Rate:	84 bpm
+Respiratory Rate: 	16 bpm
+Blood Pressure:	142/86 mmHg
+O2 Saturation:	98% on RA
+Weight:	76 kg
+Height:	175 cm
+BMI;	24.8</t>
+  </si>
+  <si>
+    <t>Gradual onset over 5–6 months
+Left-hand grip weakness, now interfering with buttoning shirts and opening jars
+Cramps in forearm and upper arms, mostly at night
+Reports occasional tongue heaviness when speaking quickly
+Mild choking sensation when drinking water too fast</t>
+  </si>
+  <si>
+    <t>Hypertension × 20 years
+Coronary artery disease – stent placed 5 years ago
+Hyperlipidemia
+No history of stroke or diabetes</t>
+  </si>
+  <si>
+    <t>Atorvastatin 20 mg daily
+Metoprolol succinate 50 mg daily
+Low-dose aspirin 81 mg daily
+Lisinopril 10 mg daily</t>
+  </si>
+  <si>
+    <t>No known drug allergies (NKDA)</t>
+  </si>
+  <si>
+    <t>Father died of MI at 72
+Mother had Parkinson's disease
+No known familial neuromuscular diseases</t>
+  </si>
+  <si>
+    <t>Retired, lives with spouse, active in a book club
+Drinks 2–3 glasses of wine/week
+Never smoked, no recreational drug use
+No recent travel or exposure to toxins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBC	WNL	—
+CMP	WNL	—
+CK	166 U/L	30–200 U/L
+TSH	1.7 mU/L	0.5–4.5 mU/L
+Vitamin B12	476 pg/mL	200–900 pg/mL
+ESR	10 mm/hr	&lt;20 mm/hr
+ANA	Negative	—
+Neurologic Workup (ordered as simulation evolves):
+Nerve conduction study (NCS): Normal sensory conduction; motor conduction shows low amplitude CMAPs with normal velocities
+EMG: Denervation potentials in multiple muscle groups (left hand, bilateral deltoids, tongue)
+MRI cervical spine: Mild degenerative changes, no cord compression                                 </t>
+  </si>
+  <si>
+    <t>How does the presentation differentiate motor neuron disease from cervical radiculopathy, MG, or peripheral neuropathy?
+What red flags require urgent neurology referral?
+When should PAs initiate multidisciplinary support for progressive neurological conditions?
+How to communicate uncertain, life-altering preliminary diagnoses?</t>
+  </si>
+  <si>
+    <t>Take a comprehensive neuromuscular-focused history
+Identify fasciculations and asymmetrical motor-only findings
+Formulate differential diagnoses for progressive hand weakness
+Initiate appropriate referrals and diagnostic workup
+Counsel patient sensitively on potential diagnoses and next steps
+Collaborate with neurology, PT/OT, and speech/swallow specialists</t>
+  </si>
+  <si>
+    <t>Performed detailed neuro exam, noted fasciculations and wasting
+Differentiated between sensory and motor findings
+Ordered basic labs to rule out reversible causes (B12, TSH, CK)
+Recognized red flags (bulbar symptoms, progression)
+Ordered/referred for EMG and neuro consult
+Provided preliminary counseling with empathy
+Referred to interprofessional team (speech/swallow, OT)</t>
+  </si>
+  <si>
+    <t>Neurology: Diagnosis and longitudinal management of suspected ALS/MND
+Speech-Language Pathologist: For early swallowing difficulties
+Occupational Therapy: Assistive devices, hand strength preservation
+Social Work: Long-term planning, insurance navigation, support groups
+Palliative Care (optional discussion): Introduction to future resources and goals-of-care conversations</t>
+  </si>
+  <si>
+    <t>How would you approach breaking difficult news at an early stage without a firm diagnosis?
+What is the PA’s role in initiating referrals for suspected motor neuron disease?
+What reversible or mimicking conditions must be ruled out?
+How do you manage a patient’s anxiety while balancing transparency?
+How early should interprofessional support be activated?</t>
+  </si>
+  <si>
+    <t>Clinical Judgment: "What made you prioritize neuromuscular disease over cervical radiculopathy?"
+Bias Awareness: "Did his age or occupation influence your initial thinking?"
+Communication: "How did you ensure clear, compassionate explanation to the patient?"
+System Navigation: "Where can delays in diagnosis occur — and how can PAs help mitigate that?"</t>
+  </si>
+  <si>
+    <t>Muscular Dystrophy</t>
+  </si>
+  <si>
+    <t>Name: Elijah Navarro
+Age: 9 years
+Gender: Male
+Ethnicity: Filipino-American
+Grade: 3rd grade, mainstream classroom with Individualized Education Plan (IEP)
+Primary Language Spoken at Home: Tagalog and English
+Insurance Status: Medicaid
+Referral Source: Pediatric neurologist</t>
+  </si>
+  <si>
+    <t>Elijah is referred to occupational therapy following increasing difficulty in classroom participation and decreased endurance for play activities. His teacher reports that he has recently started using a mobility aid (walker) during school hours and often requires assistance with toileting and meal times. Parents report Elijah struggles with dressing and becomes easily fatigued after minimal exertion.</t>
+  </si>
+  <si>
+    <t>Height: 126 cm
+Weight: 23 kg
+BP: 102/64 mmHg
+HR: 92 bpm
+RR: 20 breaths/min
+SpO₂: 98% on room air
+Temperature: 36.8°C</t>
+  </si>
+  <si>
+    <t>Diagnosed with Duchenne Muscular Dystrophy at age 6 via genetic testing and elevated CK levels.
+Mild scoliosis
+Occasional nocturnal enuresis
+Immunizations up to date</t>
+  </si>
+  <si>
+    <t>Prednisone (daily, low dose)
+Vitamin D supplementation
+Calcium
+Albuterol inhaler (PRN for exercise-induced bronchospasm)</t>
+  </si>
+  <si>
+    <t>No known drug allergies (NKDA)
+Mild eczema flare-ups with scented detergents</t>
+  </si>
+  <si>
+    <t>Lives with both parents and a younger sister (age 3)
+Parents are active caregivers; mother is a stay-at-home parent, father works full-time
+Lives in a second-floor apartment with no elevator
+Attends public school with resource room support
+Participates in virtual church groups and limited community recreation programs
+Cultural stigma related to disability affects family’s willingness to use adaptive equipment publicly</t>
+  </si>
+  <si>
+    <t>Elevated serum creatine kinase (CK &gt; 10,000 U/L)
+Genetic testing positive for dystrophin gene mutation
+Recent MRI: Mild fatty infiltration in hip and thigh muscles
+Scoliosis progressing mildly on recent spine x-ray
+Recent pulmonary function test: Normal but at lower percentile (60% predicted)   School-based OT evaluation
+Functional mobility assessment
+Environmental accessibility assessment (home + classroom)
+COPM (Canadian Occupational Performance Measure) interview with Elijah and parents
+Pediatric Evaluation of Disability Inventory (PEDI)
+Modified SFA (School Function Assessment)</t>
+  </si>
+  <si>
+    <t>How to balance maximizing independence while planning for progressive loss of function.
+Navigating family preferences and cultural values while recommending assistive technology and modifications.
+Differentiating fatigue from disinterest or behavioral issues.
+Collaborating with school staff to modify daily routines without stigmatizing the child.
+Interpreting objective motor data in the context of social and emotional needs.</t>
+  </si>
+  <si>
+    <t>Identify priority occupational performance areas using COPM results.
+Develop a goal-focused intervention plan that includes environmental modifications, energy conservation strategies, and adaptive techniques.
+Recommend and justify assistive technology and mobility aids, considering family context.
+Communicate findings and plan to the interdisciplinary team, including school personnel and family.
+Advocate for accessible school transport and safe home access.</t>
+  </si>
+  <si>
+    <t>Conduct a culturally sensitive family interview
+Perform observational assessment of fine motor skills
+Recommend appropriate assistive devices (e.g., dressing aids, adaptive seating)
+Provide education on fatigue management strategies
+Create a written home program (HOP) for ADL skill support
+Refer to physical therapist for orthotic evaluation
+Coordinate with special education staff for classroom accommodation plan
+Document outcomes in a SOAP note format</t>
+  </si>
+  <si>
+    <t>Pediatric PT: Mobility and orthotic support
+Speech-Language Pathologist (SLP): Swallowing safety, expressive language assessment
+Social Worker: Housing accessibility, community resources
+School Psychologist: IEP goals and classroom accommodations
+Case Manager/Nurse: Medication and medical equipment coordination</t>
+  </si>
+  <si>
+    <t>What are the ethical considerations in balancing Elijah’s autonomy with parental wishes and cultural beliefs?
+How do you respectfully introduce assistive devices in a way that reduces stigma for Elijah and his family?
+What strategies would you use to maintain Elijah’s participation in school and peer activities despite his condition?</t>
+  </si>
+  <si>
+    <t>Reflect on a moment in the scenario where your personal bias or assumptions were challenged.
+How did you ensure your clinical decisions were family-centered and culturally informed?
+What is one takeaway about managing progressive conditions in pediatric OT that you didn’t know before?</t>
+  </si>
+  <si>
+    <t>In-person classroom: Role-play interviews, develop SOAP notes, practice adaptive equipment demos.
+OSCE: Simulate caregiver education or interprofessional team meeting.
+Virtual simulation: Use pre-recorded family interviews and diagnostic data for remote planning and documentation.</t>
+  </si>
+  <si>
+    <t>Impaired Motor Function and Functional Mobility Associated With Progressive Disorders of the Central Nervous System or Multisystem Involvement.</t>
+  </si>
+  <si>
+    <t>Name: Samuel Diaz
+Age: 67
+Gender: Male
+Ethnicity: Hispanic
+Language Preference: Spanish (primary), English (limited proficiency)
+Interpreter Required: Yes
+Insurance: Medicaid</t>
+  </si>
+  <si>
+    <t>Samuel is referred to outpatient physical therapy following recent discharge from a short-term rehabilitation facility. He reports, via interpreter, increased fatigue, unsteadiness when walking, and difficulty climbing stairs. His wife adds that he’s “not himself lately” and spends most of his day sitting or sleeping.</t>
+  </si>
+  <si>
+    <t>Blood Pressure: 142/88 mmHg
+Heart Rate: 84 bpm
+Respiratory Rate: 20 breaths/min
+O2 Saturation: 95% on room air
+Temperature: 98.4°F
+Height/Weight: 5’10”, 198 lbs (BMI: 28.4)</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus (diagnosed 12 years ago; poorly controlled, recent A1C: 8.9%)
+Chronic Kidney Disease (Stage 3a)
+Peripheral Neuropathy
+Congestive Heart Failure with reduced EF (HFrEF, EF ~35%)
+Mild Cognitive Impairment (recent diagnosis during inpatient rehab)</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Lisinopril 10 mg QD
+Furosemide 40 mg QD
+Carvedilol 12.5 mg BID
+Gabapentin 300 mg TID
+Aspirin 81 mg QD
+Vitamin D 1000 IU QD</t>
+  </si>
+  <si>
+    <t>Penicillin (rash)</t>
+  </si>
+  <si>
+    <t>Lives at home with wife and adult daughter (full-time caregiver)
+Retired construction worker
+Moderate financial insecurity
+Eats primarily high-carb, high-sodium traditional foods
+Sedentary lifestyle; previously walked 1-2 blocks before fatigue set in</t>
+  </si>
+  <si>
+    <t>HbA1c: 8.9%
+eGFR: 48 mL/min/1.73 m²
+BNP: 450 pg/mL (elevated, indicating fluid overload risk)
+Echocardiogram: LVEF 35%
+MMSE: 25/30 (mild cognitive impairment)
+Recent Falls: Two reported in past 2 weeks</t>
+  </si>
+  <si>
+    <t>Samuel initially presents for outpatient PT evaluation. On exam:
+Transfers: Slow, needs assistance to stand
+Gait: Wide-based, cautious, decreased toe clearance, reports “feet feel numb”
+Strength: 4/5 in lower extremities
+Balance: Poor (BERG Balance Scale = 36/56)
+Endurance: Shortness of breath and fatigue after 3 minutes of light ambulation
+Reports intermittent dizziness when standing up, especially in the mornings</t>
+  </si>
+  <si>
+    <t>Differentiating between cardiovascular vs. neurological causes of fatigue and gait instability
+Assessing for orthostatic hypotension vs. medication side effects
+Ensuring safe progression of physical activity in a patient with heart failure and neuropathy
+Cultural and linguistic barriers impacting understanding of home exercises
+Polypharmacy risks impacting rehabilitation (e.g., gabapentin + diuretics → dizziness)
+Balancing patient autonomy vs. caregiver dependence</t>
+  </si>
+  <si>
+    <t>Conduct a focused physical therapy assessment (mobility, strength, balance, endurance)
+Screen for orthostatic hypotension
+Modify home exercise program based on cognitive and physical limitations
+Educate patient and caregiver using teach-back method, with interpreter
+Identify red flags and communicate with the referring provider (e.g., dizziness, worsening fatigue)
+Coordinate with nursing, social work, and primary care for comprehensive care</t>
+  </si>
+  <si>
+    <t>Identify and document fall risk
+Assess for orthostatic hypotension (pre/post vitals with position changes)
+Initiate a culturally appropriate, simplified HEP
+Refer for further medical review due to new or worsening symptoms
+Coordinate care with social worker re: home safety, medical compliance, food insecurity
+Ensure caregiver understanding and participation in patient education
+Discuss cognitive impairment considerations for PT planning</t>
+  </si>
+  <si>
+    <t>Nursing: Monitor weight changes and fluid retention signs
+Pharmacy: Medication reconciliation for dizziness and polypharmacy
+Primary Care Provider (PCP): Re-assess medications and cardiac status
+Social Work: Address social determinants of health (financial, dietary)
+Interpreter Services: Ensure consistent communication for patient and caregiver</t>
+  </si>
+  <si>
+    <t>What are the safety considerations for initiating PT in this patient?
+How does his heart failure impact rehabilitation goals and progression?
+What strategies can you use to improve patient engagement despite cognitive challenges?
+What culturally competent approaches would help improve compliance with his care plan?
+How do we balance fall risk with promoting independence in ambulation?</t>
+  </si>
+  <si>
+    <t>What biases may affect how we interpret Samuel’s symptoms or behavior?
+How did you approach communicating with a non-English-speaking patient and family?
+Reflect on your comfort level in managing patients with multiple comorbidities.
+How would you prioritize referrals and communication with other providers?
+What would be your plan if the patient began exhibiting signs of decompensated heart failure during your session?</t>
+  </si>
+  <si>
+    <t>This scenario can be modified for:
+OSCE (objective structured clinical examination): Use actors and vital sign stations
+Classroom case-based learning: Small group discussions
+Virtual simulation: Integrate interactive video clips, decision trees
+Telehealth PT training: Role-play remote evaluation and caregiver instruction</t>
+  </si>
+  <si>
+    <t>Gastrointestinal System</t>
+  </si>
+  <si>
+    <t>Pyloric Stenosis</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Laila Farooq
+Age: 58
+Gender: Female
+Ethnicity: South Asian (Pakistani)
+Language: Urdu (limited English proficiency)
+Interpreter Required: Yes (certified medical interpreter)</t>
+  </si>
+  <si>
+    <t>Temperature: 97.8°F (36.5°C)
+Heart Rate: 96 bpm
+Blood Pressure: 102/70 mmHg
+Respiratory Rate: 18/min
+SpO₂: 98% on room air
+Weight: 108 lbs (down 12 lbs in 1 month)
+BMI: 18.9 (underweight)</t>
+  </si>
+  <si>
+    <t>Chronic epigastric discomfort for 6+ years
+Diagnosed H. pylori-positive gastritis 4 years ago (completed triple therapy)
+Treated intermittently for peptic ulcer disease with PPIs
+Osteoarthritis (knees), managed conservatively</t>
+  </si>
+  <si>
+    <t>Pantoprazole 40 mg daily (intermittent adherence)
+Acetaminophen as needed for knee pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	No known drug allergies (NKDA)</t>
+  </si>
+  <si>
+    <t>Immigrated to U.S. 10 years ago
+Lives with husband and adult daughter
+Diet: Traditional South Asian (spiced, tea-heavy, low fiber)
+Non-smoker, no alcohol or drug use
+Primary caregiver for grandchildren
+Access to care limited by language, transportation, and trust in "Western medicine"</t>
+  </si>
+  <si>
+    <t>"My stomach feels full all the time and I can’t keep food down."Progressive early satiety, epigastric bloating
+Projectile, non-bilious vomiting — especially after meals, with visible undigested food
+Vomiting gives temporary relief
+No hematemesis, but vomit is malodorous
+Constipation (last BM 5 days ago), no flatus
+Abdominal distension and fatigue increasing
+History provided via interpreter and daughter.</t>
+  </si>
+  <si>
+    <t>CBC: Mild normocytic anemia (Hgb 10.8 g/dL)
+Electrolytes:
+Na⁺ 130 mEq/L
+K⁺ 2.9 mEq/L
+Cl⁻ 88 mEq/L
+HCO₃⁻ 34 mEq/L
+BUN/Cr: Elevated BUN, Cr normal
+Serum Ca²⁺: Low
+ABG: Metabolic alkalosis
+Upper GI Series (Barium Meal): Delayed gastric emptying, dilated stomach with retained food material, tapering at pylorus (“string sign”)
+Abdominal Ultrasound: Normal liver and pancreas, no ascites</t>
+  </si>
+  <si>
+    <t>Recognizing delayed presentation due to cultural/linguistic barriers
+Differentiating benign vs malignant causes of gastric outlet obstruction
+Managing severe electrolyte derangement in an outpatient-to-inpatient transition
+Balancing diagnostic escalation vs immediate stabilization
+Navigating communication with limited-English-proficiency patients and family expectations</t>
+  </si>
+  <si>
+    <t>Perform full GI-focused history and physical exam using interpreter
+Order appropriate labs and imaging (electrolytes, ABG, UGI series, abdominal imaging)
+Recognize signs of volume depletion and metabolic alkalosis
+Initiate NG decompression and fluid/electrolyte resuscitation
+Consult gastroenterology for upper endoscopy
+Counsel family on diagnosis and next steps using cultural sensitivity
+Collaborate with interpreter and care coordinator for patient-centered discharge plan</t>
+  </si>
+  <si>
+    <t>Accurately assess hydration status and volume loss
+Interpret electrolyte and ABG findings appropriately
+Initiate NG tube and monitor output
+Start IV fluids with potassium and chloride replacement
+Order confirmatory imaging (UGI series or endoscopy)
+Rule out malignancy (age-appropriate concern)
+Ensure proper interpreter use throughout patient interactions
+Demonstrate empathetic and respectful cross-cultural communication
+Educate patient and family clearly on condition and treatment options</t>
+  </si>
+  <si>
+    <t>Gastroenterology: Urgent endoscopy for diagnostic confirmation and possible balloon dilatation
+Dietitian: Post-obstruction dietary education and nutritional recovery plan
+Pharmacy: PPI regimen education, managing interactions
+Interpreter Services: Ongoing patient-centered communication
+Social Work: Address transportation barriers, health literacy support
+Case Manager: Coordinate follow-up care and ensure continuity post-discharge</t>
+  </si>
+  <si>
+    <t>How does chronic ulcer history lead to pyloric stenosis, and how is this different from gastric cancer?
+What are the key clinical signs and lab clues pointing to metabolic alkalosis in this patient?
+How would your approach differ if this were a pediatric case or a patient with known gastric cancer?
+What considerations must you take into account when using an interpreter in high-stakes discussions?
+Why is cultural humility vital when caring for immigrant populations with chronic GI issues?</t>
+  </si>
+  <si>
+    <t>Reflect on how language barriers influenced your diagnostic and communication process.
+Did you feel confident managing the electrolyte abnormalities? Why or why not?
+How did you prioritize between stabilization and diagnostic clarity?
+What would you do if this patient had refused admission due to family obligations?
+How can the healthcare system improve early detection in underrepresented immigrant communities?</t>
+  </si>
+  <si>
+    <t>OSCE: Simulated patient or standardized patient with interpreter present
+Classroom: Group discussion with lab interpretation and decision-making tree
+Virtual Simulation: Use of electronic health record snippets, audio-based case cues, or video scenarios</t>
+  </si>
+  <si>
+    <t>Appendicitis</t>
+  </si>
+  <si>
+    <t>Name: Laila Ahmed
+Age: 28
+Gender: Female
+Ethnicity: Middle Eastern
+Language Preference: English (primary), Arabic (conversational)
+Occupation: Elementary school teacher
+Insurance Status: Medicaid</t>
+  </si>
+  <si>
+    <t>“My lower belly hurts, and I feel nauseous again. I thought this was just postpartum stuff.”</t>
+  </si>
+  <si>
+    <t>BP: 124/78 mmHg
+HR: 96 bpm
+RR: 18 breaths/min
+Temp: 100.8°F (38.2°C)
+SpO₂: 98% on room air
+Weight: 154 lbs (BMI: 27.1)</t>
+  </si>
+  <si>
+    <t>Laila Ahmed, a 28-year-old G1P1 woman, presents to the emergency department 3 weeks postpartum following a vaginal delivery without complications. She reports worsening lower abdominal pain for the past 24 hours, now localized to the right lower quadrant. Initially dull and diffuse, the pain has become sharper and more focused. She also reports loss of appetite, nausea without vomiting, and difficulty ambulating due to discomfort. No bowel movement in 36 hours. She is breastfeeding and worried about medications affecting her newborn.</t>
+  </si>
+  <si>
+    <t>Gestational diabetes (resolved)
+Mild iron-deficiency anemia during pregnancy
+No prior surgeries</t>
+  </si>
+  <si>
+    <t>Prenatal vitamins
+Ferrous sulfate 325 mg PO daily
+Ibuprofen PRN for perineal discomfort</t>
+  </si>
+  <si>
+    <t>NKDA</t>
+  </si>
+  <si>
+    <t>Non-smoker
+No alcohol or recreational drug use
+Lives with husband and infant son
+Reports family support
+Diet includes many traditional home-cooked meals with lower fiber content
+No recent travel or sick contacts</t>
+  </si>
+  <si>
+    <t>CBC: WBC 15,200/mm³ (neutrophil predominant)
+CRP: Elevated
+UA: Negative for leukocytes, nitrates
+β-hCG: Negative
+Abdominal ultrasound: Non-visualized appendix, no pelvic free fluid
+CT Abdomen with contrast: Distended 8 mm appendix with surrounding fat stranding, no perforation
+Lactate: Normal
+Blood cultures: Pending</t>
+  </si>
+  <si>
+    <t>Atypical presentation in postpartum—abdominal discomfort may be misattributed to uterine involution, constipation, or postpartum changes.
+Balancing diagnostic testing with breastfeeding concerns—e.g., contrast use and maternal medication.
+Communication barrier—involves cultural sensitivity and reassurance regarding maternal-newborn health.
+Navigating care escalation in an ED setting—advocating for surgical consult as a PA.</t>
+  </si>
+  <si>
+    <t>Obtain thorough history with emphasis on postpartum status
+Conduct focused abdominal exam (including rebound, guarding, Rovsing’s, psoas)
+Interpret lab/imaging and identify likely appendicitis
+Initiate appropriate orders (IV fluids, pain control, NPO, surgical consult)
+Communicate concerns clearly with surgical team
+Counsel patient on diagnosis, treatment, and implications for breastfeeding</t>
+  </si>
+  <si>
+    <t>Rule out pregnancy with β-hCG
+Perform and document focused abdominal and pelvic exams
+Order CBC, CMP, CRP, UA, and imaging
+Start NPO status
+Begin IV fluids and antibiotics (e.g., Cefoxitin)
+Call surgery for consult
+Provide patient-centered explanation including risks/benefits of imaging and surgery
+Address breastfeeding safety with medications and procedures
+Document shared decision-making</t>
+  </si>
+  <si>
+    <t>Surgery: Consultation for appendectomy
+Pharmacy: Review of antibiotic safety in lactation
+Lactation Consultant: Post-op support and medication counseling
+Nursing: Pain management, monitoring, patient education
+Interpreter Services: As needed, for Arabic-speaking family members</t>
+  </si>
+  <si>
+    <t>What red flags differentiate routine postpartum pain from surgical causes?
+How do you modify care for lactating patients?
+What strategies promote interprofessional collaboration in high-acuity settings?
+What biases might delay diagnosis in postpartum patients?</t>
+  </si>
+  <si>
+    <t>Reflect on how postpartum physiology can mask pathology.
+Discuss how the PA’s role supports diagnostic momentum in the ED.
+Explore how cultural competency shaped patient trust and engagement.
+Identify moments where early intervention changed the clinical trajectory.
+Review communication strategies that ensured the surgical team acted promptly.</t>
+  </si>
+  <si>
+    <t>OSCE: Use standardized patient with postpartum abdominal pain, require learner to order tests and explain plan.
+Virtual simulation: Include branching decision points regarding imaging and lactation concerns.
+Classroom case-based discussion: Focus on differential diagnosis and interprofessional care coordination.</t>
+  </si>
+  <si>
+    <t>Diverticulitis</t>
+  </si>
+  <si>
+    <t>Name: William “Bill” Hernandez
+Age: 72
+Gender: Male
+Ethnicity: Hispanic
+Language Preference: English and conversational Spanish
+Occupation (Retired): Former HVAC technician
+Insurance Status: Medicare with supplemental plan</t>
+  </si>
+  <si>
+    <t>“It’s that same pain on the left again… but worse this time.”</t>
+  </si>
+  <si>
+    <t>BP: 138/86 mmHg
+HR: 110 bpm
+RR: 20 breaths/min
+Temp: 101.6°F (38.7°C)
+SpO₂: 97% on room air
+Weight: 198 lbs (BMI: 29.6)</t>
+  </si>
+  <si>
+    <t>Mr. Hernandez presents with worsening left lower quadrant (LLQ) abdominal pain that started gradually two days ago and became more intense overnight. He describes it as “deep and crampy,” now a 7/10, not relieved by bowel movements. He also reports low-grade fevers, intermittent chills, fatigue, and bloating. He had a similar episode 6 months ago, treated as a mild diverticulitis flare in urgent care with oral antibiotics but no imaging was done.
+He reports 3 loose stools in the past day, denies blood or mucus. No recent travel, new foods, or known sick contacts. His appetite is diminished, and he’s concerned it’s “something worse this time.”</t>
+  </si>
+  <si>
+    <t>Hypertension
+Hyperlipidemia
+Diverticular disease (colonoscopy 3 years ago showed moderate diverticulosis)
+Atrial fibrillation (on anticoagulation)
+GERD</t>
+  </si>
+  <si>
+    <t>Amlodipine 5 mg daily
+Atorvastatin 20 mg nightly
+Apixaban 5 mg BID
+Pantoprazole 40 mg daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Penicillin (rash)</t>
+  </si>
+  <si>
+    <t>Lives with wife, married 45 years
+Non-smoker, quit drinking 10 years ago
+Walks daily, moderately active
+No recent antibiotic use
+Hispanic diet—often low in fiber, reports “a lot of rice and meat, not much salad”</t>
+  </si>
+  <si>
+    <t>CBC: WBC 14,700/mm³ (left shift)
+CRP: Elevated
+CMP: Normal except mild hyponatremia
+UA: Normal
+Lactate: Normal
+Blood cultures: Drawn
+CT Abdomen/Pelvis with contrast:
+Sigmoid colon with thickened wall, pericolic fat stranding, multiple diverticula
+Localized air bubble suggestive of microperforation
+No abscess identified</t>
+  </si>
+  <si>
+    <t>Recognizing atypical progression in a known chronic condition
+Balancing urgency with anticoagulation status
+Avoiding anchoring bias from a prior "mild" diverticulitis diagnosis
+Navigating antibiotic choices with a penicillin allergy
+Considering when to escalate to surgical or interventional radiology consult</t>
+  </si>
+  <si>
+    <t>Perform a focused abdominal exam including signs of peritonitis
+Order and interpret appropriate labs and imaging
+Initiate broad-spectrum IV antibiotics tailored for a penicillin-allergic patient
+Maintain NPO status and IV fluids
+Recognize signs of complicated diverticulitis (microperforation)
+Initiate consults (surgery, GI if needed)
+Counsel patient and family regarding diagnosis, treatment plan, and risks</t>
+  </si>
+  <si>
+    <t>Order CBC, CMP, CRP, blood cultures
+Order abdominal/pelvic CT with contrast
+Start IV fluids and NPO
+Administer IV antibiotics (e.g., aztreonam + metronidazole)
+Notify surgery for evaluation due to microperforation
+Hold anticoagulant temporarily (in consultation with cardiology or internal medicine)
+Provide culturally sensitive education on diverticular disease and dietary changes
+Document all actions, reassess within 1 hour</t>
+  </si>
+  <si>
+    <t>Surgery: Evaluation for possible intervention if condition worsens
+Pharmacy: Selecting safe antibiotics for penicillin-allergic patient
+Nutritionist: Post-discharge dietary counseling on fiber intake and diverticular prevention
+Nursing: Monitoring for signs of sepsis, administering medications
+Case Manager: Discharge planning, follow-up coordination</t>
+  </si>
+  <si>
+    <t>1.	What are the clinical red flags that distinguish uncomplicated from complicated diverticulitis?
+2.	How do you manage antimicrobial therapy in the setting of drug allergies and comorbidities?
+3.	When should a PA escalate to surgical consultation for diverticulitis?
+4.	What considerations must be made when managing a patient on anticoagulants with a suspected microperforation?
+5.	How does cultural dietary practice influence chronic disease management?</t>
+  </si>
+  <si>
+    <t>What cognitive biases could have impacted this diagnosis?
+How would the management differ if this were a first-time presentation?
+Reflect on how communication style changes with elderly patients and family dynamics.
+What are key PA roles in managing interprofessional transitions (ED to surgery or medicine)?
+Consider how lifestyle and nutrition intersect with chronic GI disease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classroom Use: Encourage group roleplay—PA, nurse, pharmacist, patient
+OSCE Format: Include standardized patient portraying LLQ pain with subtle anxiety
+Virtual Simulation: Use branching logic for medication allergies, clinical decisions, and consult timing
+</t>
+  </si>
+  <si>
+    <t>Giardiasis</t>
+  </si>
+  <si>
+    <t>Name: Charles "Charlie" Rowe
+Age: 65
+Gender: Male
+Occupation: Recently retired insurance claims adjuster
+Language: English
+Marital Status: Married, two adult children
+Insurance: Medicare + Travel Supplemental Plan</t>
+  </si>
+  <si>
+    <t>"I saw someone here a couple weeks ago for stomach problems after I came back from a trip. They thought it was just traveler's diarrhea and gave me something to slow it down, but it hasn’t gotten any better. In fact, I’ve dropped almost 15 pounds and still feel awful."</t>
+  </si>
+  <si>
+    <t>Temp: 98.7°F (37.1°C)
+BP: 158/88 mmHg
+HR: 84 bpm
+RR: 16
+SpO₂: 98% on room air
+Weight: 160 lbs (was 174 lbs 2 weeks ago)
+BMI: 23.4</t>
+  </si>
+  <si>
+    <t>Diarrhea began ~2 weeks ago during return from a 10-day guided coach tour through rural Eastern Europe (Romania, Bulgaria, Poland).
+Onset was sudden, with foul-smelling, watery, pale stools, 3–5x/day
+No visible blood or mucus
+Mild crampy abdominal pain, not relieved by defecation
+Fatigue, low appetite, occasional nausea
+Reports weight loss of ~6.5 kg (~14 lbs) since the onset
+Used loperamide (Imodium) as prescribed previously — no significant relief</t>
+  </si>
+  <si>
+    <t>Mild essential hypertension (diagnosed 4 years ago)
+No GI disorders, no surgeries, no diabetes, no history of IBD or IBS
+Vaccinated appropriately for age (incl. Hep A/B prior to trip)</t>
+  </si>
+  <si>
+    <t>Amlodipine 5 mg daily
+Loperamide as needed (taken daily for 10 days)
+Multivitamin</t>
+  </si>
+  <si>
+    <t>Retired recently from a sedentary job
+Smokes ~10 cigarettes/day
+Drinks 2 pints of beer most days
+No drug use
+No recent antibiotic use
+Lives with spouse, supportive family, no pets. Travel details (if asked) -Consumed local food and drink, including tap water, during excursions
+No one else in the tour group reported illness
+Notes that hygiene on the coach trip was “a bit questionable” at times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBC	WBC 8.3 ×10⁹/L	4.0–11.0
+Hgb	13.7 g/dL	13.0–17.0
+Hct	41%	38–50%
+Electrolytes	Na 138, K 3.5, Cl 104, Bicarb 20	Normal
+BUN	18 mg/dL	7–20
+Creatinine	0.9 mg/dL	0.6–1.2
+CRP	2.1 mg/L	&lt;5.0
+Stool antigen panel	Pending	
+Ova and parasites	Pending	
+Stool leukocytes	Negative	
+Occult blood	Negative	</t>
+  </si>
+  <si>
+    <t>Differentiating infectious vs. non-infectious diarrhea
+Distinguishing small vs. large bowel origin
+Recognizing red flags (e.g., weight loss, duration &gt;14 days)
+Interpreting when empiric antidiarrheals may hinder diagnosis
+Knowing when to escalate to gastroenterology or infectious disease
+Integrating travel and exposure history meaningfully into DDx
+Culturally competent inquiry about hygiene, dietary exposures abroad</t>
+  </si>
+  <si>
+    <t>Perform thorough history and focused abdominal exam
+Order appropriate stool tests (O&amp;P, antigen panel, culture)
+Withhold loperamide until infection ruled out
+Provide education about hydration, avoidance of antidiarrheals if infectious
+Initiate empiric treatment if appropriate (e.g., metronidazole for suspected Giardia)
+Consider screening for lactose intolerance post-treatment
+Recommend follow-up stool clearance testing if Giardia confirmed
+Communicate plan clearly and compassionately</t>
+  </si>
+  <si>
+    <t>Asked about recent travel and exposures
+Identified weight loss as concerning
+Differentiated infectious vs. inflammatory diarrhea
+Ordered stool O&amp;P and antigen testing
+Held further antidiarrheal use pending diagnosis
+Considered empiric treatment based on findings
+Educated patient on hydration and follow-up
+Discussed potential for secondary lactose intolerance
+Considered referral if symptoms persist or worsen</t>
+  </si>
+  <si>
+    <t>Consult Infectious Disease or GI if diagnosis unclear
+Pharmacist consult for metronidazole dosing and interactions
+Nutritionist referral post-recovery (weight regain, lactose testing)
+Public health follow-up if exposure source is community-based</t>
+  </si>
+  <si>
+    <t>What are the clinical features that help you localize this diarrhea to the small bowel?
+How does Giardia lamblia typically present, and why might it go undiagnosed in primary care?
+What are potential harms of inappropriate loperamide use in infectious diarrhea?
+How would your management differ if this patient had a compromised immune system?
+When is it appropriate to refer to a gastroenterologist after infectious diarrhea?</t>
+  </si>
+  <si>
+    <t>What assumptions did you make early in the case? How did they guide or misguide you?
+What clinical red flags helped elevate this beyond simple “traveler’s diarrhea”?
+How confident were you in choosing to delay or withhold medications like loperamide?
+Did you feel prepared to handle a conversation about parasitic illness with a patient?
+How did you integrate the travel and dietary history into your diagnostic reasoning?</t>
+  </si>
+  <si>
+    <t>Endocrine System</t>
+  </si>
+  <si>
+    <t>Hyperthyroidism</t>
+  </si>
+  <si>
+    <t>Name: Priya R.
+Age: 32
+Gender: Female
+Ethnicity: South Asian
+Occupation: Software Developer
+Language Preference: English, fluent; conversational Hindi</t>
+  </si>
+  <si>
+    <t>"I’ve been feeling constantly hot, anxious, and my heart races even when I’m resting. I also noticed I'm losing weight even though I'm eating more."</t>
+  </si>
+  <si>
+    <t>Temperature: 99.5°F (37.5°C)
+Heart Rate: 112 bpm (regular, resting tachycardia)
+Respiratory Rate: 20 breaths/min
+Blood Pressure: 128/74 mmHg
+O2 Sat: 99% on room air
+BMI: 19.2 (down from 21.5 six months ago)</t>
+  </si>
+  <si>
+    <t>Occasional ibuprofen for headaches
+Daily multivitamin</t>
+  </si>
+  <si>
+    <t>Mother: Hashimoto’s thyroiditis
+Father: Hypertension
+No known family history of autoimmune disorders beyond mother</t>
+  </si>
+  <si>
+    <t>Lives alone; recently moved to a new city for work
+Non-smoker, drinks socially (~2 drinks/week)
+No illicit drug use
+Diet: vegetarian, high soy intake
+Recent stress due to a major software product launch (working long hours)
+No recent travel</t>
+  </si>
+  <si>
+    <t>Differentiating primary vs. secondary causes of thyrotoxicosis
+Recognizing atypical or early signs of Graves’ disease
+Interpreting subtle findings (e.g., subclinical ophthalmopathy)
+Understanding cultural/dietary influence (soy &amp; iodine impact)
+Managing thyrotoxicosis in high-functioning young adults with stress overlap</t>
+  </si>
+  <si>
+    <t>General: Anxious-appearing, slight hand tremor noted
+Neck: Mild symmetrical enlargement of the thyroid; moves with swallowing, no nodules
+Eyes: Mild lid lag, no proptosis
+Skin: Warm and slightly moist; mild erythema over shins
+CVS: Tachycardia, no murmurs
+Neuro: Reflexes brisk; proximal muscle weakness in upper limbs
+No lymphadenopathy                                     CBC, CMP
+TSH, Free T4, Free T3
+Thyroid peroxidase antibodies (TPO)
+Thyroid-stimulating immunoglobulin (TSI)
+ECG: shows sinus tachycardia
+Thyroid ultrasound: diffusely enlarged gland, no nodules
+RAIU (pending)</t>
+  </si>
+  <si>
+    <t>Elicit complete symptom history, including dietary and cultural factors
+Formulate differential diagnosis (Graves’ disease, thyroiditis, toxic nodular goiter, stress-induced tachycardia, anxiety disorder)
+Order and interpret relevant thyroid and autoimmune labs
+Develop initial management plan including symptomatic relief (e.g., propranolol), definitive therapy, and follow-up
+Address mental health and lifestyle factors
+Communicate findings clearly to patient and supervising physician
+Coordinate care with endocrinology, nursing, and mental health providers</t>
+  </si>
+  <si>
+    <t>Recognize signs of hyperthyroidism (clinical + lab)
+Assess for red flag symptoms (thyroid storm, atrial fibrillation, psychosis)
+Counsel on diagnosis and treatment options (meds, RAI, surgery)
+Discuss propranolol use and contraindications
+Facilitate endocrinology referral
+Provide culturally competent care (vegetarian diet, iodine education)
+Document thoroughly and communicate plan to supervising physician</t>
+  </si>
+  <si>
+    <t>Endocrinology: Diagnosis confirmation and long-term management
+Pharmacy: Medication education and monitoring
+Nursing: Monitoring for side effects, medication compliance
+Mental Health: Stress, anxiety, possible adjustment disorder
+Nutritionist: Guidance on iodine balance, soy intake</t>
+  </si>
+  <si>
+    <t>What features help distinguish Graves’ disease from thyroiditis or anxiety?
+How can we counsel patients on antithyroid drug risks vs. radioactive iodine therapy?
+What are the considerations in managing a vegetarian diet and hyperthyroidism?
+How might a high-stress tech work environment mask or mimic endocrine symptoms?
+How would your approach change if this were a telehealth visit?</t>
+  </si>
+  <si>
+    <t>What signs did you catch early, and what did you miss?
+What communication challenges arose and how were they handled?
+How confident were you in differentiating thyroid causes?
+Did you use appropriate interprofessional resources?
+How can cultural humility enhance diagnosis and adherence?</t>
+  </si>
+  <si>
+    <t>Ophthalmology</t>
+  </si>
+  <si>
+    <t>Ptosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Layla Hassan
+Age: 29
+Gender: Female
+Ethnicity: Middle Eastern
+Occupation: Software engineer
+Marital Status: Single
+</t>
+  </si>
+  <si>
+    <t>“I’ve been having this weird eyelid drooping on the left side. It’s subtle in the morning but worse by the end of the day. And lately, I feel more tired when I talk or chew.”</t>
+  </si>
+  <si>
+    <t>Temperature: 98.7°F (37.1°C)
+BP: 116/72 mmHg
+HR: 78 bpm
+RR: 14
+SpO₂: 98% on room air
+Weight: 58 kg
+Height: 5’6”</t>
+  </si>
+  <si>
+    <t>Migraines (diagnosed age 24, well-controlled)
+No history of diabetes, hypertension, or thyroid disease
+No prior surgeries or head trauma</t>
+  </si>
+  <si>
+    <t>Sumatriptan 50mg PRN
+Vitamin D supplement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	NKDA</t>
+  </si>
+  <si>
+    <t>Non-smoker
+Rare alcohol use
+Lives alone; works remotely
+Recent high stress due to layoffs at work
+No recreational drug use
+Exercises infrequently</t>
+  </si>
+  <si>
+    <t>General: Alert, oriented, pleasant, appears fatigued
+HEENT:
+Left-sided ptosis, worsens with sustained upward gaze
+Pupils equal, round, reactive to light and accommodation (PERRLA)
+Extraocular movements intact; no nystagmus
+No proptosis or lid edema
+Speech: Slurred after prolonged counting
+Neuro:
+Mild proximal muscle fatigue in shoulders after repetition
+Deep tendon reflexes normal
+No sensory deficit
+Lab/Diagnostics Ordered:
+CBC, CMP – WNL
+TSH, Free T4 – WNL
+Acetylcholine receptor antibody panel – Pending
+Edrophonium (Tensilon) test – Positive (dramatic, temporary resolution of ptosis)
+Chest CT (to assess for thymoma) – Pending
+Ice Pack Test – Positive improvement of ptosis
+MRI Brain/Orbit with contrast – No acute intracranial pathology or mass lesions</t>
+  </si>
+  <si>
+    <t>Differentiating between neurogenic, myogenic, and mechanical causes of ptosis
+Recognizing subtle signs of myasthenia gravis and diurnal variation
+Considering non-ocular presenting signs of systemic neuromuscular disorders
+Applying evidence-based algorithms for evaluating eyelid droop
+Deciding when to escalate to neurology and initiate immunologic work-up</t>
+  </si>
+  <si>
+    <t>Take a targeted neuromuscular history focusing on fatigue, ocular, bulbar symptoms.
+Perform a focused cranial nerve exam including sustained upgaze and ice pack test.
+Construct a differential diagnosis for unilateral ptosis with normal pupil.
+Order initial investigations appropriately (AChR antibodies, imaging).
+Recognize need for specialist referral and potential need for urgent respiratory function testing if generalized MG is suspected.
+Counsel the patient on diagnostic plan, and safety net red flags (e.g., respiratory or swallowing difficulty).
+Document appropriately with consideration for billing and coding in outpatient neurology.</t>
+  </si>
+  <si>
+    <t>Identify red flags (bulbar/respiratory signs, diplopia)
+Perform accurate cranial nerve testing including EOMs
+Demonstrate proper use of Tensilon or ice pack test
+Generate differential (MG, Horner's, CN III palsy, botulism, etc.)
+Communicate effectively with supervising physician and neurology
+Initiate labs and imaging per protocol
+Provide culturally sensitive patient education and follow-up plan</t>
+  </si>
+  <si>
+    <t>Neurology Consultation – for diagnosis confirmation, possible EMG or further immunologic testing
+Pharmacy – medication counseling for cholinesterase inhibitors or immunosuppressants
+Respiratory Therapy – FVC monitoring if MG progresses to generalized form
+Social Work – support with occupational issues and mental health support for chronic illness</t>
+  </si>
+  <si>
+    <t>What are the key physical exam findings that made you consider MG over other causes of ptosis?
+How do you explain the difference between true ptosis and pseudoptosis?
+Why is pupil size a crucial detail in differentiating between CN III palsy and MG?
+What complications could arise if this condition goes unrecognized?
+How would your approach differ if this patient presented in the emergency department?</t>
+  </si>
+  <si>
+    <t>Knowledge: What did you learn about the spectrum of ocular neuromuscular diseases?
+Skills: How confident are you in your approach to the cranial nerve exam? Where can you improve?
+Teamwork: How did you communicate your findings and collaborate with team members?
+Patient-centered care: How did you take cultural or emotional context into account with this patient?
+Clinical Judgement: Would you have done anything differently if the ice pack test was negative?</t>
+  </si>
+  <si>
+    <t>Teaching pearls</t>
+  </si>
+  <si>
+    <t>Teaching Pearls:
+	Myasthenia gravis is the great imitator in neuro-ophthalmology; always consider it with fluctuating symptoms.
+	A normal pupil with ptosis narrows the differential significantly—pupil-involving third nerve palsy is often a vascular emergency.
+	The ice pack test can be a simple, low-resource bedside tool to support diagnosis in resource-limited settings.</t>
+  </si>
+  <si>
+    <t>Musculoskeletal</t>
+  </si>
+  <si>
+    <t>Spinal Muscular Atrophy</t>
+  </si>
+  <si>
+    <t>Name: Isa Garcia
+Age: 6 years old
+Gender: Female
+Ethnicity: Hispanic (Mexican-American)
+Primary Language: English and Spanish
+School Grade: Kindergarten
+Setting: Public elementary school (inclusive classroom setting)</t>
+  </si>
+  <si>
+    <t>Isa was referred for occupational therapy by her pediatric neurologist following a recent clinical deterioration in gross and fine motor skills. Her teachers report difficulty with classroom participation, fatigue during tasks, and challenges with accessing school materials and play equipment.</t>
+  </si>
+  <si>
+    <t>Temperature: 98.6°F
+Heart Rate: 108 bpm (mildly elevated, consistent with exertion)
+Respiratory Rate: 24 breaths/min (mild tachypnea)
+O2 Saturation: 96% on room air
+Weight: Below 5th percentile for age
+Height: 43 inches</t>
+  </si>
+  <si>
+    <t>Diagnosed with Spinal Muscular Atrophy Type II at 15 months
+Global hypotonia, with progressive weakness noted since age 3
+Delayed motor milestones (never ambulated independently)
+G-tube placement at age 4 due to feeding fatigue
+Recent history of recurrent lower respiratory tract infections</t>
+  </si>
+  <si>
+    <t>Nusinersen (Spinraza) — intrathecal administration every four months
+Albuterol — PRN via nebulizer
+Multivitamin with iron</t>
+  </si>
+  <si>
+    <t>Lives with parents and younger brother in a multi-generational home
+Parents are bilingual, highly engaged in her care, and involved in advocacy groups
+Mother is a stay-at-home caregiver; father is a delivery driver
+Limited access to adaptive recreational opportunities in the community
+Enrolled in an inclusive classroom with occasional aide support
+Family expresses concern about future schooling and Isa’s independence</t>
+  </si>
+  <si>
+    <t>Genetic testing: Homozygous deletion of SMN1 gene
+Pulmonary function tests: FVC 58% predicted (moderate restriction)
+Recent motor assessment: Decline in upper limb function (BOT-2)
+SFA scores: Participation limitations in fine motor classroom tasks, self-care, and mobility
+PEDI scores: Emerging independence in basic self-care with device use</t>
+  </si>
+  <si>
+    <t>Increased fatigue during classroom tasks
+Difficulty manipulating writing tools and zippers
+Decreased endurance with feeding and toileting routines
+Mild postural scoliosis developing
+Emotional distress due to perceived difference from peers</t>
+  </si>
+  <si>
+    <t>Balancing safety with autonomy in school-based ADLs
+Adapting fine motor and self-care tasks for participation
+Integrating culturally sensitive family goals in intervention
+Identifying durable medical equipment needs without over-reliance
+Planning for progressive decline while fostering independence</t>
+  </si>
+  <si>
+    <t>Conduct a detailed school-based occupational therapy evaluation
+Identify client-centered goals using the COPM and family input
+Recommend adaptive tools (e.g., universal cuff, adapted scissors, supportive seating)
+Collaborate with school staff for classroom modifications
+Develop an energy conservation strategy for school tasks
+Educate caregivers and teachers on joint protection and fatigue management
+Coordinate with PT and SLP regarding mobility and feeding supports</t>
+  </si>
+  <si>
+    <t>Perform child- and caregiver-centered occupational profile
+Interpret functional assessment data (BOT-2, PEDI, SFA)
+Propose and justify environmental modifications in the classroom
+Develop short- and long-term OT goals
+Identify interprofessional team roles in Isa’s care
+Discuss progressive nature of SMA and anticipatory guidance
+Communicate findings effectively to non-OT professionals and family</t>
+  </si>
+  <si>
+    <t>Physical Therapist: Postural supports, wheelchair assessment
+Speech-Language Pathologist: Feeding safety, AAC (if needed)
+Respiratory Therapist: Pulmonary hygiene training
+Pediatrician/Neurologist: Medical management updates
+School Psychologist: Emotional support, self-esteem issues
+Teacher/Paraeducator: Curriculum access and adaptive tools use</t>
+  </si>
+  <si>
+    <t>How can occupational therapy support a child in an inclusive setting with a progressive disorder?
+What does "least restrictive environment" mean in Isa’s context?
+How would you involve Isa in setting her own therapy goals?
+What strategies would promote Isa's participation without increasing fatigue?
+How would you address concerns from a culturally diverse family navigating a complex diagnosis?</t>
+  </si>
+  <si>
+    <t>What went well in your evaluation and intervention planning?
+What challenges did you encounter in integrating family values and expectations?
+How did you apply evidence-based practices to your clinical decisions?
+In what ways did you collaborate with other professionals in Isa’s care?
+What are your considerations for managing a degenerative condition over time?</t>
+  </si>
+  <si>
+    <t>This case scenario can be used for:
+Classroom discussion (clinical reasoning labs)
+OSCE stations (assessing functional evaluation, communication)
+Virtual simulations (telehealth assessment, caregiver education)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiovascular </t>
+  </si>
+  <si>
+    <t>Infective Endocarditis</t>
+  </si>
+  <si>
+    <t>"I’ve been feeling tired all the time and having night sweats for two weeks. My back hurts, and I keep getting chills."</t>
+  </si>
+  <si>
+    <t>Temp: 100.9°F (38.3°C)
+BP: 110/68 mmHg
+HR: 104 bpm, regular
+RR: 18 bpm
+SpO₂: 97% on room air
+Weight: 67 kg
+Height: 5'7"</t>
+  </si>
+  <si>
+    <t>Rheumatic fever as a child
+Mitral valve prolapse diagnosed 5 years ago (not routinely followed)
+Untreated dental abscess 3 weeks ago (self-managed with OTC pain relief)</t>
+  </si>
+  <si>
+    <t>Occasionally takes ibuprofen
+Not currently on any chronic medication</t>
+  </si>
+  <si>
+    <t>Non-smoker
+No alcohol or illicit drug use
+Lives with wife and two children
+Does not have a regular primary care provider
+Limited access to healthcare due to financial concerns
+Dental hygiene: poor, last dental visit &gt;5 years ago</t>
+  </si>
+  <si>
+    <t>CBC: Hb 10.2 g/dL, WBC 14,500 (neutrophil predominant), Platelets 140k
+ESR: 68 mm/hr
+CRP: Elevated
+Urinalysis: Microscopic hematuria, mild proteinuria
+EKG: Sinus tachycardia
+CXR: Cardiomegaly, no infiltrates
+Blood cultures x2 pending
+Echocardiogram (Transthoracic): Mitral valve vegetation, mild regurgitation</t>
+  </si>
+  <si>
+    <t>On day 2 of observation, Mr. Khan develops a new Grade II/VI pansystolic murmur not noted earlier, persistent low-grade fever, and reports increased fatigue.
+He has splinter hemorrhages on fingernails and mild left costovertebral angle tenderness. A TEE is ordered for further clarification. Subacute Infective Endocarditis (SIE) likely secondary to viridans streptococci, associated with pre-existing mitral valve prolapse and poor dental hygiene.</t>
+  </si>
+  <si>
+    <t>Recognizing non-specific constitutional symptoms as a manifestation of endocarditis
+Interpreting immunological and embolic signs (e.g., splinter hemorrhages, hematuria)
+Making clinical decisions before definitive blood culture results
+Navigating cultural and language barriers in history taking and follow-up
+Coordinating prompt cardiology consult and imaging</t>
+  </si>
+  <si>
+    <t>Elicit focused cardiac history including childhood illnesses
+Perform and document a complete cardiovascular and systemic exam
+Recognize red flags: constitutional symptoms, changing murmur, embolic signs
+Order appropriate labs and imaging
+Initiate empiric antibiotics after cultures
+Communicate findings to attending and cardiology
+Provide culturally sensitive education on diagnosis and follow-up
+Coordinate with infectious disease and dental services</t>
+  </si>
+  <si>
+    <t>Obtain thorough history, including dental and cardiac history
+Perform cardiac auscultation and identify murmur changes
+Recognize need for blood cultures before antibiotics
+Identify need for echocardiography (TTE → TEE)
+Begin empiric IV antibiotic therapy
+Consult cardiology and ID teams
+Educate patient on disease, treatment, and follow-up needs
+Document all findings, handoffs, and consults</t>
+  </si>
+  <si>
+    <t>Cardiology: Confirm diagnosis, manage valve involvement
+Infectious Disease: Guide long-term antibiotic therapy
+Nursing: Monitor vitals, IV therapy, patient education
+Social Work: Address financial barriers to follow-up
+Interpreter Services: Ensure accurate communication
+Dental Services: Address oral source of infection</t>
+  </si>
+  <si>
+    <t>What elements of Mr. Khan’s history increased his risk for endocarditis?
+Why is it important to collect multiple blood cultures from different sites?
+What complications should you anticipate with subacute IE?
+How would the management differ if the patient were an IV drug user with tricuspid valve involvement?
+What are barriers to care this patient may face after discharge?</t>
+  </si>
+  <si>
+    <t>Cognitive: What findings were most critical in your decision-making?
+Affective: How did the patient’s background or presentation affect your interaction?
+Technical: What steps would you change in your management next time?
+Systems-Based: How do healthcare access and health literacy affect outcomes in chronic cardiac conditions?</t>
+  </si>
+  <si>
+    <t>This case can be adapted as:
+OSCE Station: Focus on cardiac auscultation, differential diagnosis, clinical reasoning
+Virtual Simulation: Use evolving symptoms and labs with timed decision points
+Classroom PBL: Break into stages with role-play (e.g., PA, nurse, cardiologist)</t>
+  </si>
+  <si>
+    <t>Social Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active Listening </t>
+  </si>
+  <si>
+    <t>Name: Michael Alvarez
+Age: 44
+Gender: Male
+Ethnicity: Latinx
+Language: Bilingual (English/Spanish)
+Living Situation: Currently unstably housed; rotating between shelters and staying with friends</t>
+  </si>
+  <si>
+    <t>Michael presents to a community health clinic after being referred by an ER social worker due to multiple recent visits for poorly controlled diabetes and cellulitis of the left foot. He reports worsening fatigue, difficulty managing medications, and increased stress related to unstable housing and recent job loss.</t>
+  </si>
+  <si>
+    <t>Blood Pressure: 138/88 mmHg
+Heart Rate: 98 bpm
+Temperature: 99.5°F
+Respiratory Rate: 18/min
+Oxygen Saturation: 97% on room air
+Weight: 206 lbs (BMI: 30.2)</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus (diagnosed 5 years ago)
+Hypertension
+Peripheral Neuropathy
+History of alcohol use disorder (in remission 2 years)
+Major Depressive Disorder, previously diagnosed but not currently in therapy</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Lisinopril 10 mg QD
+Insulin Glargine (inconsistent use)
+Gabapentin 300 mg BID (not refilled in over a month)</t>
+  </si>
+  <si>
+    <t>Recently laid off from a warehouse job; previously worked inconsistent hours
+Does not currently have insurance; applied for Medicaid but reports confusion about the process
+Family estranged; no reliable supports
+Sleeps in a local shelter when space allows, otherwise “couch surfs”
+Reports food insecurity
+Struggles with transportation to appointments
+Limited digital literacy; no smartphone
+Reports feeling “burnt out,” “not seen,” and that “no one really listens” during past care experiences</t>
+  </si>
+  <si>
+    <t>HbA1c: 11.2%
+Creatinine: 1.5 mg/dL
+WBC: 12.3 (elevated)
+Left foot X-ray: no osteomyelitis noted, but shows soft tissue swelling
+Urine tox screen: Negative
+Urinalysis: Trace protein, moderate ketones</t>
+  </si>
+  <si>
+    <t>Over the past 3 days, Michael reports:
+Worsening fatigue
+Occasional dizziness when standing
+Increased thirst
+Foot dressing not changed regularly; wound “oozing”
+Increasing anxiety and withdrawal from peers at the shelter</t>
+  </si>
+  <si>
+    <t>Navigating fragmented care for a client with multiple comorbidities and no consistent access to care
+Engaging with a client who may mistrust the healthcare system due to prior negative experiences
+Differentiating between medical and psychosocial contributors to non-adherence
+Identifying and responding to possible depressive symptoms that affect motivation and engagement
+Assessing capacity for self-care and medication management in the context of homelessness</t>
+  </si>
+  <si>
+    <t>Demonstrate active listening using paraphrasing and reflective techniques
+Conduct a culturally sensitive psychosocial assessment, recognizing systemic barriers
+Identify client goals in their own words
+Recognize signs of depression and explore mental health referral options
+Coordinate with a nurse or provider to address wound care follow-up
+Facilitate connection to housing navigation services and Medicaid support
+Use observational data (e.g., hygiene, gait, non-verbal behavior) to inform assessment
+Document key risk indicators (suicidality, neglect, inability to self-manage care)</t>
+  </si>
+  <si>
+    <t>Establish rapport using active listening and culturally appropriate communication
+Identify barriers to medication adherence and follow-up care
+Initiate interprofessional communication (e.g., with nurse, primary care provider)
+Explore mental health symptoms and willingness to engage in therapy
+Provide education on diabetes in accessible language
+Make appropriate referrals (housing, Medicaid navigator, mental health)
+Assess for safety and ability to manage current health conditions in current living situation</t>
+  </si>
+  <si>
+    <t>Coordinate with a nurse for wound care education
+Collaborate with community outreach worker or housing specialist
+Partner with pharmacist (if accessible) to assess medication options without insurance
+Work with behavioral health clinician for mental health assessment and possible therapy referral</t>
+  </si>
+  <si>
+    <t>What social determinants of health are most impacting Michael’s current health and well-being?
+How would you approach goal-setting with Michael, given his current challenges?
+What techniques could you use to ensure Michael feels heard and respected in this interaction?
+How can your role as a social worker contribute to preventing future ER visits for this client?
+What ethical dilemmas might arise in balancing autonomy with clear health risks?</t>
+  </si>
+  <si>
+    <t>What did you notice about Michael’s non-verbal communication, and how did that influence your approach?
+How did you use active listening to build rapport or shift the dynamic of the conversation?
+What assumptions did you bring into the interaction, and how did they impact your decisions?
+Were there any moments where you felt challenged in advocating for Michael within a medical setting?
+How might you follow up with this client in a way that builds continuity and trust?</t>
+  </si>
+  <si>
+    <t>Suitable for in-person or virtual simulation
+Can be adapted for use in Objective Structured Clinical Examinations (OSCEs)
+Flexible for undergraduate or graduate-level social work students with medical-social field placements
+Role of "Michael" can be portrayed live or via recorded video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundaries and Connections </t>
+  </si>
+  <si>
+    <t>Name: Maya R.
+Age: 31
+Gender: Female
+Ethnicity: Afro-Caribbean (second-generation Jamaican-Canadian)
+Occupation: Freelance graphic designer
+Marital Status: Married, spouse often travels for work
+Language: English, fluent
+Insurance Status: Public coverage
+Living Situation: Lives with spouse and newborn son in a rented condo in an urban setting</t>
+  </si>
+  <si>
+    <t>Maya has been referred to the hospital’s perinatal social work team by a family medicine resident for emotional distress. During a 6-week postpartum checkup, she reported difficulty bonding with her baby, feeling numb, crying frequently, and sleeping only when the baby sleeps. She denies suicidal ideation but says, "I don’t feel like myself anymore."</t>
+  </si>
+  <si>
+    <t>BP: 118/76 mmHg
+HR: 84 bpm
+Temp: 98.1°F (36.7°C)
+RR: 16
+SpO₂: 98% on room air</t>
+  </si>
+  <si>
+    <t>Mild asthma (childhood onset, stable)
+Diagnosed with generalized anxiety disorder at age 19; managed without meds for past 5 years
+Emergency C-section delivery due to fetal distress</t>
+  </si>
+  <si>
+    <t>None currently (discontinued sertraline 6 months before pregnancy)
+Occasional use of Ventolin inhaler (rare)</t>
+  </si>
+  <si>
+    <t>None Known</t>
+  </si>
+  <si>
+    <t>Support network is limited; parents are estranged due to unresolved family trauma.
+Spouse (partner of 7 years) is supportive but works in another city 5 days a week.
+Reports feeling isolated—has no close friends nearby.
+Financial stress: freelance work has dried up since birth, no maternity benefits as self-employed.
+Identifies as spiritual but not religious.
+No substance use.</t>
+  </si>
+  <si>
+    <t>Edinburgh Postnatal Depression Scale (EPDS): 17 (clinical concern)
+CBC and thyroid function: WNL (within normal limits)
+No signs of infection or physiological complications from C-section
+No known organic cause for mental health symptoms</t>
+  </si>
+  <si>
+    <t>Maya’s symptoms have persisted and slightly worsened since the initial contact. At the time of simulation, she is tearful, fatigued, expresses guilt over not enjoying motherhood, and wonders aloud whether her child would be better off with someone else. She also expresses distrust of "professionals who haven’t been through it themselves."</t>
+  </si>
+  <si>
+    <t>Navigating Maya’s need for connection while maintaining professional boundaries.
+Deciding if and how to use self-disclosure in response to her remark about trusting only those with lived experience.
+Assessing risk without pathologizing normal postpartum struggles, while also identifying signs of postpartum depression or anxiety.
+Culturally competent care: Understanding the intersectionality of Maya’s identity, cultural expectations, and mental health.
+Advocating for interdisciplinary care (e.g., psychiatry, primary care, lactation support, peer support).
+Balancing short-term crisis support vs. long-term mental health planning, considering systemic barriers (e.g., lack of private insurance, isolation).</t>
+  </si>
+  <si>
+    <t>Establish rapport while upholding professional boundaries
+Conduct a psychosocial assessment tailored to postpartum experience
+Explore Maya’s support system, financial concerns, and mental health history
+Consider ethical use of limited self-disclosure (if any)
+Identify red flags and need for psychiatric consult
+Facilitate interprofessional referral (e.g., postpartum support group, psychiatrist, family physician)
+Document assessment and proposed care plan accurately and sensitively</t>
+  </si>
+  <si>
+    <t>Use active listening and empathetic validation
+Ask culturally informed and trauma-informed questions
+Evaluate for postpartum depression and anxiety using clinical and contextual cues
+Avoid inappropriate self-disclosure
+Consider how lived experience might influence your emotional response
+Collaborate with medical team (nurse, MD, psych)
+Create a safety and support plan
+Refer to relevant community resources (e.g., postpartum peer support, financial aid)
+Reflect on personal biases and professional boundaries</t>
+  </si>
+  <si>
+    <t>Collaborate with OB-GYN and psychiatry for medication evaluation
+Work with lactation consultants if feeding is a stressor
+Engage public health nurses and early parenting programs
+Coordinate with community housing/benefit support for economic relief
+Consult with culturally specific postpartum doulas or support networks</t>
+  </si>
+  <si>
+    <t>When might self-disclosure be appropriate in this case? What are the potential risks and benefits?
+How does Maya’s cultural background and isolation impact your intervention?
+How would you engage Maya if she mistrusts professionals?
+What are your personal beliefs about parenting and mental health—and how might they show up in this session?
+How would you document your clinical reasoning and intervention plan?</t>
+  </si>
+  <si>
+    <t>What was challenging about this interaction?
+Did you feel a pull to self-disclose? Why or why not?
+What was your internal emotional response to Maya’s vulnerability?
+How did you navigate empathy vs. over-identification?
+Were there moments where boundaries could have been crossed? How did you manage them?</t>
+  </si>
+  <si>
+    <t>In-Classroom Role Play: One student as social worker, one as Maya, with instructor observation
+OSCE Format: Structured interaction with standardized patient
+Virtual Simulation: Use telehealth setting for added nuance (e.g., limited visual cues, distractions)</t>
+  </si>
+  <si>
+    <t>Navigating Complex Addiction</t>
+  </si>
+  <si>
+    <t>Name: Malik Johnson
+Age: 32
+Gender: Male
+Ethnicity: African American
+Pronouns: He/Him
+Occupation: Unemployed, formerly worked in construction
+Marital Status: Single, non-custodial father of two
+Housing Status: Transitional housing following incarceration</t>
+  </si>
+  <si>
+    <t>Malik presents to a community health clinic seeking help for insomnia, persistent fatigue, irritability, and anxiety. He also reports difficulty finding stable work and mentions he’s “feeling close to the edge.</t>
+  </si>
+  <si>
+    <t>BP: 134/88 mmHg
+HR: 98 bpm
+Temp: 98.2°F
+RR: 18 bpm
+Weight: 152 lbs (70 kg)
+BMI: 21.1</t>
+  </si>
+  <si>
+    <t>Diagnosed with moderate opioid use disorder (OUD) 4 years ago
+Completed inpatient rehab 2 years ago
+History of Hepatitis C (successfully treated)
+One suicide attempt 3 years ago (post-incarceration release)</t>
+  </si>
+  <si>
+    <t>Buprenorphine-Naloxone (Suboxone) – self-discontinued 2 months ago
+Trazodone 50mg PRN for sleep (non-compliant)</t>
+  </si>
+  <si>
+    <t>Recently released from prison (served 18 months for possession with intent to distribute)
+Lives in a halfway house with mandatory curfews and group therapy
+Children live with maternal grandmother; limited visitation rights
+No consistent support system; estranged from immediate family
+History of trauma: Witnessed domestic violence and experienced foster care placement as a youth
+Occasionally attends a local support group but feels “judged”
+Facing employment discrimination due to criminal record</t>
+  </si>
+  <si>
+    <t>Urine Toxicology Screen: Negative for opioids, positive for cannabis and benzodiazepines
+CBC: WNL
+Liver function tests: Mild elevation in AST/ALT
+HCV RNA: Undetectable (post-treatment)
+Mental Health Screening:
+PHQ-9: 17 (Moderate to Severe Depression)
+GAD-7: 14 (Moderate Anxiety)</t>
+  </si>
+  <si>
+    <t>Over the course of a week, Malik returns to the clinic twice: once after a panic attack during a job interview, and another time requesting help with "getting his life back on track." He is reluctant to restart medication-assisted treatment, stating he wants to handle things “naturally.” His halfway house reports missed curfews and withdrawal from group meetings.
+Malik expresses frustration with social service systems: “Everywhere I go, they treat me like an addict, not a person.” He is visibly exhausted and emotionally distant, and hints at using benzodiazepines without a prescription for sleep.</t>
+  </si>
+  <si>
+    <t>How to address Malik’s ambivalence toward treatment without compromising autonomy
+Navigating trauma-informed care principles in high-stress, low-resource settings
+Balancing confidentiality with mandated reporting in halfway house settings
+Assessing readiness for change and strategies for motivational interviewing
+Addressing cultural humility, systemic racism, and reentry discrimination
+Managing dual diagnoses (mental health and substance use) with co-occurring stigma
+Facilitating interagency collaboration with probation officers, housing caseworkers, and health professionals</t>
+  </si>
+  <si>
+    <t>Establish rapport using trauma-informed and culturally competent communication
+Conduct a strength-based assessment to identify supports and barriers
+Collaborate with the healthcare team regarding mental health and addiction treatment
+Refer to employment reentry programs and peer support networks
+Explore legal aid options related to custody and employment discrimination
+Use motivational interviewing techniques to assess treatment readiness
+Coordinate with the halfway house to clarify expectations and identify supports</t>
+  </si>
+  <si>
+    <t>Initiate non-judgmental, strengths-based conversation
+Assess mental health and substance use through appropriate tools
+Identify client goals and perceived barriers
+Refer for psychiatric evaluation and possible MAT restart
+Coordinate with halfway house case manager for behavioral accountability plan
+Provide harm reduction education (especially regarding benzodiazepine misuse)
+Develop a care plan integrating employment, housing, and parenting goals
+Practice cultural humility and validate client’s lived experience</t>
+  </si>
+  <si>
+    <t>Primary care provider for medication and physical health concerns
+Psychiatrist or nurse practitioner for co-occurring mental health support
+Probation officer to align care plan with legal requirements
+Employment specialist for vocational training
+Peer recovery coach for lived experience mentorship
+Housing caseworker to prevent discharge from transitional housing</t>
+  </si>
+  <si>
+    <t>How does Malik’s criminal record affect his social determinants of health?
+What strategies could help build trust and increase his engagement?
+What are the ethical dilemmas in working with a client who is non-compliant with treatment?
+How do race, stigma, and reentry policies intersect in this case?
+What role can a social worker play in advocating within broken systems?</t>
+  </si>
+  <si>
+    <t>What did you feel when interacting with Malik?
+Were there moments where bias may have influenced your thinking?
+What resources would have helped you intervene more effectively?
+How did your approach change as Malik’s symptoms evolved?
+Reflect on the power dynamics present in each interprofessional interaction.</t>
+  </si>
+  <si>
+    <t>Classroom: Small group case discussion or roleplay
+OSCE: Standardized patient interaction with evaluation rubric
+Virtual Simulation: Interactive modules with branching decision trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigating Resistance </t>
+  </si>
+  <si>
+    <t>Name: Darius Hill
+Age: 28
+Gender: Male
+Ethnicity: African American
+Preferred Pronouns: He/Him
+Occupation: Former freelance graphic designer; currently unemployed
+Living Situation: Lives alone in subsidized housing in an urban neighborhood</t>
+  </si>
+  <si>
+    <t>“I’ve been feeling tired all the time, and I can’t sleep. My stomach’s always off, and I keep missing my check-ins.”</t>
+  </si>
+  <si>
+    <t>BP: 124/80
+HR: 92 bpm
+RR: 18/min
+Temp: 98.7°F
+SpO2: 97% on room air
+Weight: 143 lbs
+BMI: 19.4</t>
+  </si>
+  <si>
+    <t>Generalized Anxiety Disorder (GAD)
+History of opioid misuse (last documented relapse: 8 months ago)
+IBS-D (Irritable Bowel Syndrome with diarrhea)
+Mild hypertension (diagnosed 2 years ago)</t>
+  </si>
+  <si>
+    <t>Sertraline 50mg daily
+Loperamide PRN
+Lisinopril 5mg daily (nonadherent past 2 months)</t>
+  </si>
+  <si>
+    <t>Family estranged due to previous legal issues and drug use
+One significant past relationship—ended after relapse
+Receives SNAP and Medicaid
+Sporadic contact with a community-based peer recovery group
+Missed last 3 behavioral health appointments
+Recently evicted from co-op work training due to “non-participation”
+Previously incarcerated at age 19 for non-violent drug offense
+Reports frequent feelings of shame and mistrust in authority figures</t>
+  </si>
+  <si>
+    <t>Urine drug screen: Negative
+CBC, CMP: WNL
+Sleep assessment screening (via PHQ-9): Suggestive of moderate depression
+GAD-7: Score of 13 (moderate anxiety)</t>
+  </si>
+  <si>
+    <t>Initially presented with vague somatic complaints (fatigue, poor sleep, gastrointestinal distress), which have evolved into broader psychosocial concerns upon further interview. Denies current substance use but minimizes emotional distress. Indicates frustration with "being treated like a number" and denies that counseling or therapy ever helped.</t>
+  </si>
+  <si>
+    <t>High resistance to behavioral health engagement
+Ambivalence about change (possibly in contemplation or relapse stage)
+Trauma-informed care and mistrust of institutions
+Nonadherence to care plan
+Impact of past incarceration and racial disparities on health-seeking behavior
+Socioeconomic factors (housing, food insecurity, employment) influencing engagement
+Chronic stress influencing physical symptoms</t>
+  </si>
+  <si>
+    <t>Conduct a motivational interviewing-informed psychosocial assessment
+Identify and assess Darius’ stage of change
+Build rapport while navigating mistrust and resistance
+Employ culturally competent and trauma-informed practices
+Collaborate with the interprofessional team (e.g., nurse practitioner, psychiatrist, peer support specialist)
+Coordinate community resources (housing, employment, legal aid)
+Document client interactions and barriers to care with a strengths-based lens</t>
+  </si>
+  <si>
+    <t>Initiates client-centered engagement using motivational interviewing
+Normalizes resistance and explores ambivalence
+Acknowledges client’s lived experience and systemic barriers
+Collaborates with client to explore realistic, short-term goals
+Facilitates interprofessional communication with healthcare team
+Documents key psychosocial factors and risk areas
+Offers appropriate referrals (e.g., peer support, legal advocacy, trauma counseling)</t>
+  </si>
+  <si>
+    <t>Psychiatrist: Medication management for GAD/depression
+Nurse practitioner: Monitoring hypertension and GI issues
+Peer support specialist: Re-engagement in recovery community
+Employment counselor: Re-enrollment in workforce development
+Case manager: Assistance with housing instability
+Legal advocate: Support with expungement or reentry support</t>
+  </si>
+  <si>
+    <t>Clinical Decision-Making
+What stage of change is Darius likely in? How might this influence your approach?
+How can you use the principles of motivational interviewing to foster engagement?
+What signs suggest deeper trauma or systemic mistrust?
+Cultural Competence
+How might Darius’ racial and socioeconomic background impact his healthcare experiences and resistance?
+What biases or assumptions should you be aware of in this case?
+Interprofessional Practice
+Which team member would you consult with first and why?
+How might you advocate for the client if another team member questions the value of continued behavioral health services?</t>
+  </si>
+  <si>
+    <t>Reflect on moments where the client expressed resistance. How did you respond?
+What strategies helped build rapport? What might you have done differently?
+How did you incorporate the client’s lived experience into your assessment and planning?
+Where did your own emotions or biases show up during the interaction?
+What systemic barriers need to be addressed for Darius to achieve sustainable progress?</t>
+  </si>
+  <si>
+    <t>This case is designed for use in:
+OSCEs (Objective Structured Clinical Exams) with standardized clients
+Virtual simulation modules using branching decision paths
+Classroom-based roleplays and case conferences</t>
+  </si>
+  <si>
+    <t>Leonard presents on postoperative day 7 with fever, chills, and rigors following a converted open right hemicolectomy for colon cancer.</t>
+  </si>
+  <si>
+    <t>Blood Pressure: 112/67 mmHg
+Respiratory Rate: 18 breaths/min
+Pulse: 108 beats/min
+Temperature: 100.9°F (38.3°C)
+SpO₂: 96% on room air</t>
+  </si>
+  <si>
+    <t>Mr. Mateo was admitted for an elective laparoscopic right hemicolectomy for newly diagnosed colon cancer. Intraoperative challenges necessitated conversion to open surgery due to dense adhesions. On post-op day 7, he develops fever and generalized malaise. He reports increasing pain and swelling at the incision site and has noticed cloudy drainage from the wound.</t>
+  </si>
+  <si>
+    <t>Appendectomy at age 15 years
+Diverticulitis, hospitalized 2 years ago
+Hypertension (well-controlled)
+Recent diagnosis of adenocarcinoma of the ascending colon</t>
+  </si>
+  <si>
+    <t>Lisinopril 10 mg PO daily
+Acetaminophen 650 mg PRN
+Enoxaparin 40 mg SQ daily (prophylaxis)
+Docusate sodium 100 mg BID
+Cefazolin (completed 3-day perioperative course)</t>
+  </si>
+  <si>
+    <t>Retired mechanical engineer
+Non-smoker
+Rare alcohol use
+Lives with spouse, two adult children involved in care decisions
+Practices Catholicism; values family input and traditional healing practices</t>
+  </si>
+  <si>
+    <t>CBC: WBC 14,600/mm³ with left shift
+CRP: Elevated at 18 mg/dL
+Lactate: 1.8 mmol/L
+Blood cultures x2: Pending
+Wound swab: Collected for C&amp;S
+CT Abdomen w/ contrast: No intra-abdominal abscess; localized soft tissue edema near surgical site, consistent with superficial infection</t>
+  </si>
+  <si>
+    <t>Differentiation of fever sources postoperatively (e.g., wound infection vs. pneumonia vs. UTI vs. DVT)
+Wound assessment skills: recognizing signs of surgical site infection
+Communication skills: How to escalate to the surgical team, infectious disease, and wound care nurse
+Cultural competence: Navigating family involvement in care decisions and understanding potential hesitance to express pain</t>
+  </si>
+  <si>
+    <t>Perform thorough nursing wound assessment
+Escalate care based on abnormal findings
+Implement appropriate isolation precautions if MRSA suspected
+Coordinate with interdisciplinary team for surgical consult and wound management
+Document findings and nursing interventions clearly and promptly
+Provide patient education on wound care and infection signs</t>
+  </si>
+  <si>
+    <t>Assess wound with sterile technique
+Measure and describe drainage (amount, color, consistency)
+Notify surgical team of suspected SSI
+Review and administer antibiotics as prescribed (pending cultures)
+Initiate wound care per orders and infection control protocols
+Monitor temperature and reassess vital signs
+Educate patient and family about signs of worsening infection
+Facilitate interprofessional communication (pharmacy, ID, wound care nurse)
+Ensure documentation reflects change in patient condition</t>
+  </si>
+  <si>
+    <t>Surgeon: For wound debridement evaluation
+Infectious Disease Specialist: For antibiotic guidance
+Wound Care Nurse: For ongoing wound management plan
+Pharmacist: For antibiotic stewardship and IV compatibility
+Family Meeting with Case Manager: To discuss discharge readiness and home care needs</t>
+  </si>
+  <si>
+    <t>What early warning signs suggest this patient’s fever is due to a surgical site infection?
+Why is wound dehiscence a concern in this scenario?
+How should a nurse prioritize care for this patient in a busy SICU setting?
+What are key elements of culturally competent communication in this case?
+What teaching strategies can be used to educate patients post-discharge about SSI prevention?</t>
+  </si>
+  <si>
+    <t>What did you recognize first that indicated this was not a typical postoperative fever?
+What would have happened if this wound infection was missed or misattributed?
+How did you advocate for your patient’s needs and concerns?
+How could you improve communication with the surgical team in real time?
+Reflect on your emotional response to managing a potential MRSA wound—how would you cope and manage stress in real practice?</t>
+  </si>
+  <si>
+    <t>OSCE: Use standardized patient with moulage for wound
+Virtual Simulation: Interactive EMR with decision branches for wound care, medication ordering, and communication
+Classroom Role-Play: Nurse, surgeon, and family member roles with communication script development</t>
+  </si>
+  <si>
+    <t>Initial Orders:
+STAT non-contrast head CT
+CBC, PT/INR, aPTT
+BMP, troponin, EKG
+Fingerstick glucose (done at triage)
+Stroke team activation
+IV access x2, normal saline KVO
+BP control: IV labetalol 20 mg over 2 minutes.                                                                   Results: CT head (read within 15 mins): No acute hemorrhage or mass
+EKG: Atrial fibrillation with RVR
+INR: 1.5 (subtherapeutic)
+CBC, BMP: WNL
+BP post-labetalol: 178/100 mmHg (thrombolytics can proceed)</t>
+  </si>
+  <si>
+    <t>Physical Exam</t>
+  </si>
+  <si>
+    <t>Skin: Warm, flushed
+Wound Site: Right lower quadrant incision is erythematous, indurated, tender; 3 cm segment appears mildly gaping with cloudy, serosanguineous drainage. No purulence or odor. No crepitus or significant fluctuance.
+Review of Systems
+Positive for: Chills, rigors, wound pain
+Negative for: Shortness of breath, urinary symptoms, nausea/vomiting</t>
+  </si>
+  <si>
+    <t>General: Alert, anxious, expressive aphasia
+Neurological: Facial droop: Right-sided
+Motor Strength:
+Left arm: 1/5
+Left leg: 2/5
+Right side: 5/5
+Speech: Slurred, difficulty following commands
+Cranial nerves: Right gaze preference
+NIHSS Score: Estimated 14
+Cardiac: Irregularly irregular rhythm
+Lungs/Abdomen: Unremarkable</t>
   </si>
 </sst>
 </file>
@@ -407,7 +2439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -420,10 +2452,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,9 +2474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -485,7 +2514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -591,7 +2620,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -733,7 +2762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -741,118 +2770,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE0C052-7AB7-DC47-9DDB-42272201E23A}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="94" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="3" width="17.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="40.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="19.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="33" style="2" customWidth="1"/>
     <col min="9" max="9" width="47.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="40.83203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="31.83203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="36.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="36.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="43.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="34.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="32.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="28.83203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="31.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="31.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="33.1640625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="49.6640625" style="2" customWidth="1"/>
-    <col min="24" max="28" width="10.83203125" style="2"/>
+    <col min="13" max="14" width="29.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="36.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="43.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="33.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="28.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="31.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="33.1640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="49.6640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="29.83203125" style="2" customWidth="1"/>
+    <col min="26" max="29" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="U1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>57</v>
+      <c r="X1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:25" ht="289" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -861,40 +2897,70 @@
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
+      <c r="F2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>354</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="356" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:25" ht="356" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>59</v>
+      <c r="E3" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -903,137 +2969,1151 @@
         <v>13</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="323" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="289" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="6"/>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="323" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="6" spans="1:25" ht="306" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="306" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="356" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="272" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="306" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="272" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="340" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="D12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="306" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="340" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="289" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="272" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="340" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="372" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="D19" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="340" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6" t="s">
-        <v>58</v>
+      <c r="B20" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="P8" s="5"/>
+    <row r="21" spans="1:23" ht="388" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejaswimanchineella/Desktop/portfolios/simulationcases/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7971F15E-C2F7-6741-B242-66110D1FD78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018F384-D17A-644C-804B-26CD93346828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
+    <workbookView xWindow="25600" yWindow="-1560" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ophthalmology" sheetId="7" r:id="rId1"/>
+    <sheet name="Gastrointestinal System" sheetId="5" r:id="rId2"/>
+    <sheet name="Neurology" sheetId="4" r:id="rId3"/>
+    <sheet name="Cardiovascular" sheetId="9" r:id="rId4"/>
+    <sheet name="sp" sheetId="2" r:id="rId5"/>
+    <sheet name="Endocrine System" sheetId="6" r:id="rId6"/>
+    <sheet name="General Surgery" sheetId="3" r:id="rId7"/>
+    <sheet name="Musculoskeletal" sheetId="8" r:id="rId8"/>
+    <sheet name="Social Work" sheetId="10" r:id="rId9"/>
+    <sheet name="Obstetrics" sheetId="11" r:id="rId10"/>
+    <sheet name="Infectious Diseases" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +37,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,38 +46,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="359">
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Case Study No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="548">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>General Surgery</t>
-  </si>
-  <si>
     <t>A Postoperative Surgical Site Infection</t>
   </si>
   <si>
     <t>Patient Profile</t>
   </si>
   <si>
-    <t>Name: Leonard G. Mateo
-Age: 70 years
-Gender: Male
-Ethnicity: Filipino-American (notable for cultural considerations in family involvement and stoicism toward pain)
-Primary Language: English
-Setting: Surgical Intensive Care Unit (SICU)</t>
-  </si>
-  <si>
     <t>Sno</t>
-  </si>
-  <si>
-    <t>Neurology</t>
   </si>
   <si>
     <t>Chronic Tension Headache </t>
@@ -217,14 +208,6 @@
     <t>Parkinsonism</t>
   </si>
   <si>
-    <t>Name: Mr. Hassan Ali
-Age: 68
-Gender: Male
-Ethnicity: Middle Eastern
-Language Preference: English (primary), Arabic (secondary)
-Religious Consideration: Muslim (prayer routine affected by physical limitations)</t>
-  </si>
-  <si>
     <t>I feel like my body isn’t listening to me. Everything has slowed down over the past year.</t>
   </si>
   <si>
@@ -334,9 +317,6 @@
 Virtual Sim: Interactive decision-making tree with evolving symptoms over time</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Performs focused neurological exam and headache history
 Screens for sleep apnea (STOP-Bang or equivalent)
 Discusses psychosocial contributors and fatigue
@@ -348,15 +328,6 @@
   </si>
   <si>
     <t>Stroke</t>
-  </si>
-  <si>
-    <t>Name: Mr. Mahmoud El-Sayed
-Age: 74
-Gender: Male
-Ethnicity: Egyptian
-Primary Language: Arabic (limited English)
-Interpreter required: Yes
-Setting: Emergency Department, Stroke Bay</t>
   </si>
   <si>
     <t>Complaint (via daughter and interpreter):
@@ -457,15 +428,6 @@
     <t>Spastic diplegic Cerebral Palsy</t>
   </si>
   <si>
-    <t>Name: Mateo Alvarez
-Age: 14 years
-Gender: Male
-Ethnicity: Hispanic (Mexican-American)
-Language: Bilingual – Spanish and English
-Schooling: Public middle school, mainstreamed with special education support
-Living Situation: Lives with both parents and two younger siblings in a multi-generational household. Primary caregiver: mother.</t>
-  </si>
-  <si>
     <t>Referred to occupational therapy by his school team following increased difficulty with self-care, handwriting fatigue, and social withdrawal. His teacher notes Mateo avoids group projects and seems discouraged by his mobility limitations during physical education and lunchtime activities.</t>
   </si>
   <si>
@@ -566,16 +528,6 @@
   </si>
   <si>
     <t>Motor neurone disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: Rajiv Malhotra
-Age: 68
-Gender: Male
-Ethnicity: South Asian
-Language: English, Hindi (native)
-Marital Status: Married
-Occupation (Retired): Mechanical engineer, formerly university professor
-Insurance: Medicare </t>
   </si>
   <si>
     <t>“I’ve been dropping tools and my hand just doesn’t feel as strong — especially on the left side. It’s frustrating. I’ve also had some odd twitching in my arms lately.”</t>
@@ -683,16 +635,6 @@
     <t>Muscular Dystrophy</t>
   </si>
   <si>
-    <t>Name: Elijah Navarro
-Age: 9 years
-Gender: Male
-Ethnicity: Filipino-American
-Grade: 3rd grade, mainstream classroom with Individualized Education Plan (IEP)
-Primary Language Spoken at Home: Tagalog and English
-Insurance Status: Medicaid
-Referral Source: Pediatric neurologist</t>
-  </si>
-  <si>
     <t>Elijah is referred to occupational therapy following increasing difficulty in classroom participation and decreased endurance for play activities. His teacher reports that he has recently started using a mobility aid (walker) during school hours and often requires assistance with toileting and meal times. Parents report Elijah struggles with dressing and becomes easily fatigued after minimal exertion.</t>
   </si>
   <si>
@@ -790,15 +732,6 @@
     <t>Impaired Motor Function and Functional Mobility Associated With Progressive Disorders of the Central Nervous System or Multisystem Involvement.</t>
   </si>
   <si>
-    <t>Name: Samuel Diaz
-Age: 67
-Gender: Male
-Ethnicity: Hispanic
-Language Preference: Spanish (primary), English (limited proficiency)
-Interpreter Required: Yes
-Insurance: Medicaid</t>
-  </si>
-  <si>
     <t>Samuel is referred to outpatient physical therapy following recent discharge from a short-term rehabilitation facility. He reports, via interpreter, increased fatigue, unsteadiness when walking, and difficulty climbing stairs. His wife adds that he’s “not himself lately” and spends most of his day sitting or sleeping.</t>
   </si>
   <si>
@@ -906,18 +839,7 @@
 Telehealth PT training: Role-play remote evaluation and caregiver instruction</t>
   </si>
   <si>
-    <t>Gastrointestinal System</t>
-  </si>
-  <si>
     <t>Pyloric Stenosis</t>
-  </si>
-  <si>
-    <t>Name: Mrs. Laila Farooq
-Age: 58
-Gender: Female
-Ethnicity: South Asian (Pakistani)
-Language: Urdu (limited English proficiency)
-Interpreter Required: Yes (certified medical interpreter)</t>
   </si>
   <si>
     <t>Temperature: 97.8°F (36.5°C)
@@ -1029,15 +951,6 @@
     <t>Appendicitis</t>
   </si>
   <si>
-    <t>Name: Laila Ahmed
-Age: 28
-Gender: Female
-Ethnicity: Middle Eastern
-Language Preference: English (primary), Arabic (conversational)
-Occupation: Elementary school teacher
-Insurance Status: Medicaid</t>
-  </si>
-  <si>
     <t>“My lower belly hurts, and I feel nauseous again. I thought this was just postpartum stuff.”</t>
   </si>
   <si>
@@ -1134,15 +1047,6 @@
   </si>
   <si>
     <t>Diverticulitis</t>
-  </si>
-  <si>
-    <t>Name: William “Bill” Hernandez
-Age: 72
-Gender: Male
-Ethnicity: Hispanic
-Language Preference: English and conversational Spanish
-Occupation (Retired): Former HVAC technician
-Insurance Status: Medicare with supplemental plan</t>
   </si>
   <si>
     <t>“It’s that same pain on the left again… but worse this time.”</t>
@@ -1249,15 +1153,6 @@
   </si>
   <si>
     <t>Giardiasis</t>
-  </si>
-  <si>
-    <t>Name: Charles "Charlie" Rowe
-Age: 65
-Gender: Male
-Occupation: Recently retired insurance claims adjuster
-Language: English
-Marital Status: Married, two adult children
-Insurance: Medicare + Travel Supplemental Plan</t>
   </si>
   <si>
     <t>"I saw someone here a couple weeks ago for stomach problems after I came back from a trip. They thought it was just traveler's diarrhea and gave me something to slow it down, but it hasn’t gotten any better. In fact, I’ve dropped almost 15 pounds and still feel awful."</t>
@@ -1364,18 +1259,7 @@
 How did you integrate the travel and dietary history into your diagnostic reasoning?</t>
   </si>
   <si>
-    <t>Endocrine System</t>
-  </si>
-  <si>
     <t>Hyperthyroidism</t>
-  </si>
-  <si>
-    <t>Name: Priya R.
-Age: 32
-Gender: Female
-Ethnicity: South Asian
-Occupation: Software Developer
-Language Preference: English, fluent; conversational Hindi</t>
   </si>
   <si>
     <t>"I’ve been feeling constantly hot, anxious, and my heart races even when I’m resting. I also noticed I'm losing weight even though I'm eating more."</t>
@@ -1467,19 +1351,7 @@
 How can cultural humility enhance diagnosis and adherence?</t>
   </si>
   <si>
-    <t>Ophthalmology</t>
-  </si>
-  <si>
     <t>Ptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: Layla Hassan
-Age: 29
-Gender: Female
-Ethnicity: Middle Eastern
-Occupation: Software engineer
-Marital Status: Single
-</t>
   </si>
   <si>
     <t>“I’ve been having this weird eyelid drooping on the left side. It’s subtle in the morning but worse by the end of the day. And lately, I feel more tired when I talk or chew.”</t>
@@ -1514,27 +1386,6 @@
 Exercises infrequently</t>
   </si>
   <si>
-    <t>General: Alert, oriented, pleasant, appears fatigued
-HEENT:
-Left-sided ptosis, worsens with sustained upward gaze
-Pupils equal, round, reactive to light and accommodation (PERRLA)
-Extraocular movements intact; no nystagmus
-No proptosis or lid edema
-Speech: Slurred after prolonged counting
-Neuro:
-Mild proximal muscle fatigue in shoulders after repetition
-Deep tendon reflexes normal
-No sensory deficit
-Lab/Diagnostics Ordered:
-CBC, CMP – WNL
-TSH, Free T4 – WNL
-Acetylcholine receptor antibody panel – Pending
-Edrophonium (Tensilon) test – Positive (dramatic, temporary resolution of ptosis)
-Chest CT (to assess for thymoma) – Pending
-Ice Pack Test – Positive improvement of ptosis
-MRI Brain/Orbit with contrast – No acute intracranial pathology or mass lesions</t>
-  </si>
-  <si>
     <t>Differentiating between neurogenic, myogenic, and mechanical causes of ptosis
 Recognizing subtle signs of myasthenia gravis and diurnal variation
 Considering non-ocular presenting signs of systemic neuromuscular disorders
@@ -1589,19 +1440,7 @@
 	The ice pack test can be a simple, low-resource bedside tool to support diagnosis in resource-limited settings.</t>
   </si>
   <si>
-    <t>Musculoskeletal</t>
-  </si>
-  <si>
     <t>Spinal Muscular Atrophy</t>
-  </si>
-  <si>
-    <t>Name: Isa Garcia
-Age: 6 years old
-Gender: Female
-Ethnicity: Hispanic (Mexican-American)
-Primary Language: English and Spanish
-School Grade: Kindergarten
-Setting: Public elementary school (inclusive classroom setting)</t>
   </si>
   <si>
     <t>Isa was referred for occupational therapy by her pediatric neurologist following a recent clinical deterioration in gross and fine motor skills. Her teachers report difficulty with classroom participation, fatigue during tasks, and challenges with accessing school materials and play equipment.</t>
@@ -1700,9 +1539,6 @@
 Classroom discussion (clinical reasoning labs)
 OSCE stations (assessing functional evaluation, communication)
 Virtual simulations (telehealth assessment, caregiver education)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiovascular </t>
   </si>
   <si>
     <t>Infective Endocarditis</t>
@@ -1803,9 +1639,6 @@
 OSCE Station: Focus on cardiac auscultation, differential diagnosis, clinical reasoning
 Virtual Simulation: Use evolving symptoms and labs with timed decision points
 Classroom PBL: Break into stages with role-play (e.g., PA, nurse, cardiologist)</t>
-  </si>
-  <si>
-    <t>Social Work</t>
   </si>
   <si>
     <t xml:space="preserve">Active Listening </t>
@@ -2362,15 +2195,9 @@
     <t>Physical Exam</t>
   </si>
   <si>
-    <t>Skin: Warm, flushed
-Wound Site: Right lower quadrant incision is erythematous, indurated, tender; 3 cm segment appears mildly gaping with cloudy, serosanguineous drainage. No purulence or odor. No crepitus or significant fluctuance.
-Review of Systems
-Positive for: Chills, rigors, wound pain
-Negative for: Shortness of breath, urinary symptoms, nausea/vomiting</t>
-  </si>
-  <si>
     <t>General: Alert, anxious, expressive aphasia
-Neurological: Facial droop: Right-sided
+Neurological:
+Facial droop: Right-sided
 Motor Strength:
 Left arm: 1/5
 Left leg: 2/5
@@ -2380,6 +2207,1444 @@
 NIHSS Score: Estimated 14
 Cardiac: Irregularly irregular rhythm
 Lungs/Abdomen: Unremarkable</t>
+  </si>
+  <si>
+    <t>Skin: Warm, flushed
+Wound Site: Right lower quadrant incision is erythematous, indurated, tender; 3 cm segment appears mildly gaping with cloudy, serosanguineous drainage. No purulence or odor. No crepitus or significant fluctuance.
+Review of Systems
+Positive for: Chills, rigors, wound pain
+Negative for: Shortness of breath, urinary symptoms, nausea/vomiting</t>
+  </si>
+  <si>
+    <t>Hyperemesis Gravidarum in a Young First-Time Mother</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Amal R.
+Age: 26
+Gender: Female
+Ethnicity: Middle Eastern (Lebanese descent)
+Language Preference: Arabic, communicates in English with moderate fluency
+Occupation: Graduate student (Pharmacy)
+Marital Status: Married for 6 months
+Gestation: 9 weeks by LMP                                              Target audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>Mrs. Amal R. presents to the Emergency Department with persistent nausea, excessive vomiting for the past 5 days, generalized weakness, dizziness, and inability to tolerate oral fluids or food.</t>
+  </si>
+  <si>
+    <t>Temperature: 37.4°C
+Heart Rate: 112 bpm
+Respiratory Rate: 18/min
+Blood Pressure: 92/60 mmHg
+Oxygen Saturation: 99% (RA)
+Weight: 48 kg (baseline 52 kg, ~8% loss)</t>
+  </si>
+  <si>
+    <t>History of mild anxiety (not medicated)
+Migraines since adolescence
+No history of chronic illness</t>
+  </si>
+  <si>
+    <t>Prenatal multivitamin
+Occasional paracetamol for headaches</t>
+  </si>
+  <si>
+    <t>Non-smoker, does not consume alcohol
+Lives with her husband in an apartment near campus
+High academic stress due to exams
+No recent travel or exposure to illness</t>
+  </si>
+  <si>
+    <t>Urinalysis: +++ Ketones, trace protein
+Serum Electrolytes: Na+ 130 mmol/L, K+ 3.0 mmol/L, Cl– 94 mmol/L
+Serum Bicarbonate: 17 mmol/L (low)
+Creatinine: 1.3 mg/dL (mildly elevated)
+Glucose (random): 62 mg/dL
+TSH: 0.2 mIU/L (low)
+Free T4: Mildly elevated
+Beta-hCG: 210,000 IU/L
+Transabdominal USG: Singleton intrauterine pregnancy at 9 weeks gestation, viable fetus, no molar pregnancy</t>
+  </si>
+  <si>
+    <t>On exam, the patient appears fatigued, mildly icteric, and dry mucous membranes are noted. There is an acetone smell to her breath. Mild suprapubic tenderness without peritonism. No neurologic deficits.
+She has received ondansetron and IV fluids (normal saline + dextrose) in triage, but continues to retch. No improvement in urine output over 4 hours.</t>
+  </si>
+  <si>
+    <t>Differentiating physiological nausea and vomiting from hyperemesis gravidarum
+Recognizing electrolyte imbalance and ketosis from simple dehydration
+Addressing transient gestational hyperthyroidism versus pathologic thyroid disease
+Identifying the need for hospital admission and nutritional support
+Assessing for rare but serious complications like Wernicke’s encephalopathy</t>
+  </si>
+  <si>
+    <t>Conduct a focused history and physical exam for a pregnant patient with vomiting
+Interpret laboratory data to confirm the diagnosis of hyperemesis gravidarum
+Initiate appropriate fluid resuscitation and correct electrolytes
+Order thiamine before administering glucose-containing fluids
+Recognize red flags: persistent vomiting, weight loss &gt;5%, ketonuria, altered mental status
+Engage in shared decision-making with the patient
+Communicate with OB, dietitian, and nursing for coordinated care</t>
+  </si>
+  <si>
+    <t>Elicit obstetric history and establish gestational age
+Identify clinical signs of dehydration and malnutrition
+Order and interpret labs including ketones, electrolytes, TSH/T4, and hCG
+Initiate IV fluids with electrolytes and thiamine
+Prescribe antiemetics appropriately
+Consult OB for ongoing care plan
+Monitor for Wernicke’s and neuro signs
+Discuss psychosocial context and stress management</t>
+  </si>
+  <si>
+    <t>OB/GYN: Co-manage pregnancy-related complications
+Dietitian: Nutritional planning post-stabilization
+Nursing: Intake/output monitoring, patient education, IV administration
+Psychology/Psychiatry: Screen for anxiety and stress-induced exacerbation
+Pharmacist: Review safety and dosing of antiemetics in pregnancy</t>
+  </si>
+  <si>
+    <t>How do you differentiate hyperemesis gravidarum from common nausea of early pregnancy?
+What are the consequences of delayed thiamine administration in such patients?
+When is it appropriate to escalate care or consider admission to higher-level monitoring?
+What ethical considerations arise in managing a condition that may prompt patients to request pregnancy termination?</t>
+  </si>
+  <si>
+    <t>Reflection: What part of the case challenged your clinical assumptions the most?
+Clinical Judgment: How did you prioritize investigations and interventions?
+Communication: How did you approach explaining the condition to the patient?
+Systems Thinking: What support systems might help this patient recover more holistically?
+Professionalism: How do you balance empathy and assertiveness in care when the patient is emotionally distressed?</t>
+  </si>
+  <si>
+    <t>Classroom: Use for differential diagnosis and management planning sessions.
+OSCE: Simulated patient encounter with dynamic vitals/lab updates.
+Virtual Simulation: Real-time choices leading to changing patient stability.</t>
+  </si>
+  <si>
+    <t>Managing Septic Abortion in a Marginalized Patient</t>
+  </si>
+  <si>
+    <t>A 24-year-old woman presents to the Emergency Department (ED) with 3 days of worsening lower abdominal pain, fever, and malodorous vaginal discharge. She appears visibly anxious and reluctant to speak.</t>
+  </si>
+  <si>
+    <t>Temp: 39.2°C
+BP: 98/64 mmHg
+HR: 116 bpm
+RR: 24 breaths/min
+SpO₂: 96% on room air
+Pain Score: 7/10 lower abdomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mild asthma (uses albuterol PRN)
+Irregular menstrual cycles since menarche
+No prior surgeries
+G2P0A2 (one spontaneous abortion, one unclear)
+</t>
+  </si>
+  <si>
+    <t>Albuterol inhaler PRN
+Occasional ibuprofen for cramps (OTC)</t>
+  </si>
+  <si>
+    <t>Immigrated from Somalia at age 12
+Non-smoker, non-drinker
+Not sexually active currently; denies recent consensual intercourse (initially)
+Attends mosque regularly
+Hesitant to discuss sexual and reproductive history
+No regular primary care provider
+No known prior gynecologic exams</t>
+  </si>
+  <si>
+    <t>CBC: WBC 19.6 x10⁹/L (neutrophil predominant), Hgb 9.8 g/dL, Platelets 130,000
+CRP: 128 mg/L
+Serum Lactate: 3.9 mmol/L
+BUN/Cr: 30/1.6 mg/dL
+LFTs: Mild elevation of AST/ALT
+Urinalysis: Negative nitrites, trace protein
+Beta-hCG: Positive (78 IU/L)
+Pelvic Ultrasound: Retained products of conception, endometrial thickening, free fluid in POD
+Blood Cultures: Pending
+High Vaginal Swab: Sent for gram stain, culture/sensitivity
+CXR: No infiltrates
+Abdominal X-ray: No free air, but prominent bowel loops</t>
+  </si>
+  <si>
+    <t>After initial fluid resuscitation and empiric antibiotics (piperacillin-tazobactam + clindamycin), her mental status worsens. She becomes hypotensive despite fluid boluses and is transferred to ICU for vasopressor support.
+Gynecology is consulted; uterine evacuation is delayed 12 hours to stabilize her, then performed under IV sedation with infection control precautions.</t>
+  </si>
+  <si>
+    <t>Navigating cultural and language barriers in sexual health discussions
+Recognizing signs of evolving sepsis in a young, otherwise healthy patient
+Distinguishing spontaneous vs. unsafe induced abortion (without direct disclosure)
+Knowing when to escalate care to ICU or surgical teams
+Interpreting and prioritizing lab/imaging in septic patients
+Balancing patient autonomy, confidentiality, and legal/moral considerations
+Ethical dilemmas around undocumented procedures and access to care</t>
+  </si>
+  <si>
+    <t>Obtain a nonjudgmental, culturally sensitive history
+Initiate sepsis protocol: fluids, broad-spectrum antibiotics, lactate monitoring
+Request early gynecology consult
+Interpret ultrasound and labs to determine source of infection
+Communicate case effectively during handoff to ICU
+Discuss contraception and follow-up post-recovery
+Collaborate with interpreter and social work
+Report suspected unsafe abortion (as per local laws &amp; hospital protocol)</t>
+  </si>
+  <si>
+    <t>Recognize and triage for sepsis
+Initiate empiric antibiotics and fluid resuscitation
+Obtain appropriate labs and imaging
+Escalate care to ICU as needed
+Consult OB/GYN promptly
+Facilitate uterine evacuation once stable
+Ensure proper documentation
+Engage interprofessional team (nursing, interpreter, social worker)</t>
+  </si>
+  <si>
+    <t>Interpreter Services: For consent and history-taking
+Social Work: Discuss insurance, housing, and potential abuse or coercion
+ICU Team: For hemodynamic monitoring and vasopressor management
+OB/GYN: For uterine evacuation, ongoing infection control
+Nursing Staff: For early warning signs, antibiotic administration, and patient advocacy</t>
+  </si>
+  <si>
+    <t>How would you approach a patient who may be concealing an unsafe abortion?
+What biases could interfere with your clinical judgment in this case?
+How do you ensure respectful, culturally sensitive care during reproductive health discussions?
+When do you delay uterine evacuation in a septic abortion?
+What legal/ethical responsibilities do you have in suspected unsafe abortion cases?</t>
+  </si>
+  <si>
+    <t>What went well in your approach to the patient?
+Where did communication barriers arise, and how did you manage them?
+What signs pointed to clinical deterioration, and were they recognized early?
+How did interprofessional collaboration affect patient care?
+What systemic issues may have contributed to this patient’s condition?
+How might this case influence your approach to reproductive health in underserved populations?</t>
+  </si>
+  <si>
+    <t>Classroom: Role-play scenarios with standardized patient and interpreter
+OSCE: Assess triage, sepsis management, and communication skills
+Virtual Simulation: Integrate EMR-based decisions and dynamic vitals
+Debrief Session: Use real-time vitals/labs to guide decision-making with team input</t>
+  </si>
+  <si>
+    <t>Managing Acute Abdomen in Pregnancy with Leiomyoma</t>
+  </si>
+  <si>
+    <t>Name: Ms. Amina B.
+Age: 24
+Gender: Female
+Ethnicity: Somali-American
+Language Preference: Somali (requires interpreter for full fluency)
+Religion: Muslim
+Marital Status: Unmarried
+Insurance Status: Uninsured
+Living Situation: Shared apartment with two cousins
+Occupation: Part-time cashier                                  Target Audience: Medical students, Residets</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Nura Ali
+Age: 30
+Gender: Female
+Ethnicity: East African (Ethiopian origin)
+Gravida/Parity: G2P0
+Gestational Age: 22 weeks (confirmed by early ultrasound)
+Language: Speaks limited English, prefers Amharic (interpreter needed)
+Marital Status: Married, newly relocated to U.S.                                                                                 Target Audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>Sudden onset of severe, localized lower abdominal pain over 12 hours, non-radiating, associated with nausea and reduced fetal movements. She reports feeling generally unwell and has difficulty walking due to pain.</t>
+  </si>
+  <si>
+    <t>Temp: 37.9°C
+HR: 102 bpm
+BP: 108/64 mmHg
+RR: 20/min
+SpO₂: 98% on room air
+Pain Score: 8/10</t>
+  </si>
+  <si>
+    <t>Known uterine fibroids diagnosed 2 years ago (largest 9 cm posterior intramural)
+Iron deficiency anemia (mild, managed with oral iron)
+No history of surgery</t>
+  </si>
+  <si>
+    <t>Ferrous sulfate 325 mg once daily
+Prenatal multivitamins
+Acetaminophen PRN (has taken 1 g at home prior to arrival)</t>
+  </si>
+  <si>
+    <t>Lives with husband and mother-in-law
+No tobacco, alcohol, or recreational drug use
+Primary care and OB care established 6 weeks ago
+Delayed prenatal care due to recent immigration
+Limited understanding of U.S. healthcare system</t>
+  </si>
+  <si>
+    <t>CBC:
+WBC: 13.8 x10⁹/L (mild leukocytosis)
+Hgb: 9.4 g/dL
+Platelets: 198 x10⁹/L
+CRP: Elevated at 58 mg/L
+Beta-hCG: Consistent with 22-week gestation
+UA: Negative
+Ultrasound (Bedside, then Formal):
+Single intrauterine fetus with fetal heart rate 150 bpm
+Posterior fundal fibroid, ~10 cm, heterogeneous with peripheral cystic degeneration
+No placental abruption
+No free intraperitoneal fluid
+Fetal Dopplers: Normal at this time</t>
+  </si>
+  <si>
+    <t>After 6 hours of observation and supportive therapy (acetaminophen, IV hydration), the patient develops a low-grade fever (38.3°C), worsening pain, and mild uterine irritability. Labs repeated show increasing WBC (15.4 x10⁹/L) and CRP (80 mg/L). OB resident is concerned about red degeneration of fibroid but must also consider other surgical causes of acute abdomen.
+OB attending and radiologist are consulted. MRI is deferred due to stability. Conservative management is continued. The patient gradually improves over 72 hours and is discharged on oral analgesics with outpatient OB follow-up.</t>
+  </si>
+  <si>
+    <t>Differential Diagnosis of Acute Abdomen in Pregnancy: Appendicitis, torsion, abruption, fibroid degeneration
+Recognizing Red Degeneration: Often a diagnosis of exclusion requiring conservative management
+Balancing Investigations in Pregnancy: When and how to use imaging (ultrasound vs. MRI)
+Communication Across Language and Cultural Barriers: Sensitive health discussions and consent
+Collaborating Across Specialties: OB, radiology, anesthesia if pain becomes unmanageable</t>
+  </si>
+  <si>
+    <t>Perform focused yet sensitive obstetric history
+Interpret abnormal vitals in context of pregnancy and systemic inflammatory response
+Recognize red degeneration as likely diagnosis from imaging and history
+Provide patient-centered counseling with interpreter present
+Initiate supportive management: pain control, hydration, close monitoring
+Know when to escalate to imaging or surgical consult
+Anticipate future obstetric complications based on fibroid size and location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtain pregnancy-specific focused history and physical
+Rule out obstetric emergencies (e.g., abruption, labor)
+Order appropriate labs and imaging
+Recognize signs of red degeneration
+Manage pain appropriately (non-NSAID preferred initially)
+Coordinate care with OB, radiology, and nursing
+Provide culturally sensitive education on fibroids in pregnancy
+Ensure clear follow-up and safety netting upon discharge
+</t>
+  </si>
+  <si>
+    <t>Interpreter Services: For accurate history-taking and informed consent
+Nursing Team: Monitoring vitals, pain, fetal well-being
+Radiology: Imaging interpretation and alternatives in pregnancy
+Pharmacy: Safe analgesic and antibiotic options in pregnancy
+Social Work: Addressing healthcare access for immigrant patient
+OB Team: Managing complications of fibroids in pregnancy</t>
+  </si>
+  <si>
+    <t>What are the challenges in diagnosing red degeneration in pregnancy?
+When is surgical intervention indicated in a pregnant patient with fibroids?
+How does cultural background affect health-seeking behavior and communication in OB care?
+What are the risks to both mother and fetus if fibroid degeneration is misdiagnosed or undertreated?
+What are the long-term considerations for pregnancy in women with large fibroids?</t>
+  </si>
+  <si>
+    <t>What clues helped you differentiate fibroid degeneration from other causes of acute abdomen?
+What would you have done differently in managing pain or patient communication?
+How did cultural and language considerations impact care delivery in this case?
+How do fibroids affect pregnancy, labor, and delivery planning?
+What knowledge gaps did you identify for yourself in obstetric emergencies?</t>
+  </si>
+  <si>
+    <t>OSCE Station: Focused OB history + interpretation of imaging
+Virtual Simulation: EHR-based case with evolving vitals and imaging reports
+Team-Based Classroom Simulation: OB resident, radiology consult, interpreter
+Standardized Patient Role Play: With interpreter and patient actor to simulate communication and cultural humility</t>
+  </si>
+  <si>
+    <t>Acute Abdomen and Ovarian Mass in Mid-Pregnancy</t>
+  </si>
+  <si>
+    <t>Name: Layla Hassan
+Age: 27
+Gender: Female
+Ethnicity: Somali
+Gestational Age: 18 weeks + 3 days by last menstrual period (confirmed by early ultrasound)
+Gravida/Parity: G1P0
+Language: Somali (interpreter required), basic conversational English
+Marital Status: Married, immigrated 1 year ago                                                                            Target Audience: Medical Residents, Students</t>
+  </si>
+  <si>
+    <t>Layla presents to the Emergency Department with sudden onset severe right lower quadrant abdominal pain for the past 4 hours. She reports nausea and one episode of non-bilious vomiting. She denies fever, vaginal bleeding, or urinary symptoms. The pain is sharp, non-radiating, and worsens with movement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature: 37.4°C
+Heart Rate: 115 bpm
+Blood Pressure: 100/68 mmHg
+Respiratory Rate: 18/min
+SpO₂: 99% on room air
+Pain Score: 9/10
+</t>
+  </si>
+  <si>
+    <t>No known chronic illnesses
+Normal menstrual history before pregnancy
+Routine prenatal care began at 12 weeks
+No previous surgeries</t>
+  </si>
+  <si>
+    <t>Prenatal vitamins
+Iron tablets for mild anemia</t>
+  </si>
+  <si>
+    <t>Homemaker, recently moved to the U.S.
+No smoking, alcohol, or drug use
+Eats home-cooked meals; limited processed food intake
+No known exposure to tuberculosis or recent travel</t>
+  </si>
+  <si>
+    <t>Abdomen: Tenderness in right lower quadrant, guarding present
+Uterus palpable at umbilicus
+No rebound tenderness or peritoneal signs
+Fetal heart tones auscultated via Doppler: 150 bpm
+No cervical motion tenderness or vaginal discharge</t>
+  </si>
+  <si>
+    <t>CBC:
+WBC: 14.2 x10⁹/L
+Hemoglobin: 10.1 g/dL
+Platelets: 208 x10⁹/L
+CRP: Elevated (58 mg/L)
+Beta-hCG: Consistent with gestation
+Urinalysis: Normal
+Ultrasound (Transabdominal and Transvaginal):
+Single live intrauterine fetus, normal growth and amniotic fluid
+Right adnexal mass, ~10 cm, complex with solid and cystic components; no clear Doppler flow
+No free fluid
+MRI (Ordered after OB consultation):
+Suspicious for torsion of a dermoid cyst; evidence of stromal edema; uterus displaced posteriorly</t>
+  </si>
+  <si>
+    <t>Pain intensifies over 2 hours with progressive nausea. Layla becomes hypotensive (BP 92/60), tachycardic (HR 125), and increasingly anxious. Surgical and OB teams urgently evaluate for ovarian torsion.</t>
+  </si>
+  <si>
+    <t>Distinguishing physiological pregnancy discomfort from true surgical pathology
+Interpreting imaging of ovarian masses in pregnancy and understanding limitations of tumor markers
+Making safe decisions around surgical timing during pregnancy
+Managing acute abdomen without compromising fetal well-being
+Addressing patient consent and shared decision-making across cultural and language barriers</t>
+  </si>
+  <si>
+    <t>Take focused history with interpreter support
+Prioritize differential diagnosis: appendicitis, ovarian torsion, abruption, ectopic, urinary pathology
+Order and interpret appropriate labs and imaging
+Identify surgical emergency: ovarian torsion
+Coordinate with OB and general surgery for prompt laparoscopic management
+Counsel patient/family using culturally competent communication
+Consider implications of adnexal mass findings in future prenatal and delivery planning</t>
+  </si>
+  <si>
+    <t>Obtain comprehensive history using an interpreter
+Initiate emergency labs and obstetric ultrasound
+Identify adnexal mass with concerning features on imaging
+Escalate to senior OB/GYN and surgical consults
+Explain diagnosis and management options clearly to patient
+Initiate IV fluids, pain control, and prepare for OR if surgical decision made
+Document and communicate fetal monitoring status throughout
+Arrange follow-up pathology review and discuss impact on pregnancy</t>
+  </si>
+  <si>
+    <t>Interpreter Services: Ensures informed decision-making and trust
+OB/GYN and Surgery Teams: Joint intraoperative planning
+Radiologist: Input on imaging findings, mass characterization
+Nursing Team: Fetal monitoring, perioperative preparation
+Anesthesia: Pre-op risk assessment in pregnant patient
+Pathologist: Histologic classification of the ovarian mass</t>
+  </si>
+  <si>
+    <t>How does pregnancy alter the presentation of abdominal pathology?
+What are the indications for surgical intervention in mid-pregnancy?
+How do we approach imaging decisions in pregnant patients?
+What are the ethical considerations when patient understanding is limited by language/culture?
+How do dermoid cysts differ from other adnexal masses in pregnancy?</t>
+  </si>
+  <si>
+    <t>What clinical signs led you to suspect ovarian torsion?
+How did you balance fetal and maternal safety in your decision-making?
+What were the communication challenges, and how did you address them?
+How would this case change if the patient were 10 weeks pregnant? Or 34 weeks?
+What follow-up care does this patient need postoperatively and after delivery?</t>
+  </si>
+  <si>
+    <t>Virtual Simulation or OSCE: Use an evolving EMR with ultrasound/MRI findings
+Team-based Exercise: With OB, interpreter, and surgical roles
+Live Scenario with Standardized Patient: Focus on real-time communication and consent
+Problem-Based Learning Module: Encourage reflective discussion on surgical ethics and maternal-fetal health</t>
+  </si>
+  <si>
+    <t>Name: Leonard G. Mateo
+Age: 70 years
+Gender: Male
+Ethnicity: Filipino-American (notable for cultural considerations in family involvement and stoicism toward pain)
+Primary Language: English
+Setting: Surgical Intensive Care Unit (SICU)   Target Audience: Nursing Students</t>
+  </si>
+  <si>
+    <t>Name: Aaliyah Campbell
+Age: 44 years
+Gender: Female
+Ethnicity: African American
+Pronouns: She/her
+Setting: Primary Care Clinic
+Insurance: Medicaid                                            Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Mr. Mahmoud El-Sayed
+Age: 74
+Gender: Male
+Ethnicity: Egyptian
+Primary Language: Arabic (limited English)
+Interpreter required: Yes
+Setting: Emergency Department, Stroke Bay                                                                            Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Rajiv Malhotra
+Age: 68
+Gender: Male
+Ethnicity: South Asian
+Language: English, Hindi (native)
+Marital Status: Married
+Occupation (Retired): Mechanical engineer, formerly university professor
+Insurance: Medicare                                            Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Elijah Navarro
+Age: 9 years
+Gender: Male
+Ethnicity: Filipino-American
+Grade: 3rd grade, mainstream classroom with Individualized Education Plan (IEP)
+Primary Language Spoken at Home: Tagalog and English
+Insurance Status: Medicaid
+Referral Source: Pediatric neurologist            Target Audience: Occupational Therapy students</t>
+  </si>
+  <si>
+    <t>Name: Mr. Hassan Ali
+Age: 68
+Gender: Male
+Ethnicity: Middle Eastern
+Language Preference: English (primary), Arabic (secondary)
+Religious Consideration: Muslim (prayer routine affected by physical limitations)+E5  Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Mateo Alvarez
+Age: 14 years
+Gender: Male
+Ethnicity: Hispanic (Mexican-American)
+Language: Bilingual – Spanish and English
+Schooling: Public middle school, mainstreamed with special education support
+Living Situation: Lives with both parents and two younger siblings in a multi-generational household. Primary caregiver: mother.                                                                      Target Audience: Occupational Therapy Students</t>
+  </si>
+  <si>
+    <t>Name: Samuel Diaz
+Age: 67
+Gender: Male
+Ethnicity: Hispanic
+Language Preference: Spanish (primary), English (limited proficiency)
+Interpreter Required: Yes
+Insurance: Medicaid                                             Target Audience: Physical Therapy Students</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Laila Farooq
+Age: 58
+Gender: Female
+Ethnicity: South Asian (Pakistani)
+Language: Urdu (limited English proficiency)
+Interpreter Required: Yes (certified medical interpreter)                                                               Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Laila Ahmed
+Age: 28
+Gender: Female
+Ethnicity: Middle Eastern
+Language Preference: English (primary), Arabic (conversational)
+Occupation: Elementary school teacher
+Insurance Status: Medicaid                                    Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: William “Bill” Hernandez
+Age: 72
+Gender: Male
+Ethnicity: Hispanic
+Language Preference: English and conversational Spanish
+Occupation (Retired): Former HVAC technician
+Insurance Status: Medicare with supplemental plan                                                Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Target Audience: PA's</t>
+  </si>
+  <si>
+    <t>Name: Isa Garcia
+Age: 6 years old
+Gender: Female
+Ethnicity: Hispanic (Mexican-American)
+Primary Language: English and Spanish
+School Grade: Kindergarten
+Setting: Public elementary school (inclusive classroom setting)                                                Target Audience: Occupational Therapy Students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Layla Hassan
+Age: 29
+Gender: Female
+Ethnicity: Middle Eastern
+Occupation: Software engineer
+Marital Status: Single                                           Target Audience: PA's
+</t>
+  </si>
+  <si>
+    <t>General: Alert, oriented, pleasant, appears fatigued
+HEENT:
+Left-sided ptosis, worsens with sustained upward gaze
+Pupils equal, round, reactive to light and accommodation (PERRLA)
+Extraocular movements intact; no nystagmus
+No proptosis or lid edema
+Speech: Slurred after prolonged counting
+Neuro:
+Mild proximal muscle fatigue in shoulders after repetition
+Deep tendon reflexes normal
+No sensory deficit</t>
+  </si>
+  <si>
+    <t>Lab/Diagnostics Ordered:
+CBC, CMP – WNL
+TSH, Free T4 – WNL
+Acetylcholine receptor antibody panel – Pending
+Edrophonium (Tensilon) test – Positive (dramatic, temporary resolution of ptosis)
+Chest CT (to assess for thymoma) – Pending
+Ice Pack Test – Positive improvement of ptosis
+MRI Brain/Orbit with contrast – No acute intracranial pathology or mass lesions</t>
+  </si>
+  <si>
+    <t>Name: Charles "Charlie" Rowe
+Age: 65
+Gender: Male
+Occupation: Recently retired insurance claims adjuster
+Language: English
+Marital Status: Married, two adult children
+Insurance: Medicare + Travel Supplemental Plan                                                                             Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Name: Priya R.
+Age: 32
+Gender: Female
+Ethnicity: South Asian
+Occupation: Software Developer
+Language Preference: English, fluent; conversational Hindi                                            Target Audience: PA's</t>
+  </si>
+  <si>
+    <t>Evolving Tetanus in an Urban Underserved Teen</t>
+  </si>
+  <si>
+    <t>Name: Ayesha N.
+Age: 17 years
+Gender: Female
+Ethnicity: South Asian (second-generation immigrant)
+Language: English-speaking, parents primarily speak Urdu
+Setting: Urban community health center in a low-resource neighborhood                           Target Audience: Medical Residents, Students</t>
+  </si>
+  <si>
+    <t>Difficulty opening her mouth for two days, painful muscle stiffness in the neck and jaw.</t>
+  </si>
+  <si>
+    <t>Temp: 37.9°C
+HR: 112 bpm
+BP: 140/85 mmHg
+RR: 24 breaths/min
+SpO₂: 98% on room air</t>
+  </si>
+  <si>
+    <t>Ayesha stepped on a rusty nail five days ago while playing in a vacant lot. She did not seek medical attention and treated the wound at home using turmeric paste as advised by her grandmother. Two days ago, she began experiencing difficulty chewing and speaking. Her jaw is now locked, and she complains of stiffness in the neck and abdominal muscles. She has also had some episodes of sweating and mild nausea. No current breathing difficulty.</t>
+  </si>
+  <si>
+    <t>Unclear childhood immunization status; family recently moved from a rural area in Pakistan where vaccination access was limited.
+No chronic illnesses.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Lives with extended family of 7 in a two-bedroom apartment.
+Attends public school, aspiring to study nursing.
+No tobacco, alcohol, or drug use.
+Family uses traditional remedies for common ailments; infrequent access to formal healthcare.
+No known exposure to communicable diseases.</t>
+  </si>
+  <si>
+    <t>CBC: Elevated WBC (13,800), Neutrophilia
+CRP: Elevated
+Serum electrolytes: Normal
+Wound swab culture: Pending
+Chest X-ray: No infiltrates or consolidation
+Head CT (to rule out CNS pathology): Normal
+Immunization titers (Tetanus IgG): Low</t>
+  </si>
+  <si>
+    <t>While in the emergency department, Ayesha becomes hypersensitive to sound and touch. She experiences a sudden spasm of her abdominal and back muscles (opisthotonos), and her breathing becomes shallow. She is immediately transferred to the ICU for airway protection and sedation. A tracheostomy is considered due to repeated spasms and risk of laryngospasm.</t>
+  </si>
+  <si>
+    <t>Recognizing tetanus in an era of presumed universal vaccination
+Cultural influences on wound management and delayed care-seeking
+Limited documentation of immunization in recent immigrants
+Avoiding anchoring bias (e.g., assuming dental or ENT causes for jaw stiffness)
+Prioritizing airway in a high-risk neurotoxic presentation
+Selecting empiric antibiotics and immunoglobulin appropriately
+Addressing family communication and consent across language and cultural barriers</t>
+  </si>
+  <si>
+    <t>Perform a detailed and culturally sensitive history
+Recognize signs of generalized tetanus
+Prioritize airway management
+Order appropriate labs and initiate early treatment
+Communicate findings with nursing and ICU teams
+Coordinate with pharmacy for human tetanus immunoglobulin and antibiotics
+Educate patient/family about vaccination, cultural beliefs, and prevention
+Escalate to senior staff when deterioration occurs</t>
+  </si>
+  <si>
+    <t>Rapid assessment of ABCs and protective airway planning
+ Early recognition of tetanus from clinical presentation
+ Prompt administration of Tetanus Immune Globulin (TIG)
+ Empiric antibiotic therapy (e.g., Metronidazole IV)
+ Wound debridement consult
+ Document vaccination status and initiate full TT series
+ Effective communication with interprofessional team (nurses, respiratory therapy, infectious disease)
+ Cultural competence in communicating treatment plan with non-English-speaking guardians</t>
+  </si>
+  <si>
+    <t>Nursing: Continuous sedation and spasm monitoring
+Respiratory Therapy: Tracheostomy and ventilation support
+Pharmacy: Urgent sourcing and dosing of TIG
+Social Work/Interpreter Services: Support with informed consent and health literacy education
+Infectious Disease: Guidance on duration and type of antibiotics, reporting to public health</t>
+  </si>
+  <si>
+    <t>What historical features made this patient high-risk for tetanus despite living in a developed country?
+How does lack of immunization documentation impact your clinical decision-making?
+What are the ethical implications of treating a critically ill minor with limited parental understanding of the disease?
+How can clinicians address traditional medicine use without alienating the patient or family?</t>
+  </si>
+  <si>
+    <t>What biases may have influenced your differential diagnosis?
+How did you balance clinical urgency with limited information?
+How did interprofessional communication affect your decision-making process?
+What strategies can be used to improve vaccination coverage in underrepresented populations?
+Reflect on how you handled uncertainty in this case—what would you do differently?</t>
+  </si>
+  <si>
+    <t>For OSCEs: Focus on early recognition, communication, and ordering of treatment
+For Virtual Simulation: Include audiovisual clips of muscle spasms and cultural interviews
+In-Class Use: Facilitate small-group analysis of missed immunization opportunities and ethical scenarios</t>
+  </si>
+  <si>
+    <t>SP Profile</t>
+  </si>
+  <si>
+    <t>Case Objectives</t>
+  </si>
+  <si>
+    <t>Scene Setup</t>
+  </si>
+  <si>
+    <t>SP Opening line</t>
+  </si>
+  <si>
+    <t>Chief Complaint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History of Present Illness </t>
+  </si>
+  <si>
+    <t>Review of Systems</t>
+  </si>
+  <si>
+    <t>SP Behavior Cues</t>
+  </si>
+  <si>
+    <t>Discussion Questions</t>
+  </si>
+  <si>
+    <t>Name: Michael Rodriguez
+Age: 34
+Gender Identity: Male (He/Him)
+Ethnicity: Hispanic (Puerto Rican heritage)
+Occupation: Tech project manager
+Setting: Outpatient primary care clinic</t>
+  </si>
+  <si>
+    <t>Identify and manage a case of hyperthyroidism.
+Practice clinical reasoning and decision-making.
+Demonstrate effective communication with a culturally diverse patient.
+Engage in interdisciplinary collaboration (e.g., endocrinology, pharmacy).
+Address patient education and shared decision-making.</t>
+  </si>
+  <si>
+    <t>Setting: A primary care examination room. The SP is seated, slightly restless, fidgeting with his phone. Appears lean, mildly anxious.
+Clothing/Props: Casual business attire. Slight tremor visible in hands. Light sheen of perspiration. Brings in a reusable water bottle. If available, slight proptosis or "wide-eyed" appearance can be simulated with makeup or expression.</t>
+  </si>
+  <si>
+    <t>"Hey Doc—sorry if I seem a little wired today. I’ve been feeling kind of off lately, not sure what’s going on."</t>
+  </si>
+  <si>
+    <t>(If asked):
+“I’ve been feeling super jittery and anxious. My heart’s been racing even when I’m just sitting. It’s been a couple of months now.”</t>
+  </si>
+  <si>
+    <t>Onset: ~2–3 months ago
+Progression: Symptoms have gradually worsened
+Associated symptoms: Fatigue, heat intolerance, frequent bowel movements, difficulty sleeping, hand tremors, 8–10 lb weight loss (unintentional)
+Denies: Fever, chills, chest pain, shortness of breath, vomiting
+Stressors: Work has been busy, but nothing out of the ordinary
+Eating more: Yes—“like I’m always hungry”
+Mood: “A bit on edge all the time”</t>
+  </si>
+  <si>
+    <t>BP: 128/64 mmHg
+HR: 116 bpm, irregular
+RR: 18/min
+Temp: 98.8°F
+O2 sat: 99% on room air
+Weight: 145 lbs (down from 155 lbs six months ago)</t>
+  </si>
+  <si>
+    <t>Mild childhood asthma (no meds currently)
+No known heart problems
+No prior surgeries</t>
+  </si>
+  <si>
+    <t>Occasional melatonin for sleep
+Vitamin D
+No prescription medications</t>
+  </si>
+  <si>
+    <t>Penicillin – causes a rash</t>
+  </si>
+  <si>
+    <t>Lives alone, single
+Works 50–60 hours/week
+Drinks 1–2 beers on weekends
+No smoking or recreational drugs
+Exercises 2–3 times/week but recently “can’t keep up like I used to”
+Mother had a thyroid problem—“I think she had something where she had to take meds for life.”</t>
+  </si>
+  <si>
+    <t>Mother: hypothyroidism
+Father: Type 2 diabetes
+No known history of heart disease or autoimmune conditions in siblings</t>
+  </si>
+  <si>
+    <t>General: Fatigue, weight loss, warm all the time
+Cardiac: Palpitations
+GI: Frequent bowel movements (not watery), ~3–4/day
+Neuro: Tremors, irritability
+Musculoskeletal: Weakness in thighs—“going up stairs is rough”
+Skin: Sweaty hands, no rashes
+Vision: Sometimes feels like eyes are dry or “bulging a bit,” uses drops</t>
+  </si>
+  <si>
+    <t>Empathetic listening :	Appears more comfortable, opens up more.
+Failure to explore symptoms: Remains vague, may prompt: “I dunno... does this sound like stress to you?”
+Asking about family history:“Yeah, my mom had thyroid issues. Not sure what kind though.”
+Asking about sleep: “I can’t stay asleep. I wake up sweaty and just can’t settle down again.”
+Touches hand for tremor: Subtle visible tremor; SP should amplify tremor slightly if unnoticed
+Auscultates heart: “It feels like my heart is skipping sometimes too.”
+Checks eyes: Slight proptosis or simulated lid lag; SP keeps eyes wide and blinks slowly</t>
+  </si>
+  <si>
+    <t>Recognize symptoms of hyperthyroidism
+Perform focused physical exam: thyroid, heart, reflexes, eyes
+Order appropriate labs: TSH, Free T4, T3, thyroid antibodies
+Consider ECG and thyroid ultrasound or scan
+Initiate interdisciplinary referral to endocrinology
+Counsel patient on diagnosis and plan (beta-blockers, lifestyle advice)
+Screen for triggers or precipitating factors
+Use clear, jargon-free language when educating patient</t>
+  </si>
+  <si>
+    <t>Performs focused thyroid exam
+Asks about weight, appetite, GI symptoms
+Asks about family history
+Screens for cardiovascular symptoms
+Recommends labs for thyroid function
+Identifies likely hyperthyroidism
+Provides initial education and plan
+Suggests or initiates referral
+Demonstrates culturally sensitive communication</t>
+  </si>
+  <si>
+    <t>What are the key findings that point toward hyperthyroidism rather than anxiety?
+How would you differentiate Graves’ disease from toxic multinodular goiter clinically?
+What are potential complications if hyperthyroidism is left untreated?
+How do you discuss chronic conditions with a young, working adult under stress?
+What role does the PA play in coordinating endocrine care?</t>
+  </si>
+  <si>
+    <t>How confident were you in identifying hyperthyroidism?
+What challenges did you face in keeping the differential broad early on?
+What did you do well in building rapport with the patient?
+If this were a telehealth visit, what would have been different?
+How would you modify your approach for a non-English-speaking patient?</t>
+  </si>
+  <si>
+    <t>Bronchiectasis</t>
+  </si>
+  <si>
+    <t>Develop a comprehensive pediatric history focused on chronic respiratory symptoms.
+Recognize signs and symptoms of pediatric bronchiectasis and differentiate from common respiratory illnesses.
+Apply clinical reasoning to generate a problem list and differential diagnoses.
+Identify when to escalate for imaging or referral.
+Demonstrate empathetic communication with caregivers with language and cultural considerations.
+Practice interprofessional collaboration (e.g., with pulmonology, infectious disease, physiotherapy).</t>
+  </si>
+  <si>
+    <t>Standard exam room with pediatric posters, a small chair for child, larger chair for caregiver. SP portraying the child’s mother. Learner is expected to address both the child and mother. Interpreter services are available but not initially offered unless requested.</t>
+  </si>
+  <si>
+    <t>Mother: “Doctor saab, my son is always coughing… this is the third time he’s had pneumonia in a year. Something is not right.”</t>
+  </si>
+  <si>
+    <t>(if asked):
+“Persistent cough and low weight gain.”</t>
+  </si>
+  <si>
+    <t>Cough ongoing for over a year; wet-sounding, worse in mornings, occasionally blood-streaked.
+“Flu” or “chest infection” every few months. Treated with antibiotics 3 times this year.
+Poor weight gain. Eats poorly. Tires easily when playing.
+Last hospitalization 2 months ago for “pneumonia.”
+No known fever currently. No known TB exposure.
+Not vaccinated for measles due to parental concerns during COVID.</t>
+  </si>
+  <si>
+    <t>Temperature: 37.2°C
+Heart Rate: 112 bpm
+Respiratory Rate: 28/min
+BP: 100/65 mmHg
+SpO₂: 95% room air
+Weight: 16.5 kg (&lt;5th percentile)
+Height: 107 cm (10th percentile)</t>
+  </si>
+  <si>
+    <t>Recurrent respiratory infections
+Admitted twice in past year
+No known congenital issues
+Delivered full-term, normal vaginal delivery</t>
+  </si>
+  <si>
+    <t>Albuterol PRN (from recent hospitalization)
+Amoxicillin (last dose 3 weeks ago)</t>
+  </si>
+  <si>
+    <t>Lives with parents, 3 siblings in small apartment
+Non-smoker household
+Attends kindergarten irregularly due to illness
+Family income: low, father works two jobs
+No pets</t>
+  </si>
+  <si>
+    <t>Cousin with cystic fibrosis (UK-based)
+Mother reports “bad lungs run in the family”</t>
+  </si>
+  <si>
+    <t>Positive for: Cough, sputum production, occasional hemoptysis, fatigue, poor appetite
+Negative for: Fever, night sweats, joint pain, rashes</t>
+  </si>
+  <si>
+    <t>Mother is visibly worried, anxious, protective
+Mild language barrier, asks for clarification often
+SP may ask about “foreign body stuck” or previous "bad air" at home
+Child is quiet but compliant</t>
+  </si>
+  <si>
+    <t>Physical Exam Findings</t>
+  </si>
+  <si>
+    <t>General: Mildly underweight, alert, interactive
+Lungs: Crackles and rhonchi in lower lobes bilaterally
+Clubbing: Present
+No cyanosis
+ENT: Mild nasal congestion, post-nasal drip
+CVS/Abdo/Neuro: Normal</t>
+  </si>
+  <si>
+    <t>CBC: Mild leukocytosis
+CXR: Peribronchial thickening, patchy infiltrates
+HRCT (if ordered or suggested): Bronchial dilatation and wall thickening (suggestive of bronchiectasis)
+Sweat chloride test: Pending
+Sputum culture: Pseudomonas aeruginosa isolated
+Immunoglobulin panel: WNL</t>
+  </si>
+  <si>
+    <t>Take thorough history focusing on chronic cough and infections
+Recognize red flags: hemoptysis, clubbing, poor weight gain, recurrent pneumonias
+Suggest differential: bronchiectasis, cystic fibrosis, immunodeficiency, asthma
+Recommend HRCT for diagnosis
+Consider sweat chloride testing
+Initiate interprofessional consults (Pulmonology, ID, Nutrition, Social Work)
+Counsel mother with empathy; offer interpreter or written info
+Discuss importance of full immunization
+Emphasize importance of follow-up and airway clearance therapies</t>
+  </si>
+  <si>
+    <t>Establish rapport with caregiver and child
+Elicit detailed symptom history with timeline
+Identify growth faltering and recurrent infections
+Perform focused lung exam
+Generate differential including bronchiectasis
+Recommend appropriate diagnostic workup (HRCT, sweat test, sputum)
+Communicate need for specialist referral
+Address vaccination gaps respectfully
+Demonstrate cultural sensitivity and offer interpreter if needed
+Engage in shared decision-making</t>
+  </si>
+  <si>
+    <t>What are the early warning signs of bronchiectasis in children?
+How can healthcare teams intervene to prevent complications in this case?
+What are the challenges of managing chronic respiratory disease in underserved populations?
+How does the presence of hemoptysis change your approach?</t>
+  </si>
+  <si>
+    <t>“What made you consider bronchiectasis as a possibility?”
+“How did the social and family history inform your clinical reasoning?”
+“What barriers to care might this family face?”
+“What would you do differently in a follow-up encounter?”
+“How confident were you in engaging the caregiver with a language barrier?”</t>
+  </si>
+  <si>
+    <t>Adaptability</t>
+  </si>
+  <si>
+    <t>OSCE-friendly (SP + checklist + physical exam props).
+Virtual simulation adaptable
+Classroom case discussion with branching outcomes.
+Fits into pediatrics, pulmonology, or family medicine modules.</t>
+  </si>
+  <si>
+    <t>Persistent Pediatric Diarrhea</t>
+  </si>
+  <si>
+    <t>Name: Ayaan Khan
+Age: 6 years old
+Gender: Male
+Ethnicity: South Asian (Pakistani heritage)
+Setting: Pediatric outpatient clinic
+Accompanied by: Mother (primary caregiver, moderate English proficiency)                            Target Audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>Name: Meera Gupta
+Age: 11 months
+Gender: Female
+Ethnicity: South Asian (Indian origin) – for cultural relevance and feeding practice discussions
+Parent present: Mother (Ms. Priya Gupta), 32-year-old, primary caregiver, fluent in Hindi and English                                         Target Audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>By the end of the simulation, learners will be able to:
+Recognize and diagnose persistent diarrhea in a pediatric patient.
+Identify nutritional implications and signs of secondary lactose intolerance.
+Differentiate persistent diarrhea from chronic or recurrent diarrhea.
+Develop a nutritional and medical management plan using staged dietary interventions.
+Communicate effectively with a caregiver from a different cultural background, addressing feeding beliefs and practices.
+Collaborate with interprofessional team members (dietitian, nurse, pharmacist).
+Demonstrate appropriate clinical reasoning under diagnostic uncertainty.</t>
+  </si>
+  <si>
+    <t>Pediatric outpatient clinic or simulated ward setting.
+Infant is brought in by the mother.
+The SP playing the mother is distressed, tired, and seeking help after multiple unsuccessful visits to clinics.
+A baby doll can be used to represent the patient.
+Vital signs and physical findings provided upon request or examination.</t>
+  </si>
+  <si>
+    <t>“Doctor, I’m really worried. Meera hasn’t stopped having watery stools for over two weeks now… She’s losing weight, and I don’t know what to feed her anymore.”</t>
+  </si>
+  <si>
+    <t>(if asked)
+“She has been having frequent loose stools, 6 to 10 times a day, for over two weeks.”</t>
+  </si>
+  <si>
+    <t>Diarrhea began acutely 17 days ago after a presumed viral illness.
+Initially treated with oral rehydration solution (ORS) at home and continued exclusive cow’s milk diet.
+Intermittent fever resolved by day 5.
+Stools became more watery, explosive, foul-smelling, associated with perianal redness.
+Infant appears fatigued and irritable.
+Poor feeding over past week; weight loss noted by the mother.
+No vomiting currently, mild fever 3 days ago.
+No blood in stools.</t>
+  </si>
+  <si>
+    <t>Temp: 37.8°C
+HR: 138 bpm
+RR: 32 breaths/min
+BP: 84/56 mmHg
+Weight: 6.1 kg (previously 6.8 kg 3 weeks ago)
+MUAC: 11.2 cm
+Cap refill: 3 seconds
+Mild dehydration signs (sunken eyes, dry mucous membranes)</t>
+  </si>
+  <si>
+    <t>Full-term vaginal delivery, normal birth weight (2.9 kg)
+Up-to-date immunizations
+No previous hospitalizations</t>
+  </si>
+  <si>
+    <t>Multivitamin syrup (self-initiated by mother)
+No current prescription meds</t>
+  </si>
+  <si>
+    <t>No known drug or food allergies</t>
+  </si>
+  <si>
+    <t>Lives in urban apartment, both parents working (father unavailable during visit).
+Clean water access, but uses boiled cow’s milk as primary feed.
+Exclusive breastfeeding stopped at 4 months.
+Introduced semisolids at 7 months (mainly rice and potatoes).
+Care provided mainly by mother and grandmother.</t>
+  </si>
+  <si>
+    <t>No history of chronic gastrointestinal diseases
+Mother had lactose intolerance as a child</t>
+  </si>
+  <si>
+    <t>GI: Frequent explosive stools, poor appetite, no vomiting now
+GU: Normal urine output, no UTI symptoms
+Neuro: Alert, irritable when handled
+Respiratory: Normal
+Skin: Mild diaper rash</t>
+  </si>
+  <si>
+    <t>Anxious, sleep-deprived, emotionally reactive.
+Defensive when asked about feeding practices (“I thought cow’s milk is good for babies!”)
+Tearful when discussing weight loss.</t>
+  </si>
+  <si>
+    <t>(To be provided on learner request or during simulation)
+CBC: Mild normocytic anemia, WBC normal
+Stool exam: Positive reducing substances, pH &lt; 5, no blood, no parasites
+Urinalysis: Normal
+Serum electrolytes: Mild hyponatremia
+Weight-for-age: &lt; -2 SD
+No growth of bacteria in stool culture (done externally)</t>
+  </si>
+  <si>
+    <t>Take a focused history and perform pediatric assessment.
+Recognize signs of secondary lactose intolerance and nutritional decline.
+Identify malnutrition (based on weight loss, MUAC, and growth faltering).
+Communicate dietary changes to the parent with empathy and clarity.
+Propose Diet A initiation, with criteria for escalation.
+Consider empiric antibiotic use if systemic infection suspected.
+Educate mother about feeding practices and hygiene.
+Consult with a dietitian and pediatric nurse for feeding plan.
+Initiate zinc and vitamin A supplementation.
+Schedule follow-up or admission depending on risk assessment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elicit complete and focused history (feeding, stool pattern, weight).
+Identify signs of secondary lactose intolerance.
+Assess nutritional status (MUAC, growth trajectory).
+Counsel on dietary modifications (Diet A initiation).
+Prescribe zinc and vitamin A.
+Discuss danger signs and follow-up.
+Offer culturally sensitive education.
+Document clear plan and involve the interprofessional team.
+Recognize and plan for malnutrition management.
+</t>
+  </si>
+  <si>
+    <t>How does persistent diarrhea differ from chronic or recurrent diarrhea?
+What are the red flags for malnutrition in infants?
+How would you tailor nutritional counseling in a cross-cultural setting?
+What are the implications of prolonged antibiotic use in diarrhea?
+When would you escalate to Diet B or Diet C?</t>
+  </si>
+  <si>
+    <t>What was the most challenging part of this encounter?
+How did you approach caregiver communication and cultural beliefs?
+Were there any moments where your biases or assumptions influenced your clinical judgment?
+What could you have done to involve the interprofessional team more effectively?
+How would you ensure continuity of care for this patient?</t>
+  </si>
+  <si>
+    <t>OSCE: Use time-bound station with SP scoring sheet.
+Classroom: Conduct as a group role-play with guided discussion.
+Virtual Simulation: Provide interactive branching logic via chat/voice.</t>
+  </si>
+  <si>
+    <t>A Pediatric Upper GI Bleed in the Context of Portal Hypertension</t>
+  </si>
+  <si>
+    <t>Name: Aarav Kumar
+Age: 9 years
+Gender: Male
+Ethnicity: South Asian (Indian)
+Language Preference: English and Hindi (can provide medical history in both)
+Setting: Pediatric ED or inpatient pediatric ward
+Simulation Duration: 20–30 minutes                         Target Audience: Medical students, Residents</t>
+  </si>
+  <si>
+    <t>By the end of this case, learners should be able to:
+Identify and manage life-threatening upper GI bleeding in a pediatric patient.
+Demonstrate clinical reasoning in diagnosing portal hypertension in a child.
+Implement guideline-based resuscitative and therapeutic strategies for variceal bleeding.
+Coordinate interprofessional care (pediatrics, gastroenterology, nursing, interpreter services).
+Communicate effectively with caregivers and team members during pediatric emergencies.
+Apply culturally sensitive communication techniques with non-native English speakers.</t>
+  </si>
+  <si>
+    <t>A pediatric ED or ward room.
+The SP (parent of the child) is panicked and anxious.
+The child is on a stretcher, visibly pale with blood stains on their shirt and face.
+A nurse confederate is available for collaboration.</t>
+  </si>
+  <si>
+    <t>"Doctor, please help! My son just vomited a lot of blood, it was so sudden—I don't know what’s happening!"</t>
+  </si>
+  <si>
+    <t>"He threw up a large amount of bright red blood about 30 minutes ago at home."</t>
+  </si>
+  <si>
+    <t>Aarav was playing at home when he suddenly vomited approximately 300–400 ml of bright red blood.
+No associated pain or fever.
+No trauma or ingestion.
+Similar, smaller episodes of blood-tinged vomitus noted in the past month, but parents thought it was due to a sore throat.
+Occasional mild abdominal distension noticed in the last 6 months.
+No diarrhea, constipation, or weight loss reported.</t>
+  </si>
+  <si>
+    <t>HR: 135 bpm
+BP: 85/50 mmHg
+RR: 26/min
+Temp: 37.1°C
+SpO₂: 97% on room air
+Weight: 25 kg</t>
+  </si>
+  <si>
+    <t>Known cryptogenic liver disease diagnosed 1 year ago.
+Ultrasound previously showed hepatosplenomegaly.
+Missed follow-ups due to financial issues.</t>
+  </si>
+  <si>
+    <t>Propranolol (poor adherence)
+Multivitamins</t>
+  </si>
+  <si>
+    <t>Lives with both parents and younger sibling.
+Father is a shopkeeper; mother is a homemaker.
+No known exposure to TB or hepatitis B/C in the family.
+Household income is limited; sometimes struggles to afford medications.</t>
+  </si>
+  <si>
+    <t>No family history of liver disease or bleeding disorders.
+Maternal uncle died of an unknown liver condition in his 30s.</t>
+  </si>
+  <si>
+    <t>CBC: Hb 6.4 g/dL, WBC 9.2K, Platelets 110K
+LFTs: Elevated AST/ALT, low albumin (2.4 g/dL)
+INR: 1.8
+Ultrasound: Coarse echotexture liver, splenomegaly, mild ascites
+Previous Endoscopy (6 months ago): Grade II esophageal varices</t>
+  </si>
+  <si>
+    <t>Fatigue
+Mild early satiety
+Occasional mild abdominal swelling</t>
+  </si>
+  <si>
+    <t>Child is quiet, fatigued, anxious.
+Parent is distressed, constantly asking questions in both English and Hindi.
+Parent becomes more emotional if learner delays oxygen or IV access.</t>
+  </si>
+  <si>
+    <t>Recognize and prioritize hemorrhagic shock.
+Initiate ABC assessment and support.
+Establish large-bore IV access.
+Order STAT CBC, LFTs, INR, crossmatch.
+Initiate fluid resuscitation with crystalloids followed by packed RBCs.
+Begin IV octreotide or somatostatin.
+Administer third-generation cephalosporin (e.g., cefotaxime).
+Consult pediatric gastroenterology for urgent endoscopy.
+Provide culturally sensitive explanation to parent.
+Engage interpreter services if needed.
+Coordinate with nursing and pharmacy for time-sensitive interventions.</t>
+  </si>
+  <si>
+    <t>Assessed airway, breathing, circulation.         Provided oxygen and established IV access.
+Ordered labs and blood products	
+Initiated octreotide/somatostatin	
+Administered prophylactic antibiotics. Initiated blood transfusion (PRBCs) appropriately	
+Communicated clearly with caregiver. Called for urgent pediatric GI consult	
+Used interpreter or culturally competent approach.	
+Handoff to interprofessional team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the most common causes of upper GI bleeding in children? How do they vary by age?
+Why is prophylactic antibiotic therapy indicated in variceal bleeding?
+How does portal hypertension develop in pediatric liver disease?
+What factors might delay endoscopy in resource-limited settings, and how can care be optimized?
+How can we involve caregivers effectively in clinical decision-making?
+</t>
+  </si>
+  <si>
+    <t>Walk us through your clinical reasoning from first impression to interventions.
+What biases may have influenced your initial differential?
+How did you manage your communication with the distressed parent?
+Did you feel prepared to handle this kind of pediatric emergency?
+What could you improve next time in coordinating care across teams?</t>
+  </si>
+  <si>
+    <t>OSCEs with actor-based SPs
+Virtual simulations with video conferencing and standardized lab result PDFs
+Classroom discussion or flipped classroom with video of a simulated scenario followed by group debrief</t>
+  </si>
+  <si>
+    <t>A Pediatric Liver Abscess in an Immunocompromised Patient</t>
+  </si>
+  <si>
+    <t>Name: Ayaan Hussain
+Age: 9 years
+Gender: Male
+Ethnicity: South Asian
+Language: Speaks English; Urdu is primary language at home
+Parent/Guardian Present: Mother, Amina Hussain (plays a minor role if learners engage family)
+Relevant Background: History of Chronic Granulomatous Disease (CGD), on prophylactic antibiotics                                         Target Audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>This case is designed for medical students and pediatric residents to evaluate, diagnose, and manage a child presenting with systemic signs of infection and abdominal pain. Learners will:
+Conduct a focused pediatric history and physical exam.
+Recognize red flags suggestive of liver abscess.
+Prioritize diagnostic investigations based on immune status.
+Initiate empiric treatment and plan for interprofessional coordination.
+Discuss patient/family education, particularly in culturally sensitive contexts.
+Develop differential diagnosis and clinical reasoning in the context of immunocompromised hosts.</t>
+  </si>
+  <si>
+    <t>Setting: Pediatric Emergency Department or Inpatient Pediatric Ward
+Learner Role: Primary provider (MS or resident)
+Standardized Patient Role: Ayaan (played by SP), with mother present if desired
+SP Notes: SP (Ayaan) is tired, febrile, and occasionally winces or guards RUQ. Cooperative but lethargic. Avoids eye contact, prefers yes/no answers. Mother is anxious but calm, seeks clear explanations.</t>
+  </si>
+  <si>
+    <t>"My stomach really hurts and I feel hot... I’ve been like this for a few days."</t>
+  </si>
+  <si>
+    <t>"Fever and stomach pain, mostly on the right side, since four days."</t>
+  </si>
+  <si>
+    <t>Fever for 4 days (up to 103°F), non-remitting
+Abdominal pain: dull, constant, RUQ, worse with movement or deep breaths
+Poor appetite, some nausea, no vomiting
+Decreased energy, mostly bedridden past 2 days
+No cough, urinary symptoms, or recent trauma
+No recent travel, no contact with sick individuals
+Took Tylenol with temporary relief
+Mother notes he’s "getting sick more often lately"</t>
+  </si>
+  <si>
+    <t>Temp: 39.4°C (102.9°F)
+HR: 120 bpm
+RR: 26/min
+BP: 100/65 mmHg
+SpO₂: 98% on room air</t>
+  </si>
+  <si>
+    <t>Diagnosed CGD at age 3
+Multiple past infections: pneumonia, skin abscesses
+No recent hospitalizations
+UTD on vaccinations</t>
+  </si>
+  <si>
+    <t>Trimethoprim-Sulfamethoxazole (prophylaxis)
+Itraconazole (prophylaxis)
+Acetaminophen PRN</t>
+  </si>
+  <si>
+    <t>Lives with parents and younger sister
+Mother is a homemaker; father is an accountant
+Family immigrated from Pakistan 3 years ago
+Strict dietary habits; does not eat outside food
+Family speaks Urdu at home; mother speaks intermediate English</t>
+  </si>
+  <si>
+    <t>No known genetic disorders in family
+Younger sister healthy</t>
+  </si>
+  <si>
+    <t>Fever, chills, fatigue
+RUQ pain
+No diarrhea, no constipation
+No sore throat, cough
+No dysuria or hematuria</t>
+  </si>
+  <si>
+    <t>Groans softly when touched in RUQ
+Short responses unless prompted
+Clings to mother when overwhelmed
+Tenses up when abdomen is palpated</t>
+  </si>
+  <si>
+    <t>General: Lethargic but alert, toxic appearance
+Abdomen: Tender RUQ with guarding, no rebound, hepatomegaly present
+CV/Resp: Clear lungs, tachycardic, no murmurs
+Skin: No rashes, no jaundice
+Neuro: Oriented, sluggish responses</t>
+  </si>
+  <si>
+    <t>CBC: WBC 19,000/mm³, Neutrophils 85%
+ESR: 74 mm/hr
+CRP: Elevated
+LFTs: Mildly elevated AST/ALT, ALP elevated
+Blood Cultures: Pending
+Abdominal Ultrasound: 6cm hypoechoic lesion in right hepatic lobe with rim enhancement
+CT Abdomen (if ordered): Confirms abscess; no rupture; no biliary obstruction</t>
+  </si>
+  <si>
+    <t>Conduct thorough pediatric HPI and ROS
+Recognize immunocompromised state and risk for unusual infections
+Perform focused abdominal exam with attention to hepatomegaly
+Order relevant labs and imaging (CBC, LFTs, US, blood cultures)
+Consider liver abscess in differential diagnosis
+Initiate empiric IV antibiotics covering gram+, gram–, anaerobes
+Communicate with radiology, ID, and possibly surgery
+Provide family-centered education and use clear language
+Arrange for admission and consultation for percutaneous drainage</t>
+  </si>
+  <si>
+    <t>Identifies immunocompromised status (CGD)
+Orders appropriate imaging and labs
+Recognizes liver abscess as likely diagnosis
+Initiates empiric broad-spectrum antibiotics
+Requests ID consult
+Plans for drainage if clinically indicated
+Engages mother respectfully and provides language-concordant resources
+Documents clinical reasoning and differential</t>
+  </si>
+  <si>
+    <t>What clinical features helped distinguish liver abscess from other abdominal pathology?
+How does CGD alter the patient’s infection risk and treatment approach?
+What are key considerations when treating infections in immunocompromised children?
+How can providers ensure culturally competent care in this scenario?</t>
+  </si>
+  <si>
+    <t>“What cues helped you decide this was more than a typical abdominal complaint?”
+“How did you incorporate the patient’s immune status into your diagnostic reasoning?”
+“Was there any point where you felt uncertain about your differential? Why?”
+“How did you handle the communication with the patient’s mother?”
+“If this case progressed to rupture or sepsis, what would your next steps be?”</t>
+  </si>
+  <si>
+    <t>Adaptable for OSCE by providing imaging reports and prompting critical thinking
+Can be modified for telehealth simulation (e.g., virtual encounter with SP and remote radiology results)
+SP script includes responses in Urdu if interpreter not offered (to test learner's cultural responsiveness)</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Paul, V. K., &amp; Bagga, A. (Eds.). (2013). Ghai essential pediatrics (8th ed.). CBS Publishers &amp; Distributors.</t>
+  </si>
+  <si>
+    <t>Dutta, D. C., &amp; Konar, H. (Ed.). (2015). DC Dutta's textbook of obstetrics: Including perinatology and contraception (8th ed.). Jaypee Brothers Medical Publishers.</t>
   </si>
 </sst>
 </file>
@@ -2398,13 +3663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2414,8 +3672,17 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2437,24 +3704,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2769,1354 +4036,3022 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE0C052-7AB7-DC47-9DDB-42272201E23A}">
-  <dimension ref="A1:AC21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60E725C-360B-4F4B-B7BA-A4989DAE5406}">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="94" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="3" width="17.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33" style="2" customWidth="1"/>
-    <col min="9" max="9" width="47.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="36.1640625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="29.83203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="36.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="43.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="33.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="32.6640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="28.83203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="33.1640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="49.6640625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="29.83203125" style="2" customWidth="1"/>
-    <col min="26" max="29" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664A7BAF-0C2A-9247-AFA1-05776D92CFBC}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G5:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6618284-8FD0-B940-8C7E-FCCBC512ACC1}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3724E7B9-119E-994A-99A2-8337FA3C7903}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B54550-1027-A346-8C59-DB22363484BB}">
+  <dimension ref="A1:AA8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8336F802-8259-704E-9519-29D197B8309B}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FF53FD-24A2-40A8-9AFC-21FD8ED25B63}">
+  <dimension ref="A1:X6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="18" width="31.33203125" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" customWidth="1"/>
+    <col min="20" max="20" width="34.33203125" customWidth="1"/>
+    <col min="21" max="21" width="33.1640625" customWidth="1"/>
+    <col min="22" max="22" width="31.1640625" customWidth="1"/>
+    <col min="23" max="23" width="30.1640625" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>439</v>
+      </c>
+      <c r="P1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>441</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>480</v>
+      </c>
+      <c r="X1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="340" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="340" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>240</v>
+      <c r="M3" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="289" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="4" spans="1:24" ht="404" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="388" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>354</v>
+      <c r="B5" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="356" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="323" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="289" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="306" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:24" ht="356" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="306" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="356" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="272" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="306" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="272" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="340" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="306" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="340" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="B6" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="289" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="272" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="340" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="372" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="340" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="388" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>340</v>
+      <c r="M6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BE08A7-3E9C-A245-8CE2-0A677D50A320}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAE955D-550C-514F-9B20-E1EAD28E083B}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD078BD-32DA-0A4F-9EA7-7DEC84E425BD}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03273311-2822-7B4A-A21F-7F05730E5D71}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejaswimanchineella/Desktop/portfolios/simulationcases/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/F4BD41127C9201D9/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018F384-D17A-644C-804B-26CD93346828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3229F103-F3A9-42AE-A08D-7DD5E986C082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-1560" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Ophthalmology" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="574">
   <si>
     <t>Name</t>
   </si>
@@ -3645,6 +3645,170 @@
   </si>
   <si>
     <t>Dutta, D. C., &amp; Konar, H. (Ed.). (2015). DC Dutta's textbook of obstetrics: Including perinatology and contraception (8th ed.). Jaypee Brothers Medical Publishers.</t>
+  </si>
+  <si>
+    <t>Navigating Chronic Pelvic Pain in a Multidimensional Patient Context</t>
+  </si>
+  <si>
+    <t>Name: Ms. Laila Hassan
+Age: 32
+Gender: Female
+Ethnicity/Nationality: Egyptian-American
+Language: Fluent English, slight Egyptian Arabic accent
+Occupation: Secondary school biology teacher
+Cultural/Religious Background: Muslim, observant but open to Western medicine
+Marital Status: Married
+Children: None</t>
+  </si>
+  <si>
+    <t>By the end of this simulation, learners should be able to:
+Conduct a comprehensive gynecological history, including sensitive inquiry into pain, sexual health, and menstrual function.
+Demonstrate cultural competence and appropriate communication strategies in discussing intimate symptoms.
+Generate a differential diagnosis for chronic pelvic pain in reproductive-age women.
+Discuss the role of multidisciplinary care including referral to pain specialists, pelvic physiotherapy, gynecology, and mental health professionals.
+Practice shared decision-making and appropriate explanation of further diagnostic steps (e.g., pelvic ultrasound, laparoscopy).
+Engage in interprofessional collaboration (with nurses, mental health workers, physiotherapists).
+Reflect on how cultural and psychosocial factors influence symptom expression and health-seeking behavior.</t>
+  </si>
+  <si>
+    <t>Location: Outpatient gynecology clinic
+Learner Role: Medical student or junior resident
+SP Setting: Patient is seated in the exam room, clothed. No physical exam is required unless prompted.
+Observer Role (optional): Nurse educator or senior resident may be observing to assess communication and critical thinking.</t>
+  </si>
+  <si>
+    <t>“Hi, I’m here because I’ve been having this deep, aching pain in my lower belly that won’t go away. It’s been really affecting my life.”</t>
+  </si>
+  <si>
+    <t>“I’ve had pelvic pain for over a year, but it’s been worse in the last few months. It’s deep, and sometimes sharp during certain times of the month or with intercourse.”</t>
+  </si>
+  <si>
+    <t>Pain began 15 months ago, gradually worsening.
+Localized to suprapubic and deep pelvic region, sometimes radiating to lower back.
+Described as dull, aching baseline with sharp pain during sex (deep dyspareunia).
+Worse around periods but now persistent throughout the cycle.
+Some days she misses work due to pain.
+NSAIDs help minimally.
+Reports pain with bowel movements during menstruation.
+Denies fever, weight loss, or abnormal bleeding.
+Expresses frustration at not being believed by a previous provider.</t>
+  </si>
+  <si>
+    <t>Temp	36.8°C
+BP	114/72 mmHg
+HR	82 bpm
+RR	16 breaths/min
+O2 Sat	98% on RA
+BMI	24.5</t>
+  </si>
+  <si>
+    <t>Diagnosed with IBS 2 years ago, but unsure
+Migraines
+Mild anxiety, no formal diagnosis</t>
+  </si>
+  <si>
+    <t>Ibuprofen 400 mg as needed
+Vitamin D
+Occasionally uses peppermint oil capsules for IBS</t>
+  </si>
+  <si>
+    <t>No Known drug allergies.</t>
+  </si>
+  <si>
+    <t>Lives with husband
+No tobacco or alcohol
+Observes fasting during Ramadan
+Stresses due to fertility pressure from in-laws
+Work absenteeism is increasing
+No known domestic abuse, but reluctant to discuss intimacy in depth unless rapport is built</t>
+  </si>
+  <si>
+    <t>Mother: Hypertension, hysterectomy at 45 (unknown reason)
+Sister: Diagnosed with endometriosis
+Father: Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t>Constitutional: No fevers or weight loss
+GI: Constipation around periods, mild bloating
+GU: No dysuria or hematuria
+Neuro: No weakness or paresthesias
+Psych: Mood “low sometimes,” occasional anxiety about infertility</t>
+  </si>
+  <si>
+    <t>Initially guarded, becomes open if approached sensitively
+May tear up slightly when discussing fertility
+Avoids eye contact when asked about sexual activity—needs reassurance of confidentiality
+Responds well to empathetic and structured questioning</t>
+  </si>
+  <si>
+    <t>This scenario can be easily adapted to:
+In-person OSCE with a trained SP
+Virtual simulation via Zoom or telehealth platform
+Classroom-based case discussion
+Interprofessional learning with role-play across disciplines</t>
+  </si>
+  <si>
+    <t>How did it feel discussing sensitive topics like sexual pain or infertility?
+Were there moments you felt uncertain or uncomfortable—how did you manage them?
+What non-verbal cues did you notice that influenced how you proceeded?
+How could you have better addressed the patient’s frustration with prior medical experiences?</t>
+  </si>
+  <si>
+    <t>What are the key red flags that differentiate gynecologic from GI sources of pelvic pain?
+How does culture influence this patient’s expression of pain and her approach to care?
+What role does a gynecologist play in confirming this diagnosis?
+How do we manage diagnostic uncertainty while maintaining patient trust?</t>
+  </si>
+  <si>
+    <t>Establish rapport with professional introduction and culturally sensitive tone
+Use clear language, explain purpose of questions
+Elicit detailed menstrual and dyspareunia history
+Inquire about fertility and psychosocial impact
+Generate focused differential diagnosis
+Recommend appropriate diagnostics and referrals
+Discuss role of gynecologist, physiotherapist, psychologist
+Demonstrate empathy and validate patient’s experience
+Maintain patient dignity throughout</t>
+  </si>
+  <si>
+    <t>Introduce self and explain role and confidentiality
+Use open-ended, non-judgmental language
+Ask about menstrual, sexual, and pain history
+Screen gently for fertility concerns and psychosocial stressors
+Offer preliminary differential: endometriosis, IBS, pelvic floor dysfunction, chronic pelvic pain syndrome
+Suggest further work-up: pelvic US, CA-125, laparoscopy (depending on level)
+Provide reassurance, validate experience
+Consider interprofessional referrals: pelvic physiotherapy, gynecology, mental health, pain clinic
+Discuss possible benefits of hormonal suppression trial</t>
+  </si>
+  <si>
+    <t>Menstrual History</t>
+  </si>
+  <si>
+    <t>Obstetric History</t>
+  </si>
+  <si>
+    <t>Sexual History</t>
+  </si>
+  <si>
+    <t>Cycles every 28–30 days
+Menses last 6–7 days, heavy first 2 days
+Regular but very painful periods since teenage years
+Uses tampons, but sometimes has to lie down due to cramps
+On no hormonal contraception currently</t>
+  </si>
+  <si>
+    <t>G0P0
+Trying to conceive for 1.5 years without success
+Miscarriage ruled out
+Never pregnant to her knowledge</t>
+  </si>
+  <si>
+    <t>Monogamous with husband of 4 years
+Reports pain during deep penetration
+No history of STIs
+Uses condoms occasionally
+Negative chlamydia/gonorrhea last year</t>
   </si>
 </sst>
 </file>
@@ -4043,12 +4207,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4125,7 +4289,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4203,9 +4367,9 @@
       <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4282,7 +4446,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4349,7 +4513,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4416,7 +4580,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4483,7 +4647,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4561,13 +4725,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6618284-8FD0-B940-8C7E-FCCBC512ACC1}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4644,7 +4808,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4724,9 +4888,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4803,7 +4967,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4866,7 +5030,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4931,7 +5095,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4996,7 +5160,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5072,9 +5236,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5151,7 +5315,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5218,7 +5382,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5283,7 +5447,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5350,7 +5514,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5415,7 +5579,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5480,7 +5644,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5543,7 +5707,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5619,9 +5783,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5698,7 +5862,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5770,38 +5934,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FF53FD-24A2-40A8-9AFC-21FD8ED25B63}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="18" width="31.33203125" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" customWidth="1"/>
-    <col min="20" max="20" width="34.33203125" customWidth="1"/>
-    <col min="21" max="21" width="33.1640625" customWidth="1"/>
-    <col min="22" max="22" width="31.1640625" customWidth="1"/>
-    <col min="23" max="23" width="30.1640625" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="29.69921875" customWidth="1"/>
+    <col min="5" max="5" width="32.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="28.69921875" customWidth="1"/>
+    <col min="9" max="9" width="23.69921875" customWidth="1"/>
+    <col min="10" max="10" width="28.19921875" customWidth="1"/>
+    <col min="11" max="11" width="25.296875" customWidth="1"/>
+    <col min="12" max="12" width="20.796875" customWidth="1"/>
+    <col min="13" max="13" width="26.296875" customWidth="1"/>
+    <col min="14" max="14" width="28.296875" customWidth="1"/>
+    <col min="15" max="15" width="30.69921875" customWidth="1"/>
+    <col min="16" max="21" width="31.296875" customWidth="1"/>
+    <col min="22" max="22" width="30.69921875" customWidth="1"/>
+    <col min="23" max="23" width="34.296875" customWidth="1"/>
+    <col min="24" max="24" width="33.19921875" customWidth="1"/>
+    <col min="25" max="25" width="31.19921875" customWidth="1"/>
+    <col min="26" max="26" width="30.19921875" customWidth="1"/>
+    <col min="27" max="27" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5851,31 +6015,40 @@
         <v>440</v>
       </c>
       <c r="Q1" t="s">
+        <v>568</v>
+      </c>
+      <c r="R1" t="s">
+        <v>569</v>
+      </c>
+      <c r="S1" t="s">
+        <v>570</v>
+      </c>
+      <c r="T1" t="s">
         <v>473</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>441</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>480</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="340" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="312" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5926,20 +6099,23 @@
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="340" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="312" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5988,32 +6164,35 @@
       <c r="P3" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="404" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6062,29 +6241,32 @@
       <c r="P4" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="U4" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="388" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6133,29 +6315,32 @@
       <c r="P5" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="U5" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="356" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6204,29 +6389,106 @@
       <c r="P6" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -6243,9 +6505,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6322,7 +6584,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6396,9 +6658,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6475,7 +6737,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6555,9 +6817,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6634,7 +6896,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6712,9 +6974,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6791,7 +7053,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6856,7 +7118,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6921,7 +7183,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6986,7 +7248,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/F4BD41127C9201D9/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejaswimanchineella/Desktop/portfolios/simulationcases/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3229F103-F3A9-42AE-A08D-7DD5E986C082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9476CC7-2115-FF44-97CB-5294D4969EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Ophthalmology" sheetId="7" r:id="rId1"/>
     <sheet name="Gastrointestinal System" sheetId="5" r:id="rId2"/>
     <sheet name="Neurology" sheetId="4" r:id="rId3"/>
     <sheet name="Cardiovascular" sheetId="9" r:id="rId4"/>
-    <sheet name="sp" sheetId="2" r:id="rId5"/>
+    <sheet name="Standarized Patient Scenarios" sheetId="2" r:id="rId5"/>
     <sheet name="Endocrine System" sheetId="6" r:id="rId6"/>
     <sheet name="General Surgery" sheetId="3" r:id="rId7"/>
     <sheet name="Musculoskeletal" sheetId="8" r:id="rId8"/>
@@ -2685,15 +2685,6 @@
 Setting: Surgical Intensive Care Unit (SICU)   Target Audience: Nursing Students</t>
   </si>
   <si>
-    <t>Name: Aaliyah Campbell
-Age: 44 years
-Gender: Female
-Ethnicity: African American
-Pronouns: She/her
-Setting: Primary Care Clinic
-Insurance: Medicaid                                            Target Audience: Physician Assistant Students</t>
-  </si>
-  <si>
     <t>Name: Mr. Mahmoud El-Sayed
 Age: 74
 Gender: Male
@@ -3809,6 +3800,16 @@
 No history of STIs
 Uses condoms occasionally
 Negative chlamydia/gonorrhea last year</t>
+  </si>
+  <si>
+    <t>Name: Aaliyah Campbell
+Age: 44 years
+Gender: Female
+Ethnicity: African American
+Pronouns: She/her
+Setting: Primary Care Clinic
+Insurance: Medicaid
+Target Audience: Physician Assistant Students</t>
   </si>
 </sst>
 </file>
@@ -4207,12 +4208,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.19921875" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4283,13 +4284,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>206</v>
@@ -4320,10 +4321,10 @@
         <v>211</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
@@ -4367,9 +4368,9 @@
       <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4440,13 +4441,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4507,13 +4508,13 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4574,13 +4575,13 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4641,13 +4642,13 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4710,7 +4711,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -4729,9 +4730,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4802,71 +4803,71 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -4888,9 +4889,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4961,13 +4962,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>137</v>
@@ -5030,7 +5031,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>147</v>
@@ -5095,7 +5096,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>163</v>
@@ -5160,7 +5161,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>179</v>
@@ -5232,13 +5233,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B54550-1027-A346-8C59-DB22363484BB}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="68.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5309,13 +5313,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>399</v>
+        <v>573</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
@@ -5382,7 +5386,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>35</v>
@@ -5447,7 +5451,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
@@ -5514,7 +5518,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>68</v>
@@ -5579,7 +5583,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5587,7 +5591,7 @@
         <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>85</v>
@@ -5644,7 +5648,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>101</v>
@@ -5707,7 +5711,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>116</v>
@@ -5783,9 +5787,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5856,13 +5860,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>236</v>
@@ -5940,32 +5944,32 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.19921875" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
-    <col min="4" max="4" width="29.69921875" customWidth="1"/>
-    <col min="5" max="5" width="32.69921875" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="28.69921875" customWidth="1"/>
-    <col min="9" max="9" width="23.69921875" customWidth="1"/>
-    <col min="10" max="10" width="28.19921875" customWidth="1"/>
-    <col min="11" max="11" width="25.296875" customWidth="1"/>
-    <col min="12" max="12" width="20.796875" customWidth="1"/>
-    <col min="13" max="13" width="26.296875" customWidth="1"/>
-    <col min="14" max="14" width="28.296875" customWidth="1"/>
-    <col min="15" max="15" width="30.69921875" customWidth="1"/>
-    <col min="16" max="21" width="31.296875" customWidth="1"/>
-    <col min="22" max="22" width="30.69921875" customWidth="1"/>
-    <col min="23" max="23" width="34.296875" customWidth="1"/>
-    <col min="24" max="24" width="33.19921875" customWidth="1"/>
-    <col min="25" max="25" width="31.19921875" customWidth="1"/>
-    <col min="26" max="26" width="30.19921875" customWidth="1"/>
-    <col min="27" max="27" width="17.69921875" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="21" width="31.33203125" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" customWidth="1"/>
+    <col min="23" max="23" width="34.33203125" customWidth="1"/>
+    <col min="24" max="24" width="33.1640625" customWidth="1"/>
+    <col min="25" max="25" width="31.1640625" customWidth="1"/>
+    <col min="26" max="26" width="30.1640625" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5973,22 +5977,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" t="s">
         <v>433</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>434</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>435</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>436</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>437</v>
-      </c>
-      <c r="H1" t="s">
-        <v>438</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -6009,22 +6013,22 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
+        <v>438</v>
+      </c>
+      <c r="P1" t="s">
         <v>439</v>
       </c>
-      <c r="P1" t="s">
-        <v>440</v>
-      </c>
       <c r="Q1" t="s">
+        <v>567</v>
+      </c>
+      <c r="R1" t="s">
         <v>568</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>569</v>
       </c>
-      <c r="S1" t="s">
-        <v>570</v>
-      </c>
       <c r="T1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U1" t="s">
         <v>19</v>
@@ -6036,19 +6040,19 @@
         <v>26</v>
       </c>
       <c r="X1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y1" t="s">
         <v>31</v>
       </c>
       <c r="Z1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="312" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="340" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6056,46 +6060,46 @@
         <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -6103,392 +6107,392 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>459</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" ht="312" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="340" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="Z3" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="404" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="AA4" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="388" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="O5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="AA5" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="356" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="AA6" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -6505,9 +6509,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6578,13 +6582,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>193</v>
@@ -6658,9 +6662,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6731,13 +6735,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6817,9 +6821,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6890,13 +6894,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>221</v>
@@ -6974,9 +6978,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7047,13 +7051,13 @@
         <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7118,7 +7122,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7183,7 +7187,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7248,7 +7252,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejaswimanchineella/Desktop/portfolios/simulationcases/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/F4BD41127C9201D9/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9476CC7-2115-FF44-97CB-5294D4969EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F5A3B5-10D9-4392-AAA4-B8A480B41FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Ophthalmology" sheetId="7" r:id="rId1"/>
     <sheet name="Gastrointestinal System" sheetId="5" r:id="rId2"/>
     <sheet name="Neurology" sheetId="4" r:id="rId3"/>
     <sheet name="Cardiovascular" sheetId="9" r:id="rId4"/>
-    <sheet name="Standarized Patient Scenarios" sheetId="2" r:id="rId5"/>
+    <sheet name="Standardized Patient Scenarios" sheetId="2" r:id="rId5"/>
     <sheet name="Endocrine System" sheetId="6" r:id="rId6"/>
     <sheet name="General Surgery" sheetId="3" r:id="rId7"/>
     <sheet name="Musculoskeletal" sheetId="8" r:id="rId8"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="723">
   <si>
     <t>Name</t>
   </si>
@@ -3810,6 +3810,999 @@
 Setting: Primary Care Clinic
 Insurance: Medicaid
 Target Audience: Physician Assistant Students</t>
+  </si>
+  <si>
+    <t>Diabetic Retinopathy</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Lata Devi
+Age: 62
+Gender: Female
+Ethnicity: South Asian (Indian)
+Language Preference: Hindi (limited English proficiency)
+Occupation: Retired schoolteacher
+Target Audience: Medical students and junior residents</t>
+  </si>
+  <si>
+    <t>“I can't see clearly anymore… it’s gotten worse over the last few months.”</t>
+  </si>
+  <si>
+    <t>Blood Pressure: 158/92 mmHg
+Heart Rate: 84 bpm
+Respiratory Rate: 16/min
+SpO₂: 98% on room air
+Temperature: 36.7°C
+BMI: 31.2 kg/m²</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus × 18 years
+Hypertension × 10 years
+Hyperlipidemia
+Cataract surgery (left eye) 3 years ago</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Amlodipine 10 mg daily
+Atorvastatin 40 mg daily
+Aspirin 75 mg daily (self-discontinued)</t>
+  </si>
+  <si>
+    <t>Lives alone; daughter overseas
+Missed last two ophthalmology appointments due to transport and language barriers
+Limited digital literacy (does not use patient portals)
+Non-smoker, does not consume alcohol</t>
+  </si>
+  <si>
+    <t>Brother with ESRD secondary to diabetes</t>
+  </si>
+  <si>
+    <t>HbA1c: 9.2%
+LDL-C: 142 mg/dL
+BUN/Cr: 22/1.3 mg/dL
+Fundoscopy (by non-mydriatic camera):
+Right Eye: Cotton wool spots, dot-and-blot hemorrhages, IRMA in 2 quadrants
+Left Eye: Neovascularization near optic disc, pre-retinal hemorrhage
+OCT Macula: Bilateral macular edema, worse in the left eye
+Fluorescein Angiography (pending in scenario): Non-perfusion zones, leakage at macula</t>
+  </si>
+  <si>
+    <t>Initially presents with blurry vision, especially in the left eye.
+Describes difficulty reading and frequent bumping into objects on her left side.
+As learners progress, they uncover advanced PDR with diabetic macular edema.
+Patient mentions she "stopped going" because “no one explained what the eye tests meant.”</t>
+  </si>
+  <si>
+    <t>Failure of previous care continuum (missed follow-up).
+Communication challenges due to language, health literacy.
+Deciding urgent vs. routine referral (to retina specialist).
+Determining whether the vision loss is reversible.
+Managing poorly controlled diabetes and its impact on progression.</t>
+  </si>
+  <si>
+    <t>Take a focused history on diabetes care and ophthalmologic symptoms.
+Interpret fundoscopy/OCT images (or simulated reports).
+Classify diabetic retinopathy severity.
+Prioritize referrals: ophthalmology (urgent), diabetes educator, social worker.
+Identify social barriers to follow-up and strategize solutions.
+Communicate plan empathetically using teach-back method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recognize proliferative diabetic retinopathy and diabetic macular edema
+Identify risk factors for progression and complications
+Refer urgently to ophthalmology for panretinal photocoagulation
+Recommend control of systemic factors (HbA1c, lipids, BP)
+Initiate patient education about retinopathy and follow-up needs
+Coordinate care with primary care, endocrinology, and social services
+Use an interpreter or medical translation service appropriately
+</t>
+  </si>
+  <si>
+    <t>Ophthalmologist (laser therapy decision-making)
+Endocrinologist (optimize metabolic control)
+Diabetes Educator/Nutritionist (counseling)
+Social Worker/Case Manager (transport, follow-up support)
+Interpreter Services (health communication)</t>
+  </si>
+  <si>
+    <t>How does language and health literacy impact chronic disease outcomes?
+What are the long-term complications of untreated proliferative diabetic retinopathy?
+When is intravitreal anti-VEGF preferred over laser therapy?
+How would you ensure this patient follows up appropriately?
+How do you adapt management for elderly patients with comorbidities and limited social support?</t>
+  </si>
+  <si>
+    <t>What was challenging in prioritizing the patient’s needs?
+Did you feel comfortable explaining complex ophthalmology findings in lay terms?
+What could be improved in the healthcare system to prevent this delay in care?
+How did interprofessional collaboration enhance the quality of care?</t>
+  </si>
+  <si>
+    <t>OSCE Format: Use standardized patient and fundus image interpretation.
+Virtual Simulation: Include telehealth encounter + shared imaging via EHR portal.
+In-classroom Case Review: Team-based learning; split learners into interprofessional roles.</t>
+  </si>
+  <si>
+    <t>Age-Related Macular Degeneration</t>
+  </si>
+  <si>
+    <t>Name: Mr. Howard Lin
+Age: 74
+Gender: Male
+Ethnicity: Chinese-American
+Language Preference: English (fluent, prefers simplified written materials)
+Setting: Outpatient Internal Medicine Clinic
+Target Audience: Senior medical students and junior ophthalmology or internal medicine residents</t>
+  </si>
+  <si>
+    <t>“I’ve noticed a dark patch in the middle of my vision. It started last week and hasn’t gone away.”</t>
+  </si>
+  <si>
+    <t>BP	146/84 mmHg
+HR	76 bpm
+RR	14/min
+Temp	36.8°C
+SpO₂	97% on room air
+BMI	26.4 kg/m²</t>
+  </si>
+  <si>
+    <t>Hypertension × 20 years
+Type 2 Diabetes Mellitus × 5 years (diet-controlled)
+Mild chronic kidney disease (Stage 2)
+Cataracts (surgically corrected 3 years ago)
+Hearing loss (wears hearing aid)</t>
+  </si>
+  <si>
+    <t>Amlodipine 10 mg daily
+Aspirin 81 mg daily
+Multivitamin (non-AREDS formulation)
+OTC Ginkgo Biloba (self-initiated for “memory and vision”)</t>
+  </si>
+  <si>
+    <t>Father had “vision loss in old age”
+Mother had glaucoma</t>
+  </si>
+  <si>
+    <t>Retired engineer; widowed
+Lives alone in a senior independent living community
+Smoked 1 pack/day for 25 years; quit at age 60
+Drinks green tea daily; no alcohol use
+Lacks a primary ophthalmologist and has not had an eye exam in 4 years</t>
+  </si>
+  <si>
+    <t>Fundoscopic Findings (simulated or described):
+Right Eye: Retinal hemorrhage near the macula, grayish-green subretinal lesion suggestive of choroidal neovascular membrane (CNVM)
+Left Eye: Drusen, pigment mottling, geographic atrophy
+Laboratory Results:
+HbA1c: 6.3%
+LDL: 132 mg/dL
+eGFR: 78 mL/min/1.73 m²
+OCT Results (for learners to interpret):
+Right Eye: Subretinal fluid, RPE elevation, hyperreflective lesion
+Left Eye: Thinned RPE, drusen deposits
+Fluorescein Angiography:
+(Pending or optional based on learner choices) Shows classic subfoveal CNVM with leakage</t>
+  </si>
+  <si>
+    <t>Reports recent-onset central visual distortion, especially when reading or recognizing faces
+Describes a “blurry black spot” in the center of his vision in the right eye, worsening over the past 7–10 days
+Notes that straight lines appear “wavy”
+No eye pain, discharge, or photophobia
+Learners will discover during the scenario that his left eye had dry ARMD diagnosed years ago</t>
+  </si>
+  <si>
+    <t>Differentiating wet vs. dry ARMD based on subtle clinical signs
+Avoiding premature reassurance in a seemingly “routine vision complaint”
+Understanding when to urgently refer to ophthalmology for anti-VEGF therapy
+Assessing modifiability of risk factors in an elderly patient
+Managing expectations and treatment burden in older adults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtain a detailed ophthalmologic history including functional vision changes
+Perform or simulate fundoscopy and interpret provided OCT images
+Identify signs of exudative ARMD requiring urgent intervention
+Explain diagnosis and management in accessible terms (low health literacy, older adult)
+Arrange urgent referral to retina specialist for anti-VEGF injection
+Counsel on lifestyle and nutritional risk factors (AREDS-2 supplements)
+Coordinate care across specialties: internal medicine, ophthalmology, geriatrics
+</t>
+  </si>
+  <si>
+    <t>Recognize signs of exudative (wet) ARMD and initiate urgent referral.
+Discuss treatment options including anti-VEGF agents (ranibizumab, aflibercept, etc.).
+Counsel on dry ARMD in the other eye and use of AREDS-2 supplements.
+Review and optimize modifiable risk factors (BP, smoking, diet, eye care follow-up).
+Communicate clearly with an older adult using low-vision-appropriate materials.
+Involve interprofessional team to assist with care navigation and education.</t>
+  </si>
+  <si>
+    <t>Ophthalmologist/Retina Specialist (diagnosis confirmation, anti-VEGF injections)
+Geriatrician (comorbidity review and cognitive screening)
+Low Vision Rehabilitation Specialist (tools for remaining vision optimization)
+Pharmacist (review OTC supplement use, AREDS guidance)
+Dietitian (AREDS dietary recommendations: leafy greens, omega-3s)
+Social Worker/Case Manager (transportation, follow-up coordination)</t>
+  </si>
+  <si>
+    <t>What clues point toward wet vs. dry ARMD, and why is this distinction critical?
+How do anti-VEGF agents work, and what are the current guidelines for their use?
+What barriers do older adults face in accessing eye care, and how can we mitigate them?
+How can healthcare providers reduce misinformation from OTC “vision supplements”?
+How would this case differ if the patient had late-stage bilateral ARMD?</t>
+  </si>
+  <si>
+    <t>What made this case more complex than a typical vision complaint?
+How did you balance urgency vs. education in your patient interaction?
+Did you feel equipped to explain treatment options to someone unfamiliar with ophthalmology?
+What would you do if there was a delay in specialist access?
+What systems could help catch patients like Mr. Lin earlier?</t>
+  </si>
+  <si>
+    <t>OSCE format: Include a simulated patient + OCT interpretation station
+Virtual Simulation: Use telemedicine framework with uploaded fundus images
+In-Classroom: Problem-based learning session with breakout roles (PCP, retina, social work)</t>
+  </si>
+  <si>
+    <t>Khurana, A. K. (2007). Comprehensive ophthalmology (4th ed.). New Age International (P) Ltd., Publishers.</t>
+  </si>
+  <si>
+    <t>Chalazion</t>
+  </si>
+  <si>
+    <t>Name: Mrs. Nuria Rahman
+Age: 66
+Gender: Female
+Ethnicity: Bangladeshi-American
+Language Preference: Fluent in English, occasional interpreter use for medical terms
+Setting: Community health center ophthalmology referral clinic
+Target Audience: Final-year medical students and first-year ophthalmology or internal medicine residents</t>
+  </si>
+  <si>
+    <t>“I’ve had this small lump on my eyelid for about three weeks. It doesn’t hurt, but it’s getting bigger.”</t>
+  </si>
+  <si>
+    <t>BP	138/88 mmHg
+HR	72 bpm
+RR	16/min
+Temp	36.9°C
+SpO₂	98% on room air
+BMI	31.2 kg/m²</t>
+  </si>
+  <si>
+    <t>Onset &amp; Duration: 3 weeks ago
+Symptoms: No pain, just swelling of the upper left eyelid; reports “heaviness” when reading
+Visual Disturbances: No loss of visual acuity but notes mild blurring of vision
+No discharge, no fever, no trauma</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus (diagnosed 12 years ago, suboptimally controlled)
+Hypertension
+Recurrent blepharitis (diagnosed 1 year ago)
+Hyperlipidemia</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Lisinopril 10 mg daily
+Atorvastatin 20 mg nightly
+Occasional use of artificial tears
+No recent antibiotics or steroids</t>
+  </si>
+  <si>
+    <t>Lives with extended family
+No alcohol or tobacco use
+Eats traditional South Asian diet high in carbohydrates and saturated fats
+Works as a school librarian (recently struggling with reading)</t>
+  </si>
+  <si>
+    <t>HbA1c: 8.4%
+Fasting Glucose: 168 mg/dL
+Lipid Panel: LDL 142, HDL 38, Triglycerides 180
+Visual Acuity: 20/20 OD, 20/40 OS
+Eyelid Eversion: Reveals firm, non-tender swelling on the conjunctival side of the left upper lid with a purplish hue, no discharge
+Fluorescein stain: Negative for corneal abrasion
+IOP: Within normal limits</t>
+  </si>
+  <si>
+    <t>The lesion began as a small lump; over two weeks it grew slowly. Patient denied pain, erythema, or systemic signs. She now reports slight pressure on her left eye and visual fatigue. She initially assumed it was a stye and treated it with warm compresses inconsistently.</t>
+  </si>
+  <si>
+    <t>Distinguishing chalazion from hordeolum, sebaceous carcinoma, or other lid masses
+Considering systemic associations (e.g., diabetes, recurrent blepharitis) as predisposing factors
+Evaluating when conservative management is sufficient versus when to escalate
+Recognizing red flag features (e.g., recurrence, age, eyelid distortion) that might warrant biopsy
+Addressing patient misconceptions and over-the-counter treatments that delay care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform a focused ophthalmologic history and physical examination including eyelid eversion
+Accurately identify the lesion as chalazion
+Discuss management options including conservative care, intralesional steroid injection, and I&amp;C
+Recognize poor glycemic control and its contribution to recurrent lid inflammation
+Refer for ophthalmology follow-up for surgical curettage if unresolved in 2–4 weeks
+Educate the patient on eyelid hygiene, compliance with warm compresses, and diabetes control
+Consider rare but serious differentials like meibomian gland carcinoma in elderly patients
+</t>
+  </si>
+  <si>
+    <t>Differentiate chalazion from hordeolum or malignancy
+Examine inner eyelid (conjunctival side) and document lesion characteristics
+Counsel on conservative management: warm compresses, lid hygiene, diabetes control
+Discuss escalation: intralesional triamcinolone vs. incision &amp; curettage
+Recognize potential need for biopsy in recurrent or atypical lesions
+Coordinate care with PCP for metabolic control
+Refer for ophthalmologic evaluation within 2–4 weeks if unresolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophthalmologist: Surgical management or intralesional steroid administration
+Primary Care Physician/Endocrinologist: Diabetes control, lipid optimization
+Pharmacist: Medication counseling (overuse of OTC drops, glycemic medications)
+Diabetes Educator/Nurse: Improve adherence, glucose monitoring
+Interpreter/Cultural Mediator (if needed): Address health literacy barriers
+</t>
+  </si>
+  <si>
+    <t>What are the differentiating features between a chalazion and an internal hordeolum?
+When should we suspect sebaceous carcinoma in a patient with recurrent chalazia?
+What role does glycemic control play in recurrent eyelid lesions?
+How do we approach patient education in culturally diverse, elderly populations?
+What are the risks and benefits of intralesional steroid use in eyelid lesions?</t>
+  </si>
+  <si>
+    <t>What made this case more than a “routine eyelid lump”?
+Did you feel comfortable identifying when to refer and when to reassure?
+What challenges did you encounter when balancing patient autonomy with clinical urgency?
+How can we empower primary care teams to detect eye pathology early?
+What biases might we have about “benign” eye lesions that could delay serious diagnoses?</t>
+  </si>
+  <si>
+    <t>OSCE Format: Station with simulated patient and fundoscopy/photos
+Virtual Simulation: Teleconsultation with image interpretation and management planning
+Classroom/PBL Session: Small group diagnostic reasoning with role-played team interactions</t>
+  </si>
+  <si>
+    <t>More Than Tears: A Diagnostic Challenge in Chronic Epiphora</t>
+  </si>
+  <si>
+    <t>Name: Mr. Elias Matovu
+Age: 72
+Gender: Male
+Ethnicity: Ugandan-born, lives in the U.S. for 30 years
+Language: Fluent in English
+Setting: Urban outpatient ophthalmology clinic
+Target Audience: Senior medical students and junior ophthalmology/internal medicine residents</t>
+  </si>
+  <si>
+    <t>“I’ve had constant tearing in my right eye for almost four months—it’s worse when I go outside.”</t>
+  </si>
+  <si>
+    <t>BP	128/76 mmHg
+HR	68 bpm
+RR	14/min
+Temp	36.7°C
+SpO₂	98% RA
+BMI	26.0 kg/m²</t>
+  </si>
+  <si>
+    <t>Gradual onset of right-sided tearing that worsens in wind or cold air
+Occasional blurry vision due to tear film over cornea
+No significant redness, itching, photophobia, or discharge
+Tried OTC antihistamine drops—no improvement
+Reports feeling a “fullness” near the inner corner of his right eye
+No known trauma, surgeries, or recent infections</t>
+  </si>
+  <si>
+    <t>Hypertension (well-controlled)
+Cataract surgery in left eye only, 2 years ago
+No known autoimmune diseases
+History of seasonal allergic rhinitis</t>
+  </si>
+  <si>
+    <t>Amlodipine 5 mg daily
+Lisinopril 10 mg daily
+Loratadine 10 mg PRN (in allergy season)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retired high school teacher
+Lives with spouse, independent in ADLs
+No smoking or alcohol use
+Walks daily, wears a scarf in cold months
+Moderate exposure to urban air pollution
+</t>
+  </si>
+  <si>
+    <t>Visual Acuity: 20/25 OU
+Slit lamp: Normal conjunctiva and cornea; mild lid laxity on right side
+Fluorescein Dye Disappearance Test (FDDT): Delayed clearance on right eye
+Regurgitation Test: Positive mucopurulent reflux from right lacrimal sac
+Syringing: No flow into nose, saline refluxes through opposite punctum
+Dacryocystography: Shows distal nasolacrimal duct obstruction
+Nasal endoscopy (ENT): Unremarkable findings, no intranasal mass</t>
+  </si>
+  <si>
+    <t>Now notes a mild swelling over the lacrimal sac area
+Occasional mucous strands on waking
+Becomes self-conscious in social situations due to visible tearing
+Worries it could be a sign of something “serious” like a tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differentiate hyperlacrimation from epiphora
+Rule out early dacryocystitis vs chronic mechanical obstruction
+Interpret diagnostic tests like FDDT, syringing, and imaging
+Assess need for surgical referral (e.g., DCR) vs conservative measures
+Address patient concerns empathetically while planning management
+Consider cultural and emotional aspects of chronic facial symptoms
+</t>
+  </si>
+  <si>
+    <t>Perform comprehensive ophthalmologic exam including lacrimal assessment
+Recognize signs of mechanical obstruction in lacrimal drainage
+Conduct appropriate diagnostic maneuvers (dye tests, regurgitation)
+Educate patient about dacryocystorhinostomy (DCR) and referral pathway
+Consider ENT collaboration to rule out nasal or sinus pathology
+Engage in shared decision-making regarding surgical vs. conservative options
+Provide culturally competent reassurance and psychosocial support</t>
+  </si>
+  <si>
+    <t>Identify epiphora (obstructive tearing) vs hyperlacrimation
+Conduct and interpret fluorescein dye test and regurgitation test
+Accurately localize site of obstruction (infer nasolacrimal duct block)
+Counsel patient regarding DCR surgery including risks/benefits
+Coordinate ENT or oculoplastic surgery referral
+Address emotional distress due to visible symptoms
+Document findings and communication appropriately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oculoplastic Surgeon: Evaluate for DCR or endonasal DCR
+ENT Specialist: Exclude intranasal pathology contributing to obstruction
+Primary Care Physician: Monitor systemic health (e.g., blood pressure)
+Ophthalmic Nurse/Technician: Assist with dye tests, irrigation, and patient education
+Cultural Liaison/Interpreter (if needed): Address concerns from non-Western health perspectives
+</t>
+  </si>
+  <si>
+    <t>How can you differentiate between epiphora and reflex tearing clinically?
+What are the key findings on regurgitation and syringing that localize a block?
+What are the indications for dacryocystorhinostomy in adults?
+How might cultural perspectives on visible eye symptoms affect care-seeking behavior?
+How would your management differ if this patient were immunosuppressed or had diabetes?</t>
+  </si>
+  <si>
+    <t>What diagnostic step helped you most in localizing the obstruction?
+How confident were you in interpreting the dye disappearance and syringing tests?
+What role did interprofessional consultation play in your final plan?
+Did anything about the patient's cultural background or communication style challenge your approach?
+How might you approach a similar case in a resource-limited setting?</t>
+  </si>
+  <si>
+    <t>OSCE Station: Includes standardized patient, dye testing props, photos/videos of lacrimal anatomy
+Virtual Case: Asynchronous online discussion with built-in “investigation” choices and branching logic
+Classroom Use: PBL format with evolving case folders (e.g., “Week 1 – Tearing starts”; “Week 3 – new fullness”; etc.)</t>
+  </si>
+  <si>
+    <t>Pseudomembranous conjunctivitis</t>
+  </si>
+  <si>
+    <t>Name: Mr. Javed Khan
+Age: 37
+Gender: Male
+Ethnicity: South Asian (cultural nuances in healthcare-seeking behavior, potential antibiotic use, and trust in traditional vs. modern medicine)
+Occupation: Delivery driver
+Language: Fluent in English; prefers simple explanations                          Target Audience: Medical Students (Senior Year), Residents (PGY1–2)</t>
+  </si>
+  <si>
+    <t>“My eye’s been red and gooey for three days, and now there’s this white stuff sticking to it.”</t>
+  </si>
+  <si>
+    <t>Temperature	38.1°C
+Heart Rate	92 bpm
+Respiratory Rate	16 breaths/min
+Blood Pressure	124/78 mmHg
+SpO₂	98% on room air</t>
+  </si>
+  <si>
+    <t>Mr. Khan reports redness and mild eye pain in the right eye for 3 days, worsening since yesterday. He noticed thick yellowish discharge, increasing tearing, and something “white and stuck” on the inside of his eyelid. He denies any trauma, but admits he rubbed his eyes frequently. He’s been using over-the-counter lubricating drops.
+He also reports photophobia and mild blurred vision. No double vision, systemic rash, or URI symptoms. No known contact with ill individuals but recently delivered packages to a daycare</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus, poorly controlled (last HbA1c: 9.1%)
+Chronic allergic rhinitis
+No prior eye surgeries or known eye disease</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Loratadine PRN</t>
+  </si>
+  <si>
+    <t>Lives with wife and two children
+Non-smoker, drinks occasionally
+No recreational drug use
+Recently increased screen time due to GPS-based work</t>
+  </si>
+  <si>
+    <t>Rapid blood glucose: 198 mg/dL
+Visual acuity (Snellen): OD 20/40, OS 20/20
+Fluorescein stain: Negative for corneal abrasion or ulcer
+Eversion of eyelid: Thin, yellowish-white plaque-like pseudomembrane visible on palpebral conjunctiva
+Membrane peeled: No bleeding underneath
+Conjunctival swab: Sent for Gram stain and culture
+No preauricular lymphadenopathy</t>
+  </si>
+  <si>
+    <t>Differentiating between bacterial, viral, and chemical causes of pseudomembranous conjunctivitis
+Determining when to escalate care to ophthalmology
+Evaluating the need for antibiotics vs. supportive care
+Considering impact of underlying diabetes on eye infections
+Identifying public health risk if contagious etiology is suspected</t>
+  </si>
+  <si>
+    <t>Conduct focused ophthalmic history and examination
+Perform eyelid eversion and identify pseudomembrane
+Develop a differential diagnosis for pseudomembranous conjunctivitis
+Initiate appropriate empiric management (topical antibiotics, hygiene education)
+Decide when to refer or consult ophthalmology
+Address infection control and educate on avoiding transmission
+Communicate findings clearly with nursing and interprofessional team</t>
+  </si>
+  <si>
+    <t>Performs eye exam including lid eversion
+Identifies presence of pseudomembrane
+Orders or interprets culture appropriately
+Considers empirical topical antibiotic (e.g., moxifloxacin)
+Educates patient on hygiene and transmission risks
+Recognizes need to monitor due to diabetes and healing impairment
+Communicates findings and management plan with nursing and supervising physician</t>
+  </si>
+  <si>
+    <t>Nursing: Assist with membrane removal and eye irrigation
+Pharmacy: Discuss safe topical antibiotic use and side effects
+Public Health Team (optional extension): If a reportable infection is suspected (e.g., diphtheria or gonococcal conjunctivitis)</t>
+  </si>
+  <si>
+    <t>What were the key features that distinguished pseudomembranous conjunctivitis from other types?
+How might Mr. Khan’s diabetes complicate his ocular condition?
+What are the infection control considerations in a community setting?
+How did you approach communication with the patient regarding potentially sensitive cultural beliefs about eye health and treatment?</t>
+  </si>
+  <si>
+    <t>How do you decide when a conjunctivitis case requires culture or specialist referral?
+What are the systemic complications of ocular infections in diabetic patients?
+How can clinicians balance antibiotic stewardship with empirical treatment needs in eye infections?</t>
+  </si>
+  <si>
+    <t>OSCE: Simulated patient with removable eyelid membrane (prosthetic or makeup)
+Virtual Simulation: High-resolution eye images + branching dialogue
+Classroom Role-Play: Assign student roles (resident, nurse, ophthalmologist, patient)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Case of Ophthalmia Neonatorum in a Resource-Constrained Urban Clinic</t>
+  </si>
+  <si>
+    <t>Name: Baby Amina
+Age: 6 days
+Sex: Female
+Ethnicity: Somali (important for understanding healthcare access, cultural competence, and language barriers)
+Presenting Location: Urban Community Health Center in a low-resource setting</t>
+  </si>
+  <si>
+    <t>“My baby’s eyes are red and have yellow discharge since yesterday morning.”</t>
+  </si>
+  <si>
+    <t>Temperature: 37.8°C
+Heart Rate: 148 bpm
+Respiratory Rate: 42 breaths/min
+Oxygen Saturation: 98% on room air
+Weight: 3.1 kg
+Appearance: Mild irritability, active movement, feeding adequately</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (of mother)
+Gravida 3 Para 2, uneventful antenatal period until late 3rd trimester
+History of abnormal vaginal discharge in third trimester, not investigated or treated
+No documented STI screening in prenatal record
+Delivered vaginally at home with assistance from a traditional birth attendant
+No intrapartum antibiotic prophylaxis or prophylactic ocular treatment administered postpartum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Infant)
+None
+</t>
+  </si>
+  <si>
+    <t>None known</t>
+  </si>
+  <si>
+    <t>Lives with mother and grandmother in a crowded apartment
+Limited access to formal prenatal care due to immigration and financial barriers
+Language barrier: mother speaks only Somali (requires interpreter)
+No consistent follow-up with pediatric care since birth</t>
+  </si>
+  <si>
+    <t>Work-Up Ordered (available during simulation)
+Conjunctival swab for Gram stain and culture
+Polymerase Chain Reaction (PCR) testing for Chlamydia trachomatis and Neisseria gonorrhoeae
+Complete Blood Count (CBC)
+C-reactive Protein (CRP)
+Photographic image of affected eye(s) (mucopurulent discharge, bilateral conjunctival injection, eyelid edema)</t>
+  </si>
+  <si>
+    <t>On examination, the neonate has bilateral conjunctival injection, mucopurulent discharge, eyelid edema, and mild chemosis. There are no visible corneal opacities or ulcers. The conjunctival Gram stain shows intracellular gram-negative diplococci. PCR is pending but will later confirm Neisseria gonorrhoeae.</t>
+  </si>
+  <si>
+    <t>Differentiate types of neonatal conjunctivitis based on onset, appearance, and risk factors.
+Decide urgency of treatment before definitive culture results return.
+Select empiric treatment that covers both N. gonorrhoeae and Chlamydia trachomatis.
+Understand public health and ethical implications of untreated maternal STIs.
+Communicate with a non-English-speaking caregiver using appropriate interpreter services.
+Balance resource limitations with best practices (e.g., in availability of IV meds or lab testing).</t>
+  </si>
+  <si>
+    <t>Take a focused history from the mother, using an interpreter
+Conduct a thorough neonatal ocular and systemic exam
+Generate a differential diagnosis for neonatal conjunctivitis
+Initiate empiric antibiotic treatment without awaiting culture
+Order appropriate diagnostic testing
+Educate and counsel mother on the diagnosis, treatment plan, and maternal implications
+Notify public health authorities if required (per local STI reporting laws)
+Plan for follow-up and assess risk to future siblings</t>
+  </si>
+  <si>
+    <t>Identify the need for urgent antibiotic therapy
+ Initiate empiric systemic ceftriaxone IM/IV (50 mg/kg, max 125 mg)
+ Begin saline eye irrigation and topical bacitracin or erythromycin
+ Counsel family using an interpreter
+ Notify pediatric infectious disease team (or simulate consultation)
+ Discuss prophylaxis for other newborns in similar settings
+ Provide STI referral for the mother and her partner(s)</t>
+  </si>
+  <si>
+    <t>Nursing: Assisting with eye irrigation and administering IV medications
+Pharmacy: Advising on dosing and availability of pediatric formulations
+Public health liaison: Reporting maternal STI and arranging follow-up
+Interpreter services: Facilitating culturally competent care
+Social work: Addressing healthcare access, immigration status, and follow-up challenges</t>
+  </si>
+  <si>
+    <t>What is the most likely diagnosis and how do you prioritize your differential?
+How does the timing of symptoms help in differentiating etiology (chemical vs bacterial vs viral)?
+What are the systemic implications of gonococcal infection in neonates?
+Why is it essential to treat empirically before PCR or culture results are available?
+How do you ensure maternal and partner treatment to prevent recurrence?
+What barriers might this family face in accessing follow-up care, and how can your team address them?</t>
+  </si>
+  <si>
+    <t>How confident were you in distinguishing types of neonatal conjunctivitis?
+Did anything about the social context affect your decision-making?
+How did the language barrier and lack of prenatal care complicate the case?
+What public health measures can reduce the incidence of ophthalmia neonatorum?
+Reflect on the ethical responsibility of ensuring maternal treatment and follow-up.</t>
+  </si>
+  <si>
+    <t>OSCE Station: Focus on history-taking and decision to treat empirically
+Classroom Discussion: Emphasize clinical reasoning and public health integration
+Virtual Simulation: Include interactive lab result reveals, voice-to-text interpreter role, and escalating symptoms (e.g., corneal opacity risk)</t>
+  </si>
+  <si>
+    <t>Managing a Vision-Threatening Pterygium in a Migrant Agricultural Worker</t>
+  </si>
+  <si>
+    <t>Name: Mr. Pedro Alvarez
+Age: 42
+Gender: Male
+Ethnicity: Hispanic (Mexican origin)
+Language: Spanish-speaking, limited English
+Occupation: Seasonal agricultural worker in California
+Insurance: Uninsured
+Living Conditions: Lives in shared temporary housing with poor ventilation and limited access to health resources
+Target Audience: Senior medical students and first-year residents (IM, FM, Ophthalmology)</t>
+  </si>
+  <si>
+    <t>Mr. Alvarez presents to the free community clinic with progressive irritation, redness, and blurred vision in his right eye over the past 6 months. He reports increasing difficulty focusing, especially during outdoor work in sunlight.</t>
+  </si>
+  <si>
+    <t>Temperature: 36.8°C
+HR: 74 bpm
+BP: 128/82 mmHg
+RR: 14
+SpO₂: 98% on room air
+BMI: 24.1</t>
+  </si>
+  <si>
+    <t>No known chronic medical conditions
+Never had a formal eye exam
+No previous surgeries</t>
+  </si>
+  <si>
+    <t>Smokes 1–2 cigarettes/day (10 pack-years)
+Occasional alcohol use
+Works 12–14 hours daily outdoors without eye protection
+Lives in a crowded bunkhouse with limited hygiene
+No regular primary care follow-up</t>
+  </si>
+  <si>
+    <t>Visual acuity: 20/70 OD, 20/20 OS
+Slit-lamp exam: Nasal wing-shaped fibrovascular growth encroaching &gt;2 mm onto the cornea of the right eye
+Stocker’s line visible ahead of the advancing edge
+Mild induced astigmatism noted on refraction
+Fluorescein staining: No corneal ulceration or active keratitis
+B-scan and OCT: Normal posterior segment findings</t>
+  </si>
+  <si>
+    <t>Differentiating between pterygium and pseudopterygium
+Determining indication for surgical referral vs. conservative management
+Cultural and language barriers in obtaining history and ensuring follow-up
+Understanding recurrence risks and patient education needs in a low-resource setting</t>
+  </si>
+  <si>
+    <t>Conduct a thorough ocular history and physical exam
+Accurately identify pterygium (and rule out pseudopterygium)
+Discuss modifiable environmental risk factors
+Develop a management plan: lubrication, sunglasses, and referral for surgery
+Navigate the challenges of communicating with a Spanish-speaking patient with limited access to care
+Coordinate with social work, case management, and ophthalmology services
+Discuss occupational health and preventive strategies
+Explain the risks of recurrence and surgical options, including conjunctival autografting</t>
+  </si>
+  <si>
+    <t>Recognize and document pterygium with accurate anatomical description
+Differentiate from pseudopterygium using clinical reasoning and history
+Evaluate impact on vision and quality of life
+Identify surgical indications
+Arrange appropriate specialty referral
+Communicate respectfully and effectively with non-English-speaking patient (with interpreter if needed)
+Discuss preventive measures: UV protection, eye hygiene
+Consider barriers to follow-up and treatment access
+Engage interprofessional team to assist with uninsured care pathway</t>
+  </si>
+  <si>
+    <t>Interpreter Services: Spanish interpreter for accurate history and patient education
+Ophthalmology: Referral for surgical consultation
+Social Worker: Assess for transportation, legal support, and healthcare access
+Case Management: Connect patient to community resources for follow-up and affordable surgical care
+Occupational Health Nurse: Coordinate UV protection education and work safety discussion with employer</t>
+  </si>
+  <si>
+    <t>What features distinguish a progressive pterygium from a regressive one?
+How can social determinants of health influence management decisions in this case?
+What are the barriers to accessing ophthalmologic care in underserved populations?
+What can be done at the systems level to reduce occupational risk for conditions like pterygium?
+How do we mitigate recurrence post-surgery, and how do we counsel patients accordingly?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflect on how you adapted your clinical communication to overcome language and cultural barriers.
+What biases or assumptions might affect care in a case like this?
+Discuss how you balanced the need for definitive care (surgery) with the patient's socioeconomic limitations.
+How might interprofessional collaboration improve both patient outcomes and learner understanding?
+In what ways did this case challenge your clinical reasoning or ethical decision-making?
+</t>
+  </si>
+  <si>
+    <t>Standardized Patient OSCE: Focus on communication, history-taking, and clinical reasoning
+Virtual Simulation: Use virtual slit lamp findings and interactive decision trees
+In-Class Role Play: Involve learners in interprofessional scenarios
+Team-Based Learning Module: Include multidisciplinary care planning</t>
+  </si>
+  <si>
+    <t>Systemic Clues in Episcleritis</t>
+  </si>
+  <si>
+    <t>Name: Ms. Nadia Karim
+Age: 28
+Gender: Female
+Ethnicity: Middle Eastern
+Setting: Outpatient Ophthalmology Clinic         Medical Students (Clinical Years)
+Junior Residents (PGY-1 to PGY-2)</t>
+  </si>
+  <si>
+    <t>“I’ve had redness in my left eye for the past three days. It feels a little gritty, but it’s not painful.”</t>
+  </si>
+  <si>
+    <t>Temperature	37.2°C
+Heart Rate	78 bpm
+Blood Pressure	118/76 mmHg
+Respiratory Rate	14/min
+SpO₂	99% RA</t>
+  </si>
+  <si>
+    <t>Mild acne rosacea (diagnosed 2 years ago)
+Recurrent oral ulcers, occasionally genital ulcers (patient has not previously reported them together)</t>
+  </si>
+  <si>
+    <t>Topical metronidazole gel for rosacea
+Combined oral contraceptive pill</t>
+  </si>
+  <si>
+    <t>Works as a paralegal
+No smoking or alcohol use
+Immigrated from Lebanon 5 years ago
+No recent travel or trauma</t>
+  </si>
+  <si>
+    <t>Initially thought it was just “eye strain.”
+No purulent discharge or photophobia
+Feels better with cold compresses
+Woke up with more localized redness this morning</t>
+  </si>
+  <si>
+    <t>Visual acuity: 20/20 both eyes
+Inspection: Localized sectoral redness in the temporal quadrant of the left eye
+Palpation: Mild tenderness over the nodule 2–3 mm from the limbus
+Slit lamp: Normal cornea, no anterior chamber reaction, normal intraocular pressure
+Conjunctiva: Freely mobile over the nodule
+No posterior segment findings</t>
+  </si>
+  <si>
+    <t>Distinguishing between episcleritis vs. scleritis
+Recognizing possible systemic associations in a young female
+Deciding on when to refer to other specialties (e.g., rheumatology, dermatology)
+Identifying red flags that warrant more than symptomatic treatment
+Communicating diagnostic uncertainty and next steps with the patient
+Cultural competence in exploring underreported symptoms (genital ulcers)</t>
+  </si>
+  <si>
+    <t>Perform a focused ocular and systemic history
+Conduct an accurate ocular exam
+Differentiate episcleritis vs. scleritis clinically
+Identify systemic signs pointing to Behçet’s disease
+Order relevant labs for autoimmune/systemic associations
+Prescribe appropriate first-line management (topical corticosteroids or NSAIDs)
+Recognize the need for rheumatology referral
+Provide patient-centered education and reassurance</t>
+  </si>
+  <si>
+    <t>Elicits systemic symptoms (oral/genital ulcers, joint pain)	
+Performs focused ocular exam and distinguishes episcleritis
+Orders inflammatory markers (CRP/ESR), autoimmune panel
+Considers Behçet’s syndrome in differential diagnosis
+Prescribes topical NSAIDs or corticosteroids
+Coordinates rheumatology referral
+Documents findings and communicates plan clearly</t>
+  </si>
+  <si>
+    <t>Rheumatology: For workup and long-term management of suspected Behçet’s
+Pharmacy: For discussing NSAID vs. corticosteroid topical therapy options
+Primary Care: For ongoing systemic monitoring
+Nursing/Ophthalmic Assistant: For patient education and follow-up scheduling</t>
+  </si>
+  <si>
+    <t>What distinguishes episcleritis from scleritis clinically and diagnostically?
+How would your management change if the patient had vision loss or severe pain?
+What systemic diseases are commonly associated with episcleritis?
+How do you address culturally sensitive topics like genital ulcers during history taking?
+What is the role of interprofessional teams in managing this patient long-term?</t>
+  </si>
+  <si>
+    <t>“What clues helped you suspect this was more than a simple eye complaint?”
+“How confident were you in distinguishing episcleritis from scleritis?”
+“What could be the consequences of missing systemic disease in this patient?”
+“How did you approach discussing sensitive symptoms with this patient?”
+“What could be improved in your diagnostic or communication approach?”</t>
+  </si>
+  <si>
+    <t>Virtual Simulation: Patient is presented via standardized patient video or virtual case file
+OSCE Format: 10-minute history + 5-minute focused exam + post-station reflection
+Classroom Teaching: Small group discussion or flipped classroom with differential-building</t>
+  </si>
+  <si>
+    <t>A Multisystem Challenge in a Patient with a Diabetic Foot Ulcer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Mr. Rakesh Kumar
+Age: 58
+Gender: Male
+Ethnicity: South Asian (Indian)
+Language: Hindi (limited English proficiency)
+Interpreter Needed: Yes
+Occupation: Retired factory worker
+Insurance: Public health scheme; limited access to specialized care          Target Audience
+Medical Students and Junior Residents (Internal Medicine, Surgery, Family Medicine)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I have a wound on my foot that isn't healing, and it's starting to smell."
+</t>
+  </si>
+  <si>
+    <t>Temperature: 38.3°C
+Heart Rate: 104 bpm
+Blood Pressure: 146/90 mmHg
+Respiratory Rate: 20/min
+SpO₂: 96% on room air
+Blood Glucose (Random): 326 mg/dL</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus × 16 years
+Hypertension × 8 years
+Hyperlipidemia
+Past amputation of right second toe (3 years ago)
+Chronic diabetic peripheral neuropathy</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Amlodipine 5 mg daily
+Atorvastatin 20 mg nightly
+Aspirin 81 mg daily (self-initiated, not prescribed)</t>
+  </si>
+  <si>
+    <t>Lives with wife in a rural area
+Walks barefoot at home
+Smoker (10 pack-years), quit 2 years ago
+Diet high in refined carbs, poor adherence to diabetic diet
+Limited transportation access to specialty care
+Reluctant to attend follow-ups due to cost and travel</t>
+  </si>
+  <si>
+    <t>Inspection: 3 cm × 4 cm ulcer over the plantar surface near the first metatarsal head, surrounded by erythema and edema
+Discharge: Purulent, foul-smelling
+Sensation: Diminished to 10g monofilament and vibration
+Pulses: Diminished dorsalis pedis and posterior tibial pulse bilaterally
+Skin: Dry, flaky; fissures at heels
+Gait: Antalgic
+Cardiopulmonary Exam: Unremarkable
+Neurologic Exam: Bilateral lower limb sensory deficits (stocking distribution)</t>
+  </si>
+  <si>
+    <t>Mr. Kumar presents with a non-healing ulcer over the plantar aspect of his left foot, first noticed 3 weeks ago after stepping on a small rock while walking barefoot. Initially painless, he ignored it. Over the past week, he reports malodor, mild swelling, and darkening of skin around the area. His wife reports he has become more fatigued, slightly confused, and is "not himself."</t>
+  </si>
+  <si>
+    <t>CBC: WBC 15,800/mm³, Hb 10.5 g/dL
+CRP: Elevated
+HbA1c: 9.6%
+Serum creatinine: 1.6 mg/dL
+Urinalysis: No ketones
+Foot X-ray: Periosteal reaction at 1st metatarsal base, consistent with possible osteomyelitis
+Wound Culture: Pending
+Ankle-Brachial Index (ABI): 0.65 (moderate PAD)
+Duplex Doppler: Reduced flow in anterior tibial and peroneal arteries</t>
+  </si>
+  <si>
+    <t>Subtle signs of systemic infection vs. early sepsis in a poorly controlled diabetic patient
+Diagnosis and staging of diabetic foot ulcer (Modified Wagner Grade 3)
+Distinguishing cellulitis vs. deep tissue infection vs. osteomyelitis
+Assessing peripheral vascular disease and surgical candidacy
+Interpreting vascular studies in diabetic patients with incompressible arteries</t>
+  </si>
+  <si>
+    <t>Perform a focused history and foot exam
+Identify red flags for systemic infection and sepsis
+Order appropriate imaging and labs (X-ray, CBC, cultures, ABI)
+Initiate empiric broad-spectrum antibiotics
+Escalate insulin therapy and discontinue oral hypoglycemics if needed
+Consult vascular surgery and infectious disease
+Counsel the patient and family on foot care and diabetes management</t>
+  </si>
+  <si>
+    <t>Conduct monofilament test and detailed foot exam
+Recognize potential osteomyelitis and order imaging
+Initiate IV antibiotics based on likely polymicrobial infection
+Start insulin for better glucose control
+Request vascular and ID consultations
+Discuss offloading, wound care, and need for possible debridement
+Address cultural/language barriers using interpreter</t>
+  </si>
+  <si>
+    <t>Nursing: Wound care, dressing changes, patient education
+Pharmacist: Antibiotic stewardship, insulin education
+Podiatrist: Pressure offloading and surgical planning
+Vascular Surgeon: Assessment for revascularization
+Dietitian: Nutritional counseling for glycemic control
+Social Worker: Address transportation, affordability, and access issues</t>
+  </si>
+  <si>
+    <t>What factors contributed to the development of this ulcer?
+How would you approach the management of this patient’s hyperglycemia acutely and long-term?
+What are the red flags for deep tissue infection or sepsis in diabetic foot ulcers?
+When is imaging for osteomyelitis indicated?
+How can language and cultural barriers affect outcomes in chronic disease management?</t>
+  </si>
+  <si>
+    <t>Cognitive: What biases might delay recognition of a serious infection in a diabetic foot?
+Technical: What mistakes could be made in interpreting vascular studies in diabetics?
+Systems-based: How does limited access to care affect patient outcomes?
+Communication: How could you improve counseling on foot care for someone with limited health literacy?
+Reflective: How did this case challenge your assumptions about diabetes complications?</t>
+  </si>
+  <si>
+    <t>Classroom Roleplay: Split learners into interprofessional teams to discuss the care plan
+OSCE Format: Focused physical exam, interpretation of imaging, management planning
+Virtual Simulation: Case-based branching scenario with evolving symptoms and labs</t>
   </si>
 </sst>
 </file>
@@ -4202,18 +5195,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60E725C-360B-4F4B-B7BA-A4989DAE5406}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.125" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="21.75" customWidth="1"/>
+    <col min="11" max="11" width="28.5" customWidth="1"/>
+    <col min="12" max="12" width="21.875" customWidth="1"/>
+    <col min="13" max="13" width="34.75" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="15" max="15" width="28.375" customWidth="1"/>
+    <col min="16" max="16" width="23.25" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="18" width="22.25" customWidth="1"/>
+    <col min="19" max="19" width="24.5" customWidth="1"/>
+    <col min="20" max="20" width="25" customWidth="1"/>
+    <col min="21" max="21" width="22.875" customWidth="1"/>
+    <col min="24" max="24" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4290,7 +5303,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4354,6 +5367,472 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>705</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4368,9 +5847,9 @@
       <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4447,7 +5926,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4514,7 +5993,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4581,7 +6060,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4648,7 +6127,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4726,13 +6205,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6618284-8FD0-B940-8C7E-FCCBC512ACC1}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4809,7 +6291,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4885,13 +6367,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3724E7B9-119E-994A-99A2-8337FA3C7903}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4968,7 +6450,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5031,7 +6513,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5096,7 +6578,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5161,7 +6643,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5233,16 +6715,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B54550-1027-A346-8C59-DB22363484BB}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="68.1640625" customWidth="1"/>
+    <col min="3" max="3" width="68.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5319,7 +6801,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5386,7 +6868,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5451,7 +6933,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5518,7 +7000,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5583,7 +7065,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5648,7 +7130,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5711,7 +7193,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5785,11 +7267,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8336F802-8259-704E-9519-29D197B8309B}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5866,7 +7348,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5940,36 +7422,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FF53FD-24A2-40A8-9AFC-21FD8ED25B63}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="21" width="31.33203125" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" customWidth="1"/>
-    <col min="23" max="23" width="34.33203125" customWidth="1"/>
-    <col min="24" max="24" width="33.1640625" customWidth="1"/>
-    <col min="25" max="25" width="31.1640625" customWidth="1"/>
-    <col min="26" max="26" width="30.1640625" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="28.625" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="28.125" customWidth="1"/>
+    <col min="11" max="11" width="25.375" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="26.375" customWidth="1"/>
+    <col min="14" max="14" width="28.375" customWidth="1"/>
+    <col min="15" max="15" width="30.625" customWidth="1"/>
+    <col min="16" max="21" width="31.375" customWidth="1"/>
+    <col min="22" max="22" width="30.625" customWidth="1"/>
+    <col min="23" max="23" width="34.375" customWidth="1"/>
+    <col min="24" max="24" width="33.125" customWidth="1"/>
+    <col min="25" max="25" width="31.125" customWidth="1"/>
+    <col min="26" max="26" width="30.125" customWidth="1"/>
+    <col min="27" max="27" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6052,7 +7534,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="340" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6119,7 +7601,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="340" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6196,7 +7678,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="404" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6270,7 +7752,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="388" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6344,7 +7826,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="356" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6421,7 +7903,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6505,13 +7987,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BE08A7-3E9C-A245-8CE2-0A677D50A320}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6588,7 +8073,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6656,15 +8141,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAE955D-550C-514F-9B20-E1EAD28E083B}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="21.375" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
+    <col min="16" max="16" width="22.25" customWidth="1"/>
+    <col min="17" max="17" width="24.375" customWidth="1"/>
+    <col min="18" max="18" width="22.25" customWidth="1"/>
+    <col min="19" max="19" width="17.25" customWidth="1"/>
+    <col min="20" max="20" width="22.375" customWidth="1"/>
+    <col min="21" max="21" width="31.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6741,7 +8248,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6807,6 +8314,65 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>722</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6817,13 +8383,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD078BD-32DA-0A4F-9EA7-7DEC84E425BD}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6900,7 +8466,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6978,9 +8544,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7057,7 +8623,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7122,7 +8688,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7187,7 +8753,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7252,7 +8818,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/F4BD41127C9201D9/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F5A3B5-10D9-4392-AAA4-B8A480B41FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="8_{39F5A3B5-10D9-4392-AAA4-B8A480B41FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA455F0A-2BD4-4881-B019-8123B0476EBE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{698BA2C6-A399-9543-A0AD-F552E4E19A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Ophthalmology" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="907">
   <si>
     <t>Name</t>
   </si>
@@ -4803,6 +4803,1332 @@
     <t>Classroom Roleplay: Split learners into interprofessional teams to discuss the care plan
 OSCE Format: Focused physical exam, interpretation of imaging, management planning
 Virtual Simulation: Case-based branching scenario with evolving symptoms and labs</t>
+  </si>
+  <si>
+    <t>A Case of Crusted Scabies in a Vulnerable Adult</t>
+  </si>
+  <si>
+    <t>Name: Mr. Francisco Ortega
+Age: 56
+Gender: Male
+Ethnicity: Hispanic
+Language Preference: Spanish (requiring interpreter services)
+Occupation: Former construction worker; currently unemployed
+Living Situation: Transitional housing shelter for unhoused individuals</t>
+  </si>
+  <si>
+    <t>Temp: 37.1°C (98.8°F)
+HR: 88 bpm
+BP: 122/76 mmHg
+RR: 16 breaths/min
+SpO₂: 98% on room air</t>
+  </si>
+  <si>
+    <t>"Unbearable itching, especially at night" – patient reports persistent rash and discomfort for the past 3 weeks.</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes Mellitus (poorly controlled; last A1C 9.2%)
+Chronic alcohol use disorder (currently abstinent × 2 months)
+Depression
+History of untreated latent tuberculosis (LTBI)</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg BID
+Sertraline 50 mg daily
+Multivitamin (shelter-provided)</t>
+  </si>
+  <si>
+    <t>Former smoker (quit 1 year ago)
+Occasional alcohol use until recent abstinence
+No drug use
+No regular primary care follow-up
+Recently entered a shelter system after 9 months of being unhoused</t>
+  </si>
+  <si>
+    <t>CBC: Mild eosinophilia (eosinophils 8%)
+CMP: Within normal limits
+HbA1c: 9.1%
+HIV Rapid Test: Negative
+Skin Scraping (performed later): Multiple live mites and fecal pellets observed under microscopy
+Dermatoscopy: Shows classic "jet with contrail" burrow appearance
+Skin biopsy (pending)</t>
+  </si>
+  <si>
+    <t>The patient presents with:
+Widespread thickened, scaly plaques over the torso, hands, feet, scalp, and back.
+Intensely pruritic rash, particularly affecting interdigital spaces and wrists.
+A history of scratching lesions, secondary impetiginization suspected.
+Roommate at the shelter reportedly also scratching excessively.</t>
+  </si>
+  <si>
+    <t>Differentiating between atopic dermatitis, contact dermatitis, psoriasis, and scabies in an immunocompromised setting.
+Recognizing Norwegian (crusted) scabies, a less common but highly contagious form, especially in immunosuppressed or socially vulnerable populations.
+Deciding when to initiate isolation precautions and notify public health authorities.
+Balancing treatment efficacy with access, follow-up challenges, and comorbid conditions (diabetes, poor hygiene, risk of bacterial superinfection).</t>
+  </si>
+  <si>
+    <t>Elicit a thorough dermatologic and social history, noting risk factors for communicable skin diseases.
+Perform focused skin examination and document distribution and morphology of lesions.
+Order appropriate diagnostic tests, including skin scraping and dermatoscopy.
+Initiate empiric treatment for crusted scabies using ivermectin and topical permethrin.
+Coordinate interprofessional care, including:
+Interpreter services for language-concordant communication.
+Dermatology consult.
+Social work to ensure shelter-wide prophylaxis and hygiene resources.
+Public health notification and infection control team.
+Educate patient on hygiene, transmission, and the importance of follow-up and treatment adherence.
+Evaluate need for antibiotics for possible secondary bacterial infection.</t>
+  </si>
+  <si>
+    <t>Recognize crusted scabies as a medical urgency due to contagiousness
+Order and interpret skin scraping and dermatoscopy
+Start ivermectin and topical permethrin appropriately
+Initiate contact precautions and notify shelter staff
+Coordinate treatment for close contacts
+Address social determinants of health affecting follow-up and hygiene
+Document in a clear, culturally sensitive, and accessible way</t>
+  </si>
+  <si>
+    <t>Dermatology: For confirmation and management guidance
+Infection Control/Public Health: For contact tracing and community mitigation
+Social Work &amp; Shelter Outreach Team: For mass treatment coordination, education, and hygiene kit distribution
+Pharmacy: To ensure medication access and dosing education
+Interpreter Services: To enable patient understanding and consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What features distinguish crusted scabies from classic scabies and psoriasis?
+How does socioeconomic status affect dermatologic disease progression and access to care?
+What are the public health implications of a scabies outbreak in a shelter setting?
+What are the barriers to successful treatment and prevention in transient or unhoused populations?
+How can clinicians advocate for health equity in vulnerable populations with infectious diseases?
+</t>
+  </si>
+  <si>
+    <t>What biases might influence the clinical care of someone experiencing homelessness or housing insecurity?
+Discuss how cultural competence influenced your patient communication today.
+What did you find challenging about diagnosing a dermatologic disease based on physical findings alone?
+Reflect on your communication with other healthcare professionals—what worked well, and what could be improved?
+How would you adapt this case in a rural or resource-limited setting?</t>
+  </si>
+  <si>
+    <t>Classroom Role-Play with interprofessional actors or SPs
+OSCE Station focused on dermatologic diagnosis, infectious disease, or public health
+Virtual Simulation with asynchronous discussion boards for interprofessional collaboration</t>
+  </si>
+  <si>
+    <t>Sleeping Sickness -“The Fading Wakefulness” – A Diagnostic Dilemma in a Globalized World</t>
+  </si>
+  <si>
+    <t>Name: Mr. Elias Ndlovu
+Age: 28
+Gender: Male
+Ethnicity: Black African (Shona ethnicity, Zimbabwean origin)
+Occupation: Wildlife conservationist, recently relocated to Belgium
+Language/Interpreter Needs: English-speaking, fluent
+Target Audience: Clinical-year medical students, internal medicine residents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Fatigue, fever, and strange sleepiness during the day."
+</t>
+  </si>
+  <si>
+    <t>Temp: 38.6°C
+HR: 106 bpm
+BP: 98/62 mmHg
+RR: 20/min
+O2 Sat: 96% on room air
+Weight: 72 kg</t>
+  </si>
+  <si>
+    <t>Mr. Ndlovu presents to your internal medicine ward after referral from a primary care physician for evaluation of intermittent fevers, daytime sleepiness, and progressive confusion over the last three weeks. He reports a painful insect bite on his shoulder approximately one month ago while working in the Zambezi Valley of Zimbabwe, prior to relocating to Belgium. The area became swollen but resolved. Fevers began 10 days later. He has had episodes of malaise, headaches, and joint pains, which were treated with antipyretics with transient relief. His family, now in Belgium, reports he is “napping more than usual during the day and up pacing at night,” and is forgetting names and appointments.</t>
+  </si>
+  <si>
+    <t>Unremarkable. No chronic illnesses.
+Childhood immunizations up to date.</t>
+  </si>
+  <si>
+    <t>No known drug allergies.</t>
+  </si>
+  <si>
+    <t>Non-smoker, occasional alcohol use.
+No drug use.
+Relocated to Belgium 3 weeks ago with his Belgian partner.
+Worked in conservation near Lake Kariba; often slept outdoors.</t>
+  </si>
+  <si>
+    <t>CBC: Mild anemia (Hb 10.8), mild leukocytosis (WBC 12,500/µL), eosinophilia.
+Peripheral smear: Pending.
+LFTs: Mild elevation in AST/ALT.
+Creatinine: Normal.
+CXR: Normal.
+HIV test: Negative.
+Lumbar puncture (CSF): Opening pressure 240 mm H₂O, elevated protein, lymphocytic pleocytosis. Trypanosomes visualized in CSF.
+Serology: T. brucei antibodies detected.
+PCR: Positive for T. b. gambiense.
+Ultrasound: Mild splenomegaly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differentiating between infectious and non-infectious encephalopathy in a febrile traveler.
+Recognizing atypical sleep-related symptoms as a possible red flag.
+Choosing appropriate diagnostic tools when the patient is geographically relocated from an endemic area.
+Managing treatment availability for a rare imported disease in a non-endemic country.
+</t>
+  </si>
+  <si>
+    <t>Obtain a detailed travel and occupational history.
+Construct a broad differential diagnosis (including malaria, typhoid, toxoplasmosis, viral encephalitis, HAT).
+Order appropriate laboratory and diagnostic tests (including CSF analysis).
+Notify public health authorities regarding a notifiable tropical disease.
+Consult infectious disease and tropical medicine specialists.
+Initiate Stage II treatment (Eflornithine IV) per WHO guidelines.
+Screen close contacts as needed.</t>
+  </si>
+  <si>
+    <t>Perform thorough history and travel exposure assessment
+Identify need for lumbar puncture
+Recognize trypanosome on microscopy
+Correctly stage the disease
+Initiate appropriate anti-trypanosomal treatment
+Monitor renal and liver function during therapy
+Engage interpreter services and address cultural beliefs about illness
+Involve public health and infectious disease specialists
+Coordinate with pharmacy for drug procurement (possible delay in Europe)</t>
+  </si>
+  <si>
+    <t>Pharmacy: For sourcing and dosing of anti-trypanosomal agents.
+Infectious Disease Specialist: Treatment guidance and disease staging.
+Public Health Officer: Contact tracing and disease reporting.
+Social Worker/Cultural Liaison: Addressing cultural needs and supporting relocation adjustment.
+Nursing Staff: Monitoring neurological status and fluid balance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the barriers to diagnosing rare imported diseases in non-endemic regions?
+How does cultural competence influence patient engagement and diagnosis?
+What public health considerations arise when managing imported tropical infections?
+Why is CSF analysis crucial in suspected sleeping sickness?
+How do you approach ethical decisions around treatment access for a rare disease?
+</t>
+  </si>
+  <si>
+    <t>How did your assumptions about the patient’s symptoms shape your initial differential?
+What signs pointed to CNS involvement, and how did you prioritize investigations?
+Did the case challenge your knowledge of global infectious diseases? Why or why not?
+How could communication be improved between departments in such a case?
+What biases, if any, did you identify in your team’s clinical reasoning process?</t>
+  </si>
+  <si>
+    <t>Classroom Setting: Case-based discussion with projected lab and CSF images.
+OSCE: Simulated patient with progressive lethargy, travel history; include CSF lab station.
+Virtual Simulation: Interactive case unfolding over several “days,” allowing learners to order tests and receive timed results.</t>
+  </si>
+  <si>
+    <t>Malaria - Diagnosing the Silent Threat</t>
+  </si>
+  <si>
+    <t>Name: Kofi Mensah
+Age: 27
+Gender: Male
+Ethnicity/Nationality: Ghanaian (currently on a graduate research visa in the U.S.)
+Occupation: PhD student in Environmental Sciences
+Language Preference: English (fluent)
+Interpreter Needed: No</t>
+  </si>
+  <si>
+    <t>Fever and confusion for two days</t>
+  </si>
+  <si>
+    <t>Temp: 39.5°C (103.1°F)
+HR: 118 bpm
+BP: 96/58 mmHg
+RR: 24 breaths/min
+SpO₂: 94% on room air
+GCS: 14 (confused, disoriented to date and place)</t>
+  </si>
+  <si>
+    <t>No chronic illnesses documented
+Childhood vaccinations up-to-date (per Ghanaian records)
+One prior hospitalization for "typhoid fever" at age 15</t>
+  </si>
+  <si>
+    <t>Multivitamin (OTC)
+No current prescriptions
+No malaria chemoprophylaxis</t>
+  </si>
+  <si>
+    <t>Traveled from Ghana to the U.S. 3 weeks ago
+No alcohol, tobacco, or recreational drugs
+Lives alone in university housing
+No known sick contacts
+Attended a conference in Washington, D.C. one week ago</t>
+  </si>
+  <si>
+    <t>CBC:
+WBC: 5.1 x10⁹/L
+Hemoglobin: 11.2 g/dL
+Platelets: 72 x10⁹/L
+CMP:
+BUN: 26 mg/dL
+Creatinine: 1.8 mg/dL
+Total bilirubin: 2.4 mg/dL
+ALT/AST: Mildly elevated
+Rapid Malaria Test (HRP2-based): Positive
+Peripheral Blood Smear (Thick and Thin): Pending
+COVID/Influenza Panel: Negative
+Urinalysis: Normal
+Chest X-ray: No infiltrates
+Head CT (non-contrast): Normal
+Blood Cultures: Pending</t>
+  </si>
+  <si>
+    <t>(Over 6 Hours):
+Increasing confusion
+Fever persists despite antipyretics
+Mild jaundice noted
+Blood smear result: Plasmodium falciparum, parasitemia 6%
+Lactic acid: 4.6 mmol/L
+Glucose: 63 mg/dL</t>
+  </si>
+  <si>
+    <t>Anchoring Bias: Initial consideration of influenza or COVID-19 based on fever and season, despite negative tests.
+Cultural Context and Travel History: Missed opportunity to ask about travel on first evaluation.
+Recognition of Severe Malaria: Understanding diagnostic thresholds (e.g., parasitemia &gt;5%, altered mental status).
+Resource Activation: Awareness of CDC emergency drug protocols for artesunate access in the U.S.</t>
+  </si>
+  <si>
+    <t>Complete thorough travel and exposure history.
+Initiate empirical antimalarial therapy based on high suspicion and rapid test.
+Request thick and thin peripheral smear.
+Recognize severe falciparum malaria criteria.
+Monitor for hypoglycemia and renal dysfunction.
+Collaborate with ID specialist, pharmacist, and nursing staff for urgent management.
+Contact CDC Malaria Hotline to arrange IV artesunate.</t>
+  </si>
+  <si>
+    <t>Obtain detailed travel history
+Order rapid malaria test and peripheral smear
+Interpret lab abnormalities (thrombocytopenia, AKI, lactic acidosis)
+Initiate antimalarial treatment promptly
+Identify signs of severe malaria (neurologic changes, parasitemia &gt;5%)
+Notify infectious disease and pharmacy for artesunate access
+Start glucose monitoring and supportive care
+Communicate findings and plan with nursing team</t>
+  </si>
+  <si>
+    <t>Pharmacy: Drug procurement (IV artesunate), dosage verification, drug-drug interaction checks.
+Nursing: Monitoring of vitals, neuro status, IV fluid/glucose administration.
+Infectious Disease Team: Guiding malaria treatment and public health notification.
+Public Health Officer (simulated): Coordination for CDC reporting and follow-up.</t>
+  </si>
+  <si>
+    <t>What clinical and laboratory clues led you to consider malaria?
+How does P. falciparum’s pathophysiology explain this patient’s symptoms and complications?
+What are the unique diagnostic challenges of malaria in non-endemic areas?
+How do you manage patient safety when waiting for CDC-delivered medications?
+What social and cultural factors should be considered in patient education and follow-up?</t>
+  </si>
+  <si>
+    <t>Clinical Judgment: What went well in your assessment? What could have been done earlier?
+Bias Reflection: Were there moments where assumptions delayed correct diagnosis?
+Systems Thinking: How does the U.S. healthcare system’s approach to rare tropical diseases impact care?
+Communication: How did you ensure clear communication with the team and the patient?
+Professional Development: What did this case teach you about practicing medicine in a globalized world?</t>
+  </si>
+  <si>
+    <t>In-Person Simulation Lab: Use standardized patient, bedside monitors, and lab result printouts.
+OSCE Adaptation: Condense into a 10-minute focused station on recognizing severe malaria and ordering appropriate tests.
+Virtual Simulation: Use case-based branching logic with evolving vitals and digital labs.</t>
+  </si>
+  <si>
+    <t>Candidemia in a Post-COVID ICU Survivor</t>
+  </si>
+  <si>
+    <t>Name: Mr. Jalen Rosario
+Age: 58
+Gender: Male
+Ethnicity: Afro-Caribbean
+Language: English (accented), Spanish-speaking family
+Setting: Academic hospital, Medical ICU step-down unit
+Target Audience: Senior medical students and internal medicine or infectious disease residents</t>
+  </si>
+  <si>
+    <t>Fever and worsening confusion over 2 days.</t>
+  </si>
+  <si>
+    <t>Temp: 38.9°C
+HR: 108 bpm
+BP: 92/60 mmHg
+RR: 22/min
+O2 Sat: 95% on 2L nasal cannula</t>
+  </si>
+  <si>
+    <t>Severe COVID-19 pneumonia 3 weeks ago (intubated x 12 days)
+Type 2 Diabetes Mellitus (HbA1c 9.1%)
+Chronic Kidney Disease Stage 3
+Obesity (BMI 33)
+Hypertension</t>
+  </si>
+  <si>
+    <t>Metformin (held during ICU stay)
+Lisinopril
+Insulin sliding scale (inpatient)
+Piperacillin-tazobactam (for presumed UTI, started 5 days ago)
+Pantoprazole</t>
+  </si>
+  <si>
+    <t>Lives with wife and two grandchildren
+Works as a part-time bus driver
+Non-smoker, drinks alcohol occasionally
+No recent travel
+Primary language: English; family primarily Spanish-speaking</t>
+  </si>
+  <si>
+    <t>WBC: 16.8 x10⁹/L
+Creatinine: 2.4 mg/dL (baseline 1.6)
+Glucose: 242 mg/dL
+UA: cloudy, leukocyte esterase +, nitrite –, many yeast forms seen
+Urine culture: Pending
+Blood cultures: Pending (drawn 12 hours ago)
+CT Head (non-contrast): Normal
+Chest X-ray: Left lower lobe atelectasis
+β-D-glucan: Pending
+Eye exam: No focal findings</t>
+  </si>
+  <si>
+    <t>Recognize Candida in blood culture as NOT contamination
+Identify the need for systemic antifungal therapy
+Order fundoscopic exam and echocardiogram for metastatic seeding
+Discuss source control: remove or replace central line
+Adjust antibiotics appropriately—recognize UTI may be colonization
+Notify and involve ID team
+Address persistent hyperglycemia and immunosuppression as risk factors</t>
+  </si>
+  <si>
+    <t>Recognize candidemia as a medical emergency
+Start appropriate empiric antifungal (e.g., echinocandin)
+Discontinue unnecessary broad-spectrum antibiotics
+Order ophthalmologic exam for endophthalmitis screening
+Request transthoracic echocardiogram (TTE)
+Review and plan for removal of central line
+Communicate with ID, nursing, and pharmacy
+Document and communicate findings with family</t>
+  </si>
+  <si>
+    <t>Infectious Disease consult: treatment plan, antifungal selection
+Pharmacy: antifungal dosing, renal adjustment, interactions
+Nursing: monitor vitals, catheter care, coordinate line removal
+Social Work/Interpreter Services: cultural and linguistic family communication
+Ophthalmology/Cardiology: screen for complications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is candidemia not considered a contaminant, unlike some bacteria?
+How does diabetes and recent broad-spectrum antibiotic use contribute to invasive candidiasis?
+What factors guide the choice between fluconazole and echinocandins?
+Why is eye screening essential in all candidemia patients?
+Should all positive Candida urine cultures in hospitalized patients be treated?
+</t>
+  </si>
+  <si>
+    <t>Reflect on the dangers of anchoring on a diagnosis of UTI.
+Discuss the importance of early involvement of infectious disease in fungal infections.
+Explore the psychosocial aspects of language barriers and family communication during serious illness.
+Analyze how central line practices and antibiotic stewardship relate to rising fungal infections.
+Consider institutional policies on candidemia screening and prophylaxis in post-ICU populations.</t>
+  </si>
+  <si>
+    <t>Setting Options:
+OSCE: Focus on clinical reasoning and communication
+Virtual simulation: Role-play ID consult, family meeting
+Classroom case-based learning: Group discussions and care plan formulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Hours Into Case:
+Blood cultures return positive for yeast (Candida glabrata in both bottles)
+Fever persists
+Mild hypotension requires fluid bolus
+Urine culture also grows Candida glabrata
+</t>
+  </si>
+  <si>
+    <t>ID consult recommends echinocandin (micafungin)
+Ophthalmology and echo pending
+Central line in place since ICU admission (not yet removed)</t>
+  </si>
+  <si>
+    <t>A Diagnostic Challenge in Early Disseminated Lyme Borreliosis</t>
+  </si>
+  <si>
+    <t>Name: Daniel Gomez
+Age: 28
+Gender: Male
+Ethnicity: Hispanic-American
+Occupation: Graduate student in environmental sciences; avid hiker
+Setting: Primary care clinic (adaptable for OSCE, classroom, or virtual simulation)                     Target Audience:
+Medical Students (clinical years), Internal Medicine or Family Medicine Residents</t>
+  </si>
+  <si>
+    <t>“I’ve had this weird rash and now I’m feeling off—headaches, joint pain, and tired all the time.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature: 100.6°F (38.1°C)
+Heart Rate: 58 bpm
+Blood Pressure: 110/68 mmHg
+Respiratory Rate: 16/min
+O2 Sat: 98% on room air
+</t>
+  </si>
+  <si>
+    <t>Past Medical History:
+Seasonal allergic rhinitis
+No chronic illnesses
+Up-to-date on vaccinations</t>
+  </si>
+  <si>
+    <t>Loratadine 10 mg daily</t>
+  </si>
+  <si>
+    <t>Lives with partner in suburban Massachusetts
+No tobacco or drug use
+Occasionally drinks socially
+Recently returned from a week-long hiking trip in the Berkshire Mountains
+Reports several mosquito bites, no recollection of tick bites</t>
+  </si>
+  <si>
+    <t>Mild fever, malaise, generalized fatigue x 5 days
+Severe headaches, neck stiffness (not relieved with NSAIDs)
+Intermittent migratory arthralgias (especially knees and wrists)
+Rash noticed 10 days ago on left thigh: expanding, red with central clearing
+Recently noticed brief episodes of dizziness and “fluttering” in chest</t>
+  </si>
+  <si>
+    <t>Skin: 8-cm annular rash with central clearing, left upper thigh
+HEENT: Mild neck stiffness, photophobia
+Neuro: Alert and oriented; mild bilateral facial weakness (subtle); no focal deficits
+Cardiac: Regular rhythm, occasional skipped beat noted on auscultation
+MSK: No visible joint swelling, tenderness in bilateral knees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordered - CBC, ESR, CRP
+Lyme ELISA with reflex Western blot
+Lumbar puncture (CSF: WBC 90 cells/μL, lymphocytic predominance; elevated protein, normal glucose)
+ECG: First-degree AV block (PR interval 0.28 s)
+ANA, RF (to rule out other causes of arthritis)
+Joint aspiration not indicated at this stage
+</t>
+  </si>
+  <si>
+    <t>Atypical or unnoticed tick exposure
+Nonspecific constitutional symptoms
+Early neurologic and cardiac involvement with subtle signs
+Delayed serologic test positivity
+Need to distinguish from viral meningitis, early autoimmune disease, or post-viral fatigue</t>
+  </si>
+  <si>
+    <t>Obtain a thorough outdoor/environmental exposure history
+Recognize the clinical pattern of early disseminated Lyme disease
+Order appropriate diagnostics (including LP and ECG)
+Initiate empiric antibiotic therapy pending confirmation
+Decide on oral vs. IV antibiotic route
+Monitor for progression of AV block or neurologic symptoms
+Coordinate with neurology and infectious disease specialists
+Educate patient on disease course and follow-up</t>
+  </si>
+  <si>
+    <t>Identifies annular rash as erythema migrans
+ Performs full neurologic exam (facial palsy detection)
+ Orders appropriate serologic tests and CSF analysis
+ Requests ECG and identifies conduction abnormality
+ Starts appropriate empiric treatment (e.g., IV ceftriaxone)
+ Recognizes need for interprofessional collaboration
+ Provides patient education and arranges follow-up</t>
+  </si>
+  <si>
+    <t>Infectious Disease: Confirm diagnosis, manage antibiotic selection and duration
+Neurology: Assess for Lyme meningitis vs other causes
+Cardiology: Monitor and manage AV conduction abnormalities
+Nursing: Monitor IV medication, educate patient on signs of worsening condition
+Pharmacy: Review drug allergies, dosing, and renal adjustment if needed</t>
+  </si>
+  <si>
+    <t>What features in this case support a diagnosis of early disseminated Lyme disease?
+Why might serologic testing be falsely negative in early Lyme disease?
+What are the indications for IV versus oral antibiotic therapy?
+How do you differentiate Lyme meningitis from viral or bacterial meningitis clinically?
+What patient education would you provide regarding long-term outcomes and symptom persistence?</t>
+  </si>
+  <si>
+    <t>Clinical Reasoning: At what point should Lyme disease have been suspected?
+Bias Awareness: Did the lack of known tick bite delay your diagnosis? Why?
+Team Communication: How would you communicate concerns about AV block to cardiology?
+Patient-Centered Care: How might the patient's ethnicity, lifestyle, or access to care impact management and follow-up?
+System-Based Practice: What preventive public health measures could reduce Lyme disease incidence?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSCE Setting: Focus on history, neuro exam, and ECG interpretation
+Virtual Simulation: Include diagnostic test interpretation, interprofessional consults
+Classroom Debrief: Emphasize pattern recognition and diagnostic uncertainty
+</t>
+  </si>
+  <si>
+    <t>A Diagnostic Challenge in Adult Congenital Heart Disease</t>
+  </si>
+  <si>
+    <t>Name: Ms. Lian Zhao
+Age: 32
+Gender: Female
+Ethnicity: Chinese-American
+Occupation: Software engineer, recently relocated to a new city
+Primary Language: English (Mandarin-speaking parents)    Target Audience: Medical Students, Residents</t>
+  </si>
+  <si>
+    <t>"I’ve been feeling more tired than usual and get short of breath even when walking up one flight of stairs.”</t>
+  </si>
+  <si>
+    <t>Temp: 36.8°C
+BP: 112/74 mmHg
+HR: 94 bpm, regular
+RR: 18/min
+O2 Sat: 98% on room air
+Height/Weight: 165 cm / 55 kg
+BMI: 20.2</t>
+  </si>
+  <si>
+    <t>Ms. Zhao presents to a primary care clinic with a 6-month history of progressive fatigue and recent onset of exertional dyspnea. She attributes it initially to stress and lack of exercise during the pandemic, but recently noticed occasional palpitations after moderate physical activity. She denies chest pain, syncope, orthopnea, or leg swelling.
+She visited urgent care three months ago for a brief episode of palpitations, which resolved spontaneously and were attributed to anxiety. No further workup was done.</t>
+  </si>
+  <si>
+    <t>No known chronic conditions
+Had frequent respiratory infections in childhood, including one hospitalization at age 5
+Not followed by a cardiologist in adulthood</t>
+  </si>
+  <si>
+    <t>Occasional over-the-counter ibuprofen for menstrual cramps
+No prescription medications</t>
+  </si>
+  <si>
+    <t>Non-smoker, non-drinker
+Lives alone; works remotely
+Engaged, planning to start a family in the next year
+No recent travel; no substance use
+Family history: Mother with type 2 diabetes, father with hypertension. No known congenital heart disease</t>
+  </si>
+  <si>
+    <t>General: Well-appearing young woman, alert and cooperative
+Cardiac Exam:
+Right ventricular heave
+Wide, fixed splitting of S2
+Grade II/VI systolic murmur at left upper sternal border
+Soft diastolic murmur heard at lower left sternal edge
+Lungs: Clear to auscultation bilaterally
+Extremities: No cyanosis, clubbing, or edema
+Neck: Prominent jugular venous v wave observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Labs:               CBC, CMP: Within normal limits
+BNP: 52 pg/mL (mildly elevated)
+ECG:
+Incomplete RBBB (rSR’ in V1)
+Normal sinus rhythm
+CXR:
+Mild cardiomegaly
+Increased pulmonary vasculature
+Enlarged right atrium and pulmonary artery
+Transthoracic Echocardiogram (TTE):
+Right atrial and ventricular dilation
+Color Doppler suggests left-to-right atrial shunt
+No left atrial enlargement
+EF 65%                                Follow-up Diagnostic Plan
+Transesophageal Echocardiography (TEE):
+Confirms ostium secundum atrial septal defect, approx. 1.5 cm
+No anomalous pulmonary venous return
+Pulmonary-to-systemic flow ratio (Qp:Qs) estimated at 2.2:1                 </t>
+  </si>
+  <si>
+    <t>Recognizing adult congenital heart disease in a patient with vague symptoms
+Interpreting subtle signs (wide fixed S2 split, RV heave)
+Understanding when to escalate from TTE to TEE
+Evaluating indications for closure of ASD
+Considering pregnancy planning implications and timing of repair
+Coordinating multi-specialty input (cardiology, radiology, primary care, OB/GYN)</t>
+  </si>
+  <si>
+    <t>Perform focused cardiac history and exam
+Interpret ECG and imaging findings in the context of congenital heart disease
+Generate a differential diagnosis for exertional dyspnea in a young adult
+Justify the use of advanced imaging (TEE)
+Discuss indications for percutaneous ASD closure
+Address patient’s future pregnancy concerns in shared decision-making
+Collaborate with cardiology and possibly maternal-fetal medicine</t>
+  </si>
+  <si>
+    <t>Identify and correctly interpret signs of right heart overload
+Recognize the likely congenital etiology of patient’s symptoms
+Order and interpret appropriate imaging (CXR, Echo, TEE)
+Communicate findings to patient clearly and empathetically
+Discuss closure options (surgical vs. transcatheter) with consultant
+Initiate appropriate referrals (cardiology, women’s health)
+Document findings thoroughly in clinical note format</t>
+  </si>
+  <si>
+    <t>Cardiology: Confirm diagnosis, determine closure candidacy
+Radiology: Assist in echo interpretation and imaging pathway
+Primary Care/Internal Medicine: Manage long-term follow-up and comorbidities
+OB/GYN or Maternal-Fetal Medicine: Pre-conception counseling
+Nursing: Patient education and care coordination</t>
+  </si>
+  <si>
+    <t>What features in this case point toward a congenital rather than acquired cardiac issue?
+How does the clinical significance of ASD change depending on patient age and symptoms?
+Why is fixed splitting of S2 considered pathognomonic in ASD?
+How does the Qp:Qs ratio influence management decisions?
+What are the implications of uncorrected ASD during pregnancy?
+How can clinicians avoid anchoring bias in young adults presenting with "anxiety-like" symptoms?</t>
+  </si>
+  <si>
+    <t>What signs and symptoms did you find most helpful in guiding your diagnosis?
+How confident were you in interpreting the ECG and echo findings?
+In what ways did the patient’s age and gender influence your initial diagnostic impressions?
+Did you consider any other diagnoses before concluding ASD?
+How would you handle communication if this patient were planning an imminent pregnancy?</t>
+  </si>
+  <si>
+    <t>This scenario can be used in:
+OSCEs for clinical reasoning and communication skills
+Simulation labs with manikins and/or actors for physical exam findings
+Virtual platforms using digital ECGs, echo clips, and interactive decision treesSmall group teaching for integrative problem-solving and interdisciplinary learning</t>
+  </si>
+  <si>
+    <t>An Incidental VSD in a Healthy Adult</t>
+  </si>
+  <si>
+    <t>Name: Mr. Daniel Kojo
+Age: 27
+Gender: Male
+Ethnicity: Ghanaian-American
+Occupation: Personal trainer and wellness coach
+Language: English (fluent), Twi (native speaker)</t>
+  </si>
+  <si>
+    <t>“I’ve been feeling winded during workouts lately—things that used to be easy now leave me catching my breath.”</t>
+  </si>
+  <si>
+    <t>Temp: 36.9°C
+BP: 118/72 mmHg
+HR: 86 bpm, regular
+RR: 17/min
+O2 Sat: 98% on room air
+BMI: 23.1</t>
+  </si>
+  <si>
+    <t>Mr. Kojo presents to a community health center with a 2-month history of progressive fatigue and shortness of breath during high-intensity interval training (HIIT) sessions. He notes that he had excellent cardiovascular fitness but now feels out of breath after moderate exertion. He denies orthopnea, chest pain, dizziness, or syncope.
+He mentions a "heart murmur" was heard in childhood but never investigated. He was told it would “go away on its own.” He has never had an ECG or echocardiogram done as an adult.</t>
+  </si>
+  <si>
+    <t>Full-term birth, no known childhood cardiac surgery
+No known chronic conditions
+Never hospitalized beyond infancy</t>
+  </si>
+  <si>
+    <t>None regularly
+Occasional protein and creatine supplements</t>
+  </si>
+  <si>
+    <t>Non-smoker
+Rare alcohol use (socially on weekends)
+No recreational drug use
+Single, lives alone, financially secure
+Active lifestyle, adheres to a high-protein, high-calorie diet
+Recently started training for a half-marathon</t>
+  </si>
+  <si>
+    <t>Father has hypertension
+Mother has hyperlipidemia
+No family history of congenital heart disease or sudden cardiac death</t>
+  </si>
+  <si>
+    <t>General: Fit young male, appears well, not in distress
+Cardiac Exam:
+Palpable systolic thrill at lower left sternal border
+Grade III/VI holosystolic murmur heard best at LLSB, radiates to the right sternal border
+Normal S1, loud P2
+S3 present
+No peripheral edema or cyanosis
+Pulmonary: Clear to auscultation
+Abdomen/Extremities: Normal
+Neuro: Normal</t>
+  </si>
+  <si>
+    <t>CBC, CMP: Normal
+BNP: Mildly elevated at 78 pg/mL
+ECG:
+Normal sinus rhythm
+Mild signs of LV hypertrophy
+CXR:
+Mild cardiomegaly
+Prominent pulmonary vasculature
+Slight LA and LV enlargement
+Transthoracic Echocardiogram (TTE):
+Left-to-right shunt visualized
+Moderate VSD (approx. 6 mm) at membranous septum
+Left atrial and left ventricular enlargement
+Qp:Qs ratio = 1.8:1
+No signs of pulmonary hypertension</t>
+  </si>
+  <si>
+    <t>OSCEs: Focus on physical exam skills (murmur recognition) and diagnostic synthesis
+Virtual Simulations: Use digital echo, ECG, and imaging tools for realism
+Classroom Case-Based Learning: Small group differential development and management planning
+Simulation Lab: Role-play interprofessional communication and counseling</t>
+  </si>
+  <si>
+    <t>How did you approach the diagnostic workup in a seemingly healthy adult?
+Were there any moments where your clinical reasoning was challenged by the patient’s fitness level?
+What alternative diagnoses did you consider for exertional dyspnea in this case?
+How would your management differ if the patient had signs of pulmonary hypertension?
+Reflect on how interprofessional collaboration enriched this case.</t>
+  </si>
+  <si>
+    <t>How can we differentiate between innocent murmurs and pathologic murmurs in adults?
+What are the long-term risks associated with moderate-sized VSDs in active individuals?
+How should Qp:Qs guide the decision to pursue closure of the VSD?
+What are the lifestyle considerations and exercise restrictions for patients with unrepaired moderate VSDs?
+What are the challenges of managing congenital heart conditions that persist undiagnosed into adulthood?</t>
+  </si>
+  <si>
+    <t>Cardiology: Evaluation of VSD, decision on intervention
+Radiology: Cardiac MRI interpretation
+Nursing: Patient education, lifestyle counseling
+Exercise Physiologist or Sports Medicine: Adjustments to fitness training
+Genetics (optional): If family screening becomes relevant</t>
+  </si>
+  <si>
+    <t>Recognize and accurately describe murmur features
+Interpret imaging findings and Qp:Qs ratio
+Formulate differential diagnosis for exertional dyspnea in young adults
+Identify indications for cardiology referral and possible surgical closure
+Educate patient on the significance of VSD and possible long-term implications
+Communicate effectively with allied professionals (e.g., cardiology, exercise physiologist)
+Document findings and decisions in appropriate clinical note format</t>
+  </si>
+  <si>
+    <t>Conduct comprehensive cardiovascular history and physical
+Interpret murmur characteristics and correlate with VSD findings
+Analyze echo findings to assess severity and clinical relevance of VSD
+Decide whether surgical referral is indicated
+Discuss lifestyle modifications, exercise restrictions, and risk assessment
+Initiate interprofessional referrals and patient education
+Provide anticipatory guidance around potential complications (arrhythmias, heart failure)</t>
+  </si>
+  <si>
+    <t>Differentiating benign murmurs from pathological ones in adults
+Connecting childhood murmurs with adult fitness-limiting symptoms
+Deciding when to escalate from echo to cardiac MRI
+Managing an incidental congenital finding in a healthy, active adult
+Counseling on activity restrictions and long-term risks
+Weighing surgical/interventional vs. conservative management based on shunt size</t>
+  </si>
+  <si>
+    <t>Unmasking Adult PDA in a Competitive Athlete</t>
+  </si>
+  <si>
+    <t>Name: Maya Alvarez
+Age: 24
+Gender: Female
+Ethnicity: Hispanic (Mexican-American)
+Occupation: Graduate student and part-time cycling coach
+Primary Language: English (Spanish spoken at home)</t>
+  </si>
+  <si>
+    <t>“I feel this tightness in my chest after a long ride. Not pain, just like my heart is working harder than usual.”</t>
+  </si>
+  <si>
+    <t>Temp: 37.1°C
+BP: 110/66 mmHg
+HR: 98 bpm, regular
+RR: 16/min
+O2 Sat: 99% on room air
+Height/Weight: 168 cm / 60 kg
+BMI: 21.3</t>
+  </si>
+  <si>
+    <t>Maya, a highly active endurance cyclist and full-time public health student, presents with new-onset exertional fatigue and a persistent sense of “racing heart” during long rides, noticed over the past 3 months. She denies frank chest pain, dizziness, or syncope. She has recently cut back on caffeine due to perceived palpitations.
+A health screening at her university clinic detected a continuous murmur, prompting referral. She recalls being told she had a “heart sound” as a child but never required treatment or follow-up.</t>
+  </si>
+  <si>
+    <t>Term birth; healthy childhood
+No surgical history
+Mild asthma as a child, resolved by adolescence</t>
+  </si>
+  <si>
+    <t>Occasional albuterol (inhaler) during allergy season
+Daily multivitamin
+No hormonal contraceptives</t>
+  </si>
+  <si>
+    <t>Non-smoker
+No alcohol or drug use
+Exercises daily (biking, swimming)
+Lives with roommate; no significant stressors
+Parents immigrated from Mexico; both have hypertension
+No known family history of congenital heart disease</t>
+  </si>
+  <si>
+    <t>General: Healthy-appearing young adult, no acute distress
+Cardiac Exam:
+Bounding peripheral pulses
+Hyperdynamic left ventricular impulse
+Continuous “machinery” murmur heard best at left infraclavicular region
+No gallops or rubs
+Lungs: Clear
+Extremities: Warm, no cyanosis or edema
+Neurological/Abdomen: Normal</t>
+  </si>
+  <si>
+    <t>CBC, CMP: Normal
+BNP: Mildly elevated at 61 pg/mL
+ECG:
+Sinus tachycardia
+Evidence of left ventricular hypertrophy (LVH)
+CXR:
+Enlarged left ventricle and prominent pulmonary vasculature
+Mild enlargement of ascending aorta
+Transthoracic Echocardiogram (TTE):
+Hyperdynamic, enlarged LV
+Left atrial enlargement
+Color Doppler reveals abnormal continuous flow near the descending aorta suggestive of patent ductus arteriosus
+Cardiac MRI (confirmatory):
+Moderate PDA with left-to-right shunt
+Qp:Qs = 1.9:1
+No signs of pulmonary hypertension
+Bubble Study: Negative for intracardiac shunts</t>
+  </si>
+  <si>
+    <t>Recognizing that congenital heart defects may persist silently into adulthood
+Distinguishing PDA murmur from other continuous murmurs (e.g., AV fistulas, venous hums)
+Understanding when non-specific symptoms (e.g., fatigue in an athlete) merit cardiac imaging
+Applying Qp:Qs ratios to decision-making about closure
+Counseling a young, asymptomatic but active adult on long-term cardiac risk</t>
+  </si>
+  <si>
+    <t>Conduct focused history and physical with murmur characterization
+Interpret echo, ECG, and imaging findings
+Formulate differential diagnosis for continuous murmurs
+Identify PDA as the most likely cause
+Refer to cardiology for device closure assessment
+Discuss exercise modification, infective endocarditis risk, and contraceptive considerations
+Coordinate follow-up and patient education</t>
+  </si>
+  <si>
+    <t>Recognize and describe continuous machinery murmur
+Interpret ECG and echo findings indicating volume overload
+Identify PDA as likely congenital cause
+Recommend transcatheter closure referral
+Counsel patient on athletic activity safety and risk of endocarditis
+Initiate cardiology and interprofessional referrals
+Communicate clearly in both lay and clinical terms
+Document in SOAP or consultation note format</t>
+  </si>
+  <si>
+    <t>Cardiology: Evaluation for transcatheter PDA closure
+Radiology: Interpretation of cardiac MRI
+Primary Care/Internal Medicine: Long-term cardiovascular follow-up
+Nursing: Patient education on medication adherence, lifestyle, follow-up
+Sports Medicine/Exercise Physiology: Post-closure return-to-activity planning
+Public Health Counselor (optional): Integrate health literacy and cultural perspectives</t>
+  </si>
+  <si>
+    <t>What are the key auscultation features that suggest a PDA over other murmur etiologies?
+How would you approach management if the patient had signs of pulmonary hypertension?
+Why is closure indicated even in asymptomatic patients?
+What lifestyle and reproductive counseling should be offered to a young woman with a PDA?
+How does Qp:Qs influence closure timing and method?</t>
+  </si>
+  <si>
+    <t>What signs in this patient led you to suspect a congenital cause for her symptoms?
+Did the patient’s high fitness level influence your diagnostic assumptions?
+How did you integrate imaging findings into your reasoning?
+What were your priorities when counseling a young patient with a new cardiac diagnosis?
+Reflect on how interprofessional input might alter or support your plan.</t>
+  </si>
+  <si>
+    <t>OSCEs: Murmur recognition, patient explanation, counseling
+Virtual Simulation: Interactive ECG, echo review, diagnostic planning
+Case-Based Discussion: Small group decision-making
+Simulation Lab: Full cardiac exam + interprofessional roleplay</t>
+  </si>
+  <si>
+    <t>Uncovering Bicuspid Aortic Valve and Coarctation in a Young Hypertensive Patient</t>
+  </si>
+  <si>
+    <t>Name: Isaac Opoku
+Age: 21
+Gender: Male
+Ethnicity: Ghanaian-Canadian
+Occupation: University student (Engineering major)
+Language: English (fluent), Akan (home language)
+Insurance/Access to Care: Recently transitioned from pediatric to adult care</t>
+  </si>
+  <si>
+    <t>“I came for a check-up for my college sports form—but they said my blood pressure was way too high.”</t>
+  </si>
+  <si>
+    <t>BP (Right Arm): 158/76 mmHg
+BP (Left Arm): 160/78 mmHg
+BP (Right Leg): 108/64 mmHg
+HR: 88 bpm
+RR: 16/min
+Temp: 36.7°C
+O2 Sat: 99% RA
+Height/Weight: 180 cm / 74 kg
+BMI: 22.8</t>
+  </si>
+  <si>
+    <t>Isaac presents for a routine athletic clearance. He feels well and denies chest pain, dyspnea, or palpitations. However, the examining nurse flags elevated blood pressure. Isaac states he was once told as a child he had a “heart murmur,” but no follow-up was done as he was asymptomatic. He recalls tiring faster than peers during long-distance runs in high school but attributed it to “being out of shape.”
+Further history reveals occasional headaches and cold feet during winter, which he finds annoying but not alarming. He denies dizziness, leg swelling, vision changes, or claudication.</t>
+  </si>
+  <si>
+    <t>No chronic illnesses diagnosed
+Full-term birth; normal developmental milestones
+No known surgeries or hospitalizations
+Pediatric murmur noted at age 8, never followed up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>Non-smoker
+No alcohol or substance use
+Active (plays recreational soccer, cycles to campus)
+Lives in shared housing with roommates
+Eats mostly take-out; no known dietary restrictions</t>
+  </si>
+  <si>
+    <t>Father: Diagnosed with hypertension at 42
+Mother: Healthy
+No family history of congenital heart disease, sudden cardiac death, or early stroke</t>
+  </si>
+  <si>
+    <t>General: Healthy-appearing, muscular young male
+Cardiac:
+Systolic ejection click at right upper sternal border
+Grade II/VI crescendo-decrescendo systolic murmur best heard at the right second intercostal space, radiating to carotids
+No gallops or rubs
+Peripheral Pulses:
+Brachial and radial pulses bounding
+Femoral pulses are delayed and diminished
+Lower extremities cool to touch
+BP discrepancy: Upper extremity significantly &gt; lower extremity
+Back Auscultation: Soft systolic murmur heard at left interscapular space
+Extremities: No edema or cyanosis</t>
+  </si>
+  <si>
+    <t>ECG:
+Left ventricular hypertrophy (LVH) by voltage criteria
+Normal sinus rhythm
+CXR:
+Rib notching of inferior posterior ribs
+Mild prominence of aortic knob
+"Figure 3" sign noted
+Transthoracic Echocardiogram (TTE):
+Bicuspid aortic valve with mild to moderate stenosis (peak gradient 28 mmHg)
+Concentric LVH
+Mild aortic root dilation
+No aortic regurgitation
+No visible coarctation segment on TTE
+Doppler Study of Aorta:
+Suggests peak gradient &gt;30 mmHg between upper and lower body
+Suspicion of coarctation distal to the left subclavian
+CTA Chest (confirmed):
+Discrete coarctation of the aorta just distal to origin of the left subclavian artery
+Significant collateral circulation through intercostals
+No aneurysm or dissection</t>
+  </si>
+  <si>
+    <t>Recognizing hypertension in young adults as a red flag for secondary causes
+Identifying subtle signs of congenital heart disease (delayed pulses, ejection click)
+Coordinating investigations to assess bicuspid valve anatomy and coarctation
+Integrating imaging modalities: echocardiography vs CT angiography
+Determining intervention timing and follow-up care after diagnosis
+Planning transition to adult congenital cardiology care</t>
+  </si>
+  <si>
+    <t>Perform focused cardiovascular history and examination
+Correlate physical findings with possible congenital heart anomalies
+Interpret multimodal imaging and ECG findings
+Formulate a differential for upper-lower extremity BP gradient
+Identify bicuspid aortic valve and coarctation as coexisting conditions
+Initiate referral for cardiology and interventional planning
+Educate the patient on lifestyle, physical activity limitations, and genetic counseling options</t>
+  </si>
+  <si>
+    <t>Accurately identify physical signs of coarctation (pulse discrepancy, murmur location)
+Describe echocardiographic features of bicuspid aortic valve
+Order appropriate cross-sectional imaging (CT/MR angiography)
+Interpret LVH on ECG in context of pressure overload
+Initiate cardiology referral for surgical/stent planning
+Discuss risk of persistent hypertension and need for long-term follow-up
+Address patient transition to adult congenital cardiology care
+Educate patient on condition, prognosis, and activity modifications</t>
+  </si>
+  <si>
+    <t>Cardiology (Adult Congenital Heart Disease specialist): Long-term management
+Radiology: CTA/MRA interpretation and planning for stent/surgical intervention
+Primary Care: Monitor hypertension and coordinate routine care
+Nursing: Transition care education, lifestyle support
+Genetics (optional): Screening for familial BAV if family history develop</t>
+  </si>
+  <si>
+    <t>What are the red flags for secondary hypertension in a young adult?
+How does the combination of BAV and coarctation complicate clinical management?
+Why is cross-sectional imaging critical in diagnosing coarctation of the aorta?
+How would this patient’s care differ if aortic regurgitation or aneurysm were also present?
+What are the long-term risks of untreated coarctation?</t>
+  </si>
+  <si>
+    <t>What led you to consider a congenital cause of hypertension in this case?
+How did physical examination guide your imaging decisions?
+What were the key features that distinguished BAV-related murmur from other systolic murmurs?
+Reflect on the importance of effective handover from pediatric to adult care in congenital heart disease.
+How would you explain this diagnosis to the patient in lay terms?</t>
+  </si>
+  <si>
+    <t>OSCE Scenario: Physical exam, BP interpretation, and imaging discussion
+Virtual Simulation: Interactive murmur identification, CT angiogram review
+Case-Based Group Discussion: Management strategy and follow-up planning
+Simulation Lab: Pulse assessment + communication with cardiology</t>
+  </si>
+  <si>
+    <t>A Delayed Diagnosis of Rheumatic Mitral Stenosis in a Migrant Worker</t>
+  </si>
+  <si>
+    <t>Name: Nirmala Joshi
+Age: 38
+Gender: Female
+Ethnicity/Nationality: South Asian (Nepali), recent immigrant
+Occupation: Domestic worker
+Primary Language: Nepali (limited English)
+Interpreter Available: Yes</t>
+  </si>
+  <si>
+    <t>“I get tired and short of breath, especially when I walk fast or carry bags.”</t>
+  </si>
+  <si>
+    <t>Temperature: 37.0°C
+Blood Pressure: 106/62 mmHg
+Heart Rate: 92 bpm (irregularly irregular)
+Respiratory Rate: 20/min
+SpO₂: 96% on room air
+Height/Weight: 154 cm / 49 kg
+BMI: 20.6</t>
+  </si>
+  <si>
+    <t>Ms. Joshi, a 38-year-old Nepali woman, presents to a free community clinic with progressively worsening shortness of breath over the last year. She reports difficulty climbing stairs, occasional palpitations, and one episode of coughing up blood 2 weeks ago. She attributes her fatigue to “working too hard” and previously self-managed with herbal remedies. Symptoms worsen with exertion or during her menstrual period. She was hospitalized as a child for “joint swelling and fever” but was never told what it was.
+This is her first contact with the healthcare system since immigrating 2 years ago.</t>
+  </si>
+  <si>
+    <t>Childhood hospitalization in Nepal for febrile illness (likely rheumatic fever, untreated)
+No formal diagnosis or long-term treatment provided</t>
+  </si>
+  <si>
+    <t>Lives with the family she works for; no formal housing or healthcare access
+No tobacco, alcohol, or drug use
+No known family history due to early parental deaths
+Walks or uses public transport daily for work
+Limited health literacy; relies on community aid for communication</t>
+  </si>
+  <si>
+    <t>CBC: Mild anemia (Hb 10.4 g/dL)
+BNP: 164 pg/mL
+ECG:
+Atrial fibrillation
+Left atrial enlargement
+Right axis deviation
+Chest X-ray:
+Prominent left atrial shadow
+Kerley B lines
+Mild pulmonary congestion
+Transthoracic Echocardiogram (TTE):
+Severely thickened mitral valve leaflets with restricted motion
+Mitral valve area = 1.0 cm²
+Mean gradient = 13 mmHg
+Moderate pulmonary hypertension (estimated RV systolic pressure = 48 mmHg)
+No left ventricular dysfunction
+INR: 1.0 (baseline)</t>
+  </si>
+  <si>
+    <t>Identifying rheumatic mitral stenosis in a patient with vague symptoms and limited prior documentation
+Recognizing the significance of atrial fibrillation in MS and embolic risk
+Understanding cultural and access barriers to timely diagnosis and treatment
+Determining suitability for percutaneous balloon valvotomy vs surgical intervention
+Coordinating anticoagulation and rhythm control in the setting of AF and mitral stenosis
+Initiating appropriate preventive measures (e.g., endocarditis, stroke prevention)</t>
+  </si>
+  <si>
+    <t>Take a culturally sensitive, focused cardiovascular history with interpreter support
+Identify classic signs of mitral stenosis on exam and imaging
+Recognize and manage AF with risk of embolism (initiate anticoagulation)
+Recommend diuretics for volume control and rate control (BB, CCB or digoxin)
+Refer for percutaneous mitral balloon valvotomy evaluation
+Discuss need for secondary rheumatic fever prophylaxis
+Coordinate with interprofessional team (cardiology, interpreter services, case management)</t>
+  </si>
+  <si>
+    <t>Identify opening snap and diastolic murmur with presystolic accentuation
+Interpret ECG findings of AF and LAE
+Correlate echo findings with severe mitral stenosis
+Initiate warfarin (after INR baseline &amp; potential bridging plan)
+Manage AF with appropriate rate control agent
+Order dental prophylaxis counseling and discuss risk of infective endocarditis
+Communicate with interpreter and use clear teach-back method
+Refer for valve intervention consultation
+Initiate social work referral for healthcare access and long-term follow-up</t>
+  </si>
+  <si>
+    <t>Cardiology: Evaluation for valvotomy vs valve replacement
+Nursing: Education on medication adherence, symptom monitoring
+Pharmacy: Warfarin counseling and INR monitoring plan
+Interpreter Services: Ensure accurate communication
+Social Work/Public Health Nurse: Connect to safety-net care, medication access, follow-up
+Primary Care/Internal Medicine: Long-term anticoagulation and comorbidity management</t>
+  </si>
+  <si>
+    <t>What are the auscultatory features that help distinguish mitral stenosis from other valvular lesions?
+How does atrial fibrillation impact the hemodynamics and embolic risk in mitral stenosis?
+When is percutaneous mitral valvotomy preferred over surgical intervention?
+How do social determinants of health impact timely diagnosis and treatment in this case?
+What strategies would you use to ensure safe outpatient follow-up for this patient?</t>
+  </si>
+  <si>
+    <t>What challenges did you encounter managing a case with language and socioeconomic barriers?
+Reflect on the importance of auscultation skills in an era of imaging dependency.
+How did your clinical reasoning evolve after seeing the echocardiogram?
+What long-term complications could arise if this patient remains untreated?
+What assumptions did you have to check while managing this patient?</t>
+  </si>
+  <si>
+    <t>OSCE: Focused cardiac exam + communication with interpreter
+Virtual Simulation: Murmur identification, echo interpretation
+Case-Based Learning Session: Longitudinal care planning
+Simulation Lab: Multidisciplinary team huddle + patient education station</t>
+  </si>
+  <si>
+    <t>An Incidental Discovery of Mitral Valve Prolapse in a Young Female with Unexplained Symptoms</t>
+  </si>
+  <si>
+    <t>Name: Aleena Rahim
+Age: 27
+Gender: Female
+Ethnicity: Pakistani-American
+Language: Fluent in English and Urdu
+Occupation: Graduate student (Biomedical Engineering)
+Insurance Status: Privately insured (university-sponsored)</t>
+  </si>
+  <si>
+    <t>“I keep getting these fluttering feelings in my chest—and sometimes I feel a bit short of breath or dizzy when I’m stressed or standing for too long.”</t>
+  </si>
+  <si>
+    <t>Temperature: 36.9°C
+Blood Pressure: 102/68 mmHg
+Heart Rate: 94 bpm, irregularly irregular
+Respiratory Rate: 16/min
+SpO₂: 98% on room air
+Height/Weight: 167 cm / 58 kg
+BMI: 20.8</t>
+  </si>
+  <si>
+    <t>Aleena presents to the student health clinic with a 6-month history of intermittent palpitations, lightheadedness, and vague, non-exertional chest discomfort. She notices symptoms more often during times of academic stress or when she skips meals. She denies syncope, exertional dyspnea, orthopnea, or leg swelling. No history of chest trauma or stimulant use. She recently began using a smartwatch that recorded irregular heart rhythms, prompting this visit.</t>
+  </si>
+  <si>
+    <t>Diagnosed with generalized anxiety disorder (GAD), managed with therapy
+No known cardiovascular disease
+No previous surgeries or hospitalizations</t>
+  </si>
+  <si>
+    <t>Occasional use of propranolol 10 mg PRN for anxiety-related palpitations
+Daily multivitamin</t>
+  </si>
+  <si>
+    <t>NKDA (No Known Drug Allergies)</t>
+  </si>
+  <si>
+    <t>Non-smoker
+Drinks coffee (2 cups/day)
+No alcohol or recreational drug use
+Lives alone; active lifestyle, runs 3x/week
+Family history: Mother has hypothyroidism; paternal aunt had a “heart murmur”</t>
+  </si>
+  <si>
+    <t>General: Alert, pleasant, well-groomed
+Cardiac:
+Mid-systolic click followed by a late systolic murmur heard best at the apex, enhanced with Valsalva
+No S3, S4, or thrills
+Lungs: Clear
+Extremities: No edema or cyanosis
+Neuro: Normal, oriented, no deficits</t>
+  </si>
+  <si>
+    <t>ECG: Sinus rhythm with occasional premature atrial contractions (PACs)
+24-Hour Holter Monitor:
+Frequent PACs, infrequent premature ventricular contractions (PVCs), no sustained arrhythmia
+Echocardiogram (TTE):
+Posterior leaflet prolapse into the left atrium during late systole
+Mild mitral regurgitation
+No left ventricular dilation or hypertrophy
+Normal ejection fraction
+TSH: Normal
+CBC, Electrolytes: WNL
+BNP: Normal</t>
+  </si>
+  <si>
+    <t>Differentiating benign palpitations from arrhythmias in a young, anxious patient
+Understanding the dynamic nature of MVP murmur and when to escalate care
+Interpreting echocardiogram findings in context of symptomatic vs asymptomatic MVP
+Counseling patients on non-cardiac causes of palpitations while not dismissing organic pathology
+Determining who requires follow-up echocardiography, lifestyle counseling, or referral</t>
+  </si>
+  <si>
+    <t>Conduct a focused cardiovascular and psychosocial history
+Perform a dynamic cardiac auscultation (Valsalva, squat-to-stand)
+Interpret Holter and echo findings for MVP
+Explain the natural history and prognosis of MVP with and without MR
+Reassure and educate the patient while ensuring symptom-based follow-up
+Consider beta-blockers for symptomatic relief
+Identify when to refer to cardiology (e.g., progression of MR, arrhythmias, syncopal episodes)</t>
+  </si>
+  <si>
+    <t>Identify mid-systolic click and correlate with MVP
+Interpret echo report accurately (leaflet involvement, MR severity)
+Differentiate between physiologic and pathologic palpitations
+Recommend lifestyle and symptom monitoring (e.g., hydration, caffeine moderation)
+Counsel patient on warning signs that warrant immediate evaluation
+Document findings appropriately and develop a follow-up plan
+Engage in shared decision-making regarding pharmacotherapy (propranolol)</t>
+  </si>
+  <si>
+    <t>Cardiology: For patients with moderate/severe MR or worsening symptoms
+Psychiatry/Psychology: To co-manage anxiety, particularly in setting of somatic symptoms
+Nursing: Education on home heart rate monitoring and trigger identification
+Primary Care: Longitudinal monitoring and repeat echocardiography
+Pharmacy: Medication counseling for beta blockers and potential interactions</t>
+  </si>
+  <si>
+    <t>How can auscultation techniques help differentiate MVP from other causes of systolic murmurs?
+What are the clinical “red flags” that distinguish benign MVP from progressive disease?
+What is the role of beta blockers in MVP, and how do you decide when to initiate them?
+How should MVP be followed over time in an asymptomatic vs symptomatic patient?
+How do mental health conditions complicate the interpretation and management of cardiac symptoms?</t>
+  </si>
+  <si>
+    <t>What biases might have led to attributing Aleena’s symptoms to anxiety prematurely?
+Reflect on the importance of listening closely to physical findings—even in young patients.
+How did your management plan balance reassurance with vigilance?
+What communication strategies did you use to address the patient’s concerns?
+How would you approach this case if the patient were in a resource-limited setting?</t>
+  </si>
+  <si>
+    <t>OSCE Format: Cardiac auscultation + counseling station
+Virtual Simulation: Heart sound identification, dynamic murmur analysis
+Group Discussion Module: Management strategy for MVP with arrhythmia
+Simulation Lab: Teaching station for Holter interpretation and beta-blocker dosing</t>
   </si>
 </sst>
 </file>
@@ -4896,6 +6222,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5197,36 +6527,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60E725C-360B-4F4B-B7BA-A4989DAE5406}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.125" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="51.09765625" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" customWidth="1"/>
+    <col min="4" max="4" width="25.3984375" customWidth="1"/>
+    <col min="5" max="5" width="34.19921875" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="28.8984375" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" customWidth="1"/>
     <col min="11" max="11" width="28.5" customWidth="1"/>
-    <col min="12" max="12" width="21.875" customWidth="1"/>
-    <col min="13" max="13" width="34.75" customWidth="1"/>
+    <col min="12" max="12" width="21.8984375" customWidth="1"/>
+    <col min="13" max="13" width="34.69921875" customWidth="1"/>
     <col min="14" max="14" width="28" customWidth="1"/>
-    <col min="15" max="15" width="28.375" customWidth="1"/>
-    <col min="16" max="16" width="23.25" customWidth="1"/>
+    <col min="15" max="15" width="28.3984375" customWidth="1"/>
+    <col min="16" max="16" width="23.19921875" customWidth="1"/>
     <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="18" width="22.25" customWidth="1"/>
+    <col min="18" max="18" width="22.19921875" customWidth="1"/>
     <col min="19" max="19" width="24.5" customWidth="1"/>
     <col min="20" max="20" width="25" customWidth="1"/>
-    <col min="21" max="21" width="22.875" customWidth="1"/>
+    <col min="21" max="21" width="22.8984375" customWidth="1"/>
     <col min="24" max="24" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5303,7 +6633,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5368,7 +6698,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5430,7 +6760,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="390" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5492,7 +6822,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5554,7 +6884,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5613,7 +6943,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="390" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5669,7 +6999,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="390" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5725,7 +7055,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5778,7 +7108,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="312" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5847,9 +7177,9 @@
       <selection activeCell="G6" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5926,7 +7256,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5993,7 +7323,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6060,7 +7390,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6127,7 +7457,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6203,18 +7533,38 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6618284-8FD0-B940-8C7E-FCCBC512ACC1}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" customWidth="1"/>
+    <col min="9" max="9" width="28.09765625" customWidth="1"/>
+    <col min="10" max="10" width="21.8984375" customWidth="1"/>
+    <col min="11" max="11" width="18.8984375" customWidth="1"/>
+    <col min="12" max="12" width="20.09765625" customWidth="1"/>
+    <col min="13" max="13" width="24.8984375" customWidth="1"/>
+    <col min="14" max="14" width="26.59765625" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="16" width="22.69921875" customWidth="1"/>
+    <col min="17" max="17" width="22.3984375" customWidth="1"/>
+    <col min="18" max="18" width="21.3984375" customWidth="1"/>
+    <col min="19" max="19" width="24.8984375" customWidth="1"/>
+    <col min="20" max="20" width="22.19921875" customWidth="1"/>
+    <col min="21" max="21" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6291,7 +7641,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6357,6 +7707,291 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="327.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>803</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6371,9 +8006,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -6450,7 +8085,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6513,7 +8148,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6578,7 +8213,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6643,7 +8278,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6719,12 +8354,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="68.125" customWidth="1"/>
+    <col min="3" max="3" width="68.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6801,7 +8436,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6868,7 +8503,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6933,7 +8568,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7000,7 +8635,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7065,7 +8700,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7130,7 +8765,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7193,7 +8828,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7265,13 +8900,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8336F802-8259-704E-9519-29D197B8309B}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="4" max="4" width="19.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" customWidth="1"/>
+    <col min="9" max="10" width="14.3984375" customWidth="1"/>
+    <col min="11" max="11" width="21.796875" customWidth="1"/>
+    <col min="12" max="12" width="20.19921875" customWidth="1"/>
+    <col min="13" max="13" width="25.796875" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="27.59765625" customWidth="1"/>
+    <col min="16" max="16" width="19.09765625" customWidth="1"/>
+    <col min="17" max="17" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="23.59765625" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="20" max="20" width="19.796875" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7287,7 +8946,7 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -7348,7 +9007,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7412,6 +9071,363 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>906</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7426,32 +9442,32 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="23.625" customWidth="1"/>
-    <col min="10" max="10" width="28.125" customWidth="1"/>
-    <col min="11" max="11" width="25.375" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="26.375" customWidth="1"/>
-    <col min="14" max="14" width="28.375" customWidth="1"/>
-    <col min="15" max="15" width="30.625" customWidth="1"/>
-    <col min="16" max="21" width="31.375" customWidth="1"/>
-    <col min="22" max="22" width="30.625" customWidth="1"/>
-    <col min="23" max="23" width="34.375" customWidth="1"/>
-    <col min="24" max="24" width="33.125" customWidth="1"/>
-    <col min="25" max="25" width="31.125" customWidth="1"/>
-    <col min="26" max="26" width="30.125" customWidth="1"/>
-    <col min="27" max="27" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" customWidth="1"/>
+    <col min="5" max="5" width="32.59765625" customWidth="1"/>
+    <col min="6" max="6" width="19.09765625" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" customWidth="1"/>
+    <col min="8" max="8" width="28.59765625" customWidth="1"/>
+    <col min="9" max="9" width="23.59765625" customWidth="1"/>
+    <col min="10" max="10" width="28.09765625" customWidth="1"/>
+    <col min="11" max="11" width="25.3984375" customWidth="1"/>
+    <col min="12" max="12" width="20.8984375" customWidth="1"/>
+    <col min="13" max="13" width="26.3984375" customWidth="1"/>
+    <col min="14" max="14" width="28.3984375" customWidth="1"/>
+    <col min="15" max="15" width="30.59765625" customWidth="1"/>
+    <col min="16" max="21" width="31.3984375" customWidth="1"/>
+    <col min="22" max="22" width="30.59765625" customWidth="1"/>
+    <col min="23" max="23" width="34.3984375" customWidth="1"/>
+    <col min="24" max="24" width="33.09765625" customWidth="1"/>
+    <col min="25" max="25" width="31.09765625" customWidth="1"/>
+    <col min="26" max="26" width="30.09765625" customWidth="1"/>
+    <col min="27" max="27" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7534,7 +9550,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="312" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7601,7 +9617,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="312" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7678,7 +9694,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7752,7 +9768,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7826,7 +9842,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7903,7 +9919,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7991,12 +10007,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8073,7 +10089,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8148,30 +10164,30 @@
       <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="6" width="19.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.8984375" customWidth="1"/>
+    <col min="9" max="9" width="17.3984375" customWidth="1"/>
+    <col min="10" max="10" width="17.8984375" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="21.375" customWidth="1"/>
+    <col min="13" max="13" width="21.3984375" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="29" customWidth="1"/>
-    <col min="16" max="16" width="22.25" customWidth="1"/>
-    <col min="17" max="17" width="24.375" customWidth="1"/>
-    <col min="18" max="18" width="22.25" customWidth="1"/>
-    <col min="19" max="19" width="17.25" customWidth="1"/>
-    <col min="20" max="20" width="22.375" customWidth="1"/>
-    <col min="21" max="21" width="31.375" customWidth="1"/>
+    <col min="16" max="16" width="22.19921875" customWidth="1"/>
+    <col min="17" max="17" width="24.3984375" customWidth="1"/>
+    <col min="18" max="18" width="22.19921875" customWidth="1"/>
+    <col min="19" max="19" width="17.19921875" customWidth="1"/>
+    <col min="20" max="20" width="22.3984375" customWidth="1"/>
+    <col min="21" max="21" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8248,7 +10264,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8315,7 +10331,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="390" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8387,9 +10403,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8466,7 +10482,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8544,9 +10560,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8623,7 +10639,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8688,7 +10704,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8753,7 +10769,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8818,7 +10834,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
